--- a/covid19_drdfm/data/example-output/WV/df.xlsx
+++ b/covid19_drdfm/data/example-output/WV/df.xlsx
@@ -447,22 +447,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Employment1</t>
+          <t>GDP</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Employment2</t>
+          <t>Prod</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CPIU</t>
+          <t>UI</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PCEC</t>
+          <t>UR</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <v>40909</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1911968455201832</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.2999999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -488,16 +488,16 @@
         <v>40940</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8170711884503437</v>
+        <v>0.9792458015912889</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8258139200228848</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4804248097350872</v>
+        <v>0.207058232299019</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9797476154831077</v>
+        <v>0.2916666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         <v>40969</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8135122768330407</v>
+        <v>0.9794563405214187</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8239012100173577</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4783596646895119</v>
+        <v>0.1816823990022929</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9810227532710519</v>
+        <v>0.2999999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -522,16 +522,16 @@
         <v>41000</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8018882440272991</v>
+        <v>0.9806067245238038</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8180161564203544</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4580164258916395</v>
+        <v>0.1878120662696517</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9802673354121212</v>
+        <v>0.3083333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -539,16 +539,16 @@
         <v>41030</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8182644828456356</v>
+        <v>0.982180049737298</v>
       </c>
       <c r="C6" t="n">
-        <v>0.819039970538338</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2823120937051792</v>
+        <v>0.2028418475831665</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9781946328218968</v>
+        <v>0.3166666666666667</v>
       </c>
     </row>
     <row r="7">
@@ -556,16 +556,16 @@
         <v>41061</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8137537407112719</v>
+        <v>0.9817782278312861</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8175601904981341</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3408982227867237</v>
+        <v>0.2081447625246162</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9782729285877159</v>
+        <v>0.3250000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -573,16 +573,16 @@
         <v>41091</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8032999920192481</v>
+        <v>0.9780848190843977</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8205909698480336</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3934463727922193</v>
+        <v>0.2392357084138474</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9782685951174721</v>
+        <v>0.3250000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -590,16 +590,16 @@
         <v>41122</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8069065484055066</v>
+        <v>0.9761406167780877</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8218528986159431</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6527359268372354</v>
+        <v>0.1825118686062808</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9766178983157136</v>
+        <v>0.3250000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -607,16 +607,16 @@
         <v>41153</v>
       </c>
       <c r="B10" t="n">
-        <v>0.834591805387279</v>
+        <v>0.9763373308561424</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8220476470543482</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6040928049754837</v>
+        <v>0.2143304746786493</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9791251766773968</v>
+        <v>0.3250000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -624,16 +624,16 @@
         <v>41183</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8210965500458856</v>
+        <v>0.9773505868327024</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8210990580937662</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D11" t="n">
-        <v>0.506728251696605</v>
+        <v>0.1761575973173962</v>
       </c>
       <c r="E11" t="n">
-        <v>0.98396198687112</v>
+        <v>0.3166666666666667</v>
       </c>
     </row>
     <row r="12">
@@ -641,16 +641,16 @@
         <v>41214</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8033629658599835</v>
+        <v>0.9796996063115325</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8212544385497698</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3006557725101743</v>
+        <v>0.2413517899263925</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9784922095456062</v>
+        <v>0.3166666666666667</v>
       </c>
     </row>
     <row r="13">
@@ -658,16 +658,16 @@
         <v>41244</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8068337204551878</v>
+        <v>0.9793616917751542</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8244209083586208</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D13" t="n">
-        <v>0.37413804795302</v>
+        <v>0.2496319050489869</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9770136390526549</v>
+        <v>0.3083333333333333</v>
       </c>
     </row>
     <row r="14">
@@ -675,16 +675,16 @@
         <v>41275</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8055543580226956</v>
+        <v>0.9846150552505382</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8223316824338748</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4730736920152049</v>
+        <v>0.270337338877089</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9824906505822639</v>
+        <v>0.2999999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -692,16 +692,16 @@
         <v>41306</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8095017709632395</v>
+        <v>0.9834598267163426</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8259306364023364</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6349860070635606</v>
+        <v>0.1939134362900357</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9789649499577149</v>
+        <v>0.2833333333333333</v>
       </c>
     </row>
     <row r="16">
@@ -709,16 +709,16 @@
         <v>41334</v>
       </c>
       <c r="B16" t="n">
-        <v>0.805262264353838</v>
+        <v>0.9866348685096663</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8204826442824038</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2471689513070562</v>
+        <v>0.1765637901806676</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9778175006322838</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="17">
@@ -726,16 +726,16 @@
         <v>41365</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8185903306715626</v>
+        <v>0.9814591100875247</v>
       </c>
       <c r="C17" t="n">
-        <v>0.822175410606488</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2813645162752761</v>
+        <v>0.1497529395587992</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9772029075462043</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="18">
@@ -743,16 +743,16 @@
         <v>41395</v>
       </c>
       <c r="B18" t="n">
-        <v>0.815943793632123</v>
+        <v>0.9805308916362365</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8232958481094075</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3993518297214528</v>
+        <v>0.1705767048712609</v>
       </c>
       <c r="E18" t="n">
-        <v>0.978462438089242</v>
+        <v>0.2583333333333333</v>
       </c>
     </row>
     <row r="19">
@@ -760,16 +760,16 @@
         <v>41426</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8112013334931283</v>
+        <v>0.9795597884409142</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8217901061473404</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4918638127890506</v>
+        <v>0.2251925554017161</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9807746156791444</v>
+        <v>0.2583333333333333</v>
       </c>
     </row>
     <row r="20">
@@ -777,16 +777,16 @@
         <v>41456</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8165747062094404</v>
+        <v>0.9813156667358194</v>
       </c>
       <c r="C20" t="n">
-        <v>0.819524705107271</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4719810427311055</v>
+        <v>0.2077614698344976</v>
       </c>
       <c r="E20" t="n">
-        <v>0.979262308224759</v>
+        <v>0.2583333333333333</v>
       </c>
     </row>
     <row r="21">
@@ -794,16 +794,16 @@
         <v>41487</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8091941800468382</v>
+        <v>0.9811231552779697</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8244296392645107</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4921920362000497</v>
+        <v>0.1784265007587401</v>
       </c>
       <c r="E21" t="n">
-        <v>0.978809824789761</v>
+        <v>0.2583333333333333</v>
       </c>
     </row>
     <row r="22">
@@ -811,16 +811,16 @@
         <v>41518</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8102815037840168</v>
+        <v>0.9818602290243158</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8220025398786427</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3976005690238599</v>
+        <v>0.186202116988849</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9786423571171835</v>
+        <v>0.2583333333333333</v>
       </c>
     </row>
     <row r="23">
@@ -828,16 +828,16 @@
         <v>41548</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7748893508307949</v>
+        <v>0.9805707342314813</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8234365294311478</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4050553748719518</v>
+        <v>0.2110000437695358</v>
       </c>
       <c r="E23" t="n">
-        <v>0.982760952384311</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="24">
@@ -845,16 +845,16 @@
         <v>41579</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8412095355145293</v>
+        <v>0.980654065346068</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8256241022260118</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4666731454969064</v>
+        <v>0.2622223178929439</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9812503954983279</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="25">
@@ -862,16 +862,16 @@
         <v>41609</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8177730833014433</v>
+        <v>0.9803759696646575</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8167674345972542</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D25" t="n">
-        <v>0.504271433281398</v>
+        <v>0.2824752745654198</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9796268144426162</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="26">
@@ -879,16 +879,16 @@
         <v>41640</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8203859482666936</v>
+        <v>0.9778565806307092</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8219631015294253</v>
+        <v>0.4446558010689881</v>
       </c>
       <c r="D26" t="n">
-        <v>0.493934346505972</v>
+        <v>0.2591347356598474</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9777682868082346</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="27">
@@ -896,16 +896,16 @@
         <v>41671</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8063658967333401</v>
+        <v>0.9786998582197903</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8207960185887884</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4316850960443767</v>
+        <v>0.2082087559806282</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9765583916561276</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="28">
@@ -913,16 +913,16 @@
         <v>41699</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8254627173521412</v>
+        <v>0.9777804378835883</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8257300281421081</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4759716818008413</v>
+        <v>0.1511093337405211</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9818597384704605</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="29">
@@ -930,16 +930,16 @@
         <v>41730</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8076266774238325</v>
+        <v>0.9844707322322949</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8270190966267184</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D29" t="n">
-        <v>0.467607911577312</v>
+        <v>0.1341967772589656</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9818450146574353</v>
+        <v>0.2583333333333333</v>
       </c>
     </row>
     <row r="30">
@@ -947,16 +947,16 @@
         <v>41760</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8126222115907127</v>
+        <v>0.9845750298033998</v>
       </c>
       <c r="C30" t="n">
-        <v>0.822667647186039</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4694354679379368</v>
+        <v>0.18880629141552</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9813103476548442</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="31">
@@ -964,16 +964,16 @@
         <v>41791</v>
       </c>
       <c r="B31" t="n">
-        <v>0.822080809866217</v>
+        <v>0.9849237753386423</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8277647645364593</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4420601940130754</v>
+        <v>0.2090801009046518</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9787811040867067</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="32">
@@ -981,16 +981,16 @@
         <v>41821</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8123850160291054</v>
+        <v>0.9814117883118657</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8242174934096156</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4328522352647602</v>
+        <v>0.2188068132584796</v>
       </c>
       <c r="E32" t="n">
-        <v>0.981568512407801</v>
+        <v>0.2416666666666667</v>
       </c>
     </row>
     <row r="33">
@@ -998,16 +998,16 @@
         <v>41852</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8116286777528561</v>
+        <v>0.9824613635585844</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8217938869930206</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3723022077765162</v>
+        <v>0.1521868478428015</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9755787392253349</v>
+        <v>0.2416666666666667</v>
       </c>
     </row>
     <row r="34">
@@ -1015,16 +1015,16 @@
         <v>41883</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8158018120719297</v>
+        <v>0.9822134940668988</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8266302034985644</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3832166305801797</v>
+        <v>0.1706796148783727</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9791237022486354</v>
+        <v>0.2416666666666667</v>
       </c>
     </row>
     <row r="35">
@@ -1032,16 +1032,16 @@
         <v>41913</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8300547056264846</v>
+        <v>0.9795531766920482</v>
       </c>
       <c r="C35" t="n">
-        <v>0.824127956244755</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3705152434098531</v>
+        <v>0.2186083865709753</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9777252114392785</v>
+        <v>0.2416666666666667</v>
       </c>
     </row>
     <row r="36">
@@ -1049,16 +1049,16 @@
         <v>41944</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8061260573769912</v>
+        <v>0.9798820797677843</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8257594276344505</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2910385964014466</v>
+        <v>0.2424096701751749</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9784373590744389</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="37">
@@ -1066,16 +1066,16 @@
         <v>41974</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8144364776464362</v>
+        <v>0.9803749798810294</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8254627742564683</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2342588880723614</v>
+        <v>0.2714685266494967</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9778768331199639</v>
+        <v>0.2416666666666667</v>
       </c>
     </row>
     <row r="38">
@@ -1083,16 +1083,16 @@
         <v>42005</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8257177919739254</v>
+        <v>0.9785961561854443</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8222752866023222</v>
+        <v>0.1506756893971514</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07870096975326518</v>
+        <v>0.2870598781406751</v>
       </c>
       <c r="E38" t="n">
-        <v>0.973189625613409</v>
+        <v>0.2416666666666667</v>
       </c>
     </row>
     <row r="39">
@@ -1100,16 +1100,16 @@
         <v>42036</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8034061642763356</v>
+        <v>0.9744980866379559</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8250360465027927</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4991270461619542</v>
+        <v>0.1944137820668006</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9781517738182761</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="40">
@@ -1117,16 +1117,16 @@
         <v>42064</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8098794065368862</v>
+        <v>0.974280005484694</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8183126748240903</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5066174053952723</v>
+        <v>0.2264016262846144</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9803666848320294</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="41">
@@ -1134,16 +1134,16 @@
         <v>42095</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8204703357769915</v>
+        <v>0.9827842982366185</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8254374346256902</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4289422565245661</v>
+        <v>0.1365984613084902</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9809898533911975</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="42">
@@ -1151,16 +1151,16 @@
         <v>42125</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8177257676594207</v>
+        <v>0.9817283254633826</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8277463401846614</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5349905266530876</v>
+        <v>0.1649524198350561</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9791221375105186</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="43">
@@ -1168,16 +1168,16 @@
         <v>42156</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8069081625681082</v>
+        <v>0.9820106878260911</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8206217231591978</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5101022712614719</v>
+        <v>0.2316248105620321</v>
       </c>
       <c r="E43" t="n">
-        <v>0.978997543988299</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="44">
@@ -1185,16 +1185,16 @@
         <v>42186</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8074361484750139</v>
+        <v>0.9786258341824898</v>
       </c>
       <c r="C44" t="n">
-        <v>0.825997886786185</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4545412938591608</v>
+        <v>0.2144065221273347</v>
       </c>
       <c r="E44" t="n">
-        <v>0.977651602238532</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="45">
@@ -1202,16 +1202,16 @@
         <v>42217</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8192830710681206</v>
+        <v>0.979146471959957</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8200613956704663</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3796449961608567</v>
+        <v>0.1764850447665497</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9770182518838439</v>
+        <v>0.2583333333333333</v>
       </c>
     </row>
     <row r="46">
@@ -1219,16 +1219,16 @@
         <v>42248</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7944628639571398</v>
+        <v>0.9801050064620661</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8198242076397693</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2738033829246919</v>
+        <v>0.1855446390100394</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9793377865484874</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="47">
@@ -1236,16 +1236,16 @@
         <v>42278</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8217058068666531</v>
+        <v>0.9790307942494291</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8269545291609484</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4264502145385787</v>
+        <v>0.2158584096675539</v>
       </c>
       <c r="E47" t="n">
-        <v>0.974613594179923</v>
+        <v>0.2416666666666667</v>
       </c>
     </row>
     <row r="48">
@@ -1253,16 +1253,16 @@
         <v>42309</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8145543568902583</v>
+        <v>0.9785369473762112</v>
       </c>
       <c r="C48" t="n">
-        <v>0.8232721524409696</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4361074937639563</v>
+        <v>0.2561030760475949</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9783873368083413</v>
+        <v>0.2416666666666667</v>
       </c>
     </row>
     <row r="49">
@@ -1270,16 +1270,16 @@
         <v>42339</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8301987447499016</v>
+        <v>0.9794510444637473</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8251024926703656</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3291286649421136</v>
+        <v>0.2657043833199647</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9767338669535904</v>
+        <v>0.2416666666666667</v>
       </c>
     </row>
     <row r="50">
@@ -1287,16 +1287,16 @@
         <v>42370</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8252302269764712</v>
+        <v>0.9775940685228044</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8190219459600729</v>
+        <v>0.3526309789661738</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3582333302100829</v>
+        <v>0.2912454857306049</v>
       </c>
       <c r="E50" t="n">
-        <v>0.98167363084452</v>
+        <v>0.2416666666666667</v>
       </c>
     </row>
     <row r="51">
@@ -1304,16 +1304,16 @@
         <v>42401</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8168785545332913</v>
+        <v>0.9783129831716185</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8227369194373043</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D51" t="n">
-        <v>0.317139331932879</v>
+        <v>0.2238552011310319</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9804857309116678</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="52">
@@ -1321,16 +1321,16 @@
         <v>42430</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8166172624762037</v>
+        <v>0.976404171369873</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8244083425910558</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D52" t="n">
-        <v>0.527342817213182</v>
+        <v>0.1635615575114485</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9799677242166804</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="53">
@@ -1338,16 +1338,16 @@
         <v>42461</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8019526135529373</v>
+        <v>0.9814423782542909</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8218700422722833</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5600276253743403</v>
+        <v>0.1520601163196794</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9843664993593824</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="54">
@@ -1355,16 +1355,16 @@
         <v>42491</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8089540979698909</v>
+        <v>0.9826057826617209</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8163254740842698</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4911291353516724</v>
+        <v>0.2090092571082031</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9803337721967778</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="55">
@@ -1372,16 +1372,16 @@
         <v>42522</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8100965821959163</v>
+        <v>0.9823228739714028</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8241843065082501</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5104932049111612</v>
+        <v>0.1923441046221653</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9790415223734227</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="56">
@@ -1389,16 +1389,16 @@
         <v>42552</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8183967831948311</v>
+        <v>0.9824617499521803</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8284285715748178</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3560972505717873</v>
+        <v>0.2092296379039033</v>
       </c>
       <c r="E56" t="n">
-        <v>0.981015281890797</v>
+        <v>0.2166666666666667</v>
       </c>
     </row>
     <row r="57">
@@ -1406,16 +1406,16 @@
         <v>42583</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8147146482922014</v>
+        <v>0.9817562670911325</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8202700264204013</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4669182200412889</v>
+        <v>0.1517024755076585</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9817396552186772</v>
+        <v>0.2166666666666667</v>
       </c>
     </row>
     <row r="58">
@@ -1423,16 +1423,16 @@
         <v>42614</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8063220843276583</v>
+        <v>0.9815977870953502</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8258780750537105</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5033182562553414</v>
+        <v>0.160071659194748</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9787856550618544</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="59">
@@ -1440,16 +1440,16 @@
         <v>42644</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8080478076572463</v>
+        <v>0.9814043295561143</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8186995853766205</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4901319569909405</v>
+        <v>0.1863359148403762</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9801327453041018</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="60">
@@ -1457,16 +1457,16 @@
         <v>42675</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8124965697135286</v>
+        <v>0.9825782397626195</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8191507907084582</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4353786391004341</v>
+        <v>0.2202767396619979</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9760322058243911</v>
+        <v>0.1916666666666667</v>
       </c>
     </row>
     <row r="61">
@@ -1474,16 +1474,16 @@
         <v>42705</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8139368519997429</v>
+        <v>0.9816422634949665</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8228900852335511</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4986856164755484</v>
+        <v>0.2709180295074348</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9794266720231996</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="62">
@@ -1491,16 +1491,16 @@
         <v>42736</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8067712217436585</v>
+        <v>0.9863799377863873</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8233304665654089</v>
+        <v>0.9212361703797448</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5700337409100718</v>
+        <v>0.2903201625054239</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9846549301094776</v>
+        <v>0.1583333333333334</v>
       </c>
     </row>
     <row r="63">
@@ -1508,16 +1508,16 @@
         <v>42767</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8182238647215494</v>
+        <v>0.9876936491413209</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8223746599484877</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D63" t="n">
-        <v>0.454856946818932</v>
+        <v>0.1697376783431637</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9820560951350176</v>
+        <v>0.1416666666666667</v>
       </c>
     </row>
     <row r="64">
@@ -1525,16 +1525,16 @@
         <v>42795</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8270024494154147</v>
+        <v>0.9889480293190629</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8195031242404242</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3578150554331625</v>
+        <v>0.1785791995818198</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9721032874061285</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="65">
@@ -1542,16 +1542,16 @@
         <v>42826</v>
       </c>
       <c r="B65" t="n">
-        <v>0.813441790037817</v>
+        <v>0.9780187329219087</v>
       </c>
       <c r="C65" t="n">
-        <v>0.82201841942333</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4379823293781138</v>
+        <v>0.1320879786694017</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9838459099350136</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="66">
@@ -1559,16 +1559,16 @@
         <v>42856</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8005818281819526</v>
+        <v>0.9796187939087277</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8227593368173521</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3433451879440547</v>
+        <v>0.161232117055449</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9778158293211698</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="67">
@@ -1576,16 +1576,16 @@
         <v>42887</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8154578610815599</v>
+        <v>0.9788149208981968</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8220724558148131</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D67" t="n">
-        <v>0.410549347079741</v>
+        <v>0.2143234682883428</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9800304991106373</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="68">
@@ -1593,16 +1593,16 @@
         <v>42917</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8155122669478176</v>
+        <v>0.9823992514253815</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8215006893539329</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3952852113377378</v>
+        <v>0.2241264030223044</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9765079631200255</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="69">
@@ -1610,16 +1610,16 @@
         <v>42948</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8046915430680994</v>
+        <v>0.9810285626335299</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8196592654238672</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5609150233935125</v>
+        <v>0.1746218177436331</v>
       </c>
       <c r="E69" t="n">
-        <v>0.979102434513735</v>
+        <v>0.1416666666666667</v>
       </c>
     </row>
     <row r="70">
@@ -1627,16 +1627,16 @@
         <v>42979</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8335959615893236</v>
+        <v>0.980134803784351</v>
       </c>
       <c r="C70" t="n">
-        <v>0.818047234278343</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6199503001817661</v>
+        <v>0.1554166725122772</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9794011733698422</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="71">
@@ -1644,16 +1644,16 @@
         <v>43009</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7839068529739605</v>
+        <v>0.983311633143358</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8201370254127243</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4163665091399184</v>
+        <v>0.2041425509443363</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9848340411545677</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="72">
@@ -1661,16 +1661,16 @@
         <v>43040</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8136231473531693</v>
+        <v>0.9831741922438674</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8231901576691838</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5054531287823583</v>
+        <v>0.2586519527628245</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9771776535582584</v>
+        <v>0.1583333333333334</v>
       </c>
     </row>
     <row r="73">
@@ -1678,16 +1678,16 @@
         <v>43070</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8103141008001655</v>
+        <v>0.9832912654203018</v>
       </c>
       <c r="C73" t="n">
-        <v>0.819973832527095</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4790655403947179</v>
+        <v>0.2888084824913531</v>
       </c>
       <c r="E73" t="n">
-        <v>0.980097022167201</v>
+        <v>0.1583333333333334</v>
       </c>
     </row>
     <row r="74">
@@ -1695,16 +1695,16 @@
         <v>43101</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8246466423312068</v>
+        <v>0.9842118267352117</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8201546828915486</v>
+        <v>0.4195368703961971</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5579617292651852</v>
+        <v>0.2965801552462929</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9868247112645042</v>
+        <v>0.1583333333333334</v>
       </c>
     </row>
     <row r="75">
@@ -1712,16 +1712,16 @@
         <v>43132</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8330659605477557</v>
+        <v>0.9848853367202652</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8290277501110732</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5115782435314746</v>
+        <v>0.1904496378616208</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9827496788666857</v>
+        <v>0.1583333333333334</v>
       </c>
     </row>
     <row r="76">
@@ -1729,16 +1729,16 @@
         <v>43160</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8075171382937057</v>
+        <v>0.9855064284341594</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8228779466578857</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4066752155894716</v>
+        <v>0.1816971387047914</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9834844979235169</v>
+        <v>0.1583333333333334</v>
       </c>
     </row>
     <row r="77">
@@ -1746,16 +1746,16 @@
         <v>43191</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8102497836714794</v>
+        <v>0.984140422159468</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8199781543527314</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4864555798421895</v>
+        <v>0.1162364489582789</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9810957775417388</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="78">
@@ -1763,16 +1763,16 @@
         <v>43221</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8183984649936918</v>
+        <v>0.9841470404346222</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8267750524003048</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4990037387758953</v>
+        <v>0.159858135721604</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9817591353187322</v>
+        <v>0.1416666666666667</v>
       </c>
     </row>
     <row r="79">
@@ -1780,16 +1780,16 @@
         <v>43252</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8106440688255686</v>
+        <v>0.9846013184553793</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8223965221927245</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D79" t="n">
-        <v>0.443536424040789</v>
+        <v>0.1994453425305942</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9784106657816277</v>
+        <v>0.1416666666666667</v>
       </c>
     </row>
     <row r="80">
@@ -1797,16 +1797,16 @@
         <v>43282</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8198417357191273</v>
+        <v>0.9841267162558807</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8166722053316008</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4183183667114636</v>
+        <v>0.2124242986274045</v>
       </c>
       <c r="E80" t="n">
-        <v>0.979491595978044</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="81">
@@ -1814,16 +1814,16 @@
         <v>43313</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7853610245878195</v>
+        <v>0.9841937017298964</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8238186390224658</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4596972479140294</v>
+        <v>0.1583764803505173</v>
       </c>
       <c r="E81" t="n">
-        <v>0.975033970154923</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="82">
@@ -1831,16 +1831,16 @@
         <v>43344</v>
       </c>
       <c r="B82" t="n">
-        <v>0.824129043682934</v>
+        <v>0.9832731661512146</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8178823542293278</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4715287686595205</v>
+        <v>0.1712038862190803</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9826209712153378</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="83">
@@ -1848,16 +1848,16 @@
         <v>43374</v>
       </c>
       <c r="B83" t="n">
-        <v>0.819552886792289</v>
+        <v>0.9794135469278923</v>
       </c>
       <c r="C83" t="n">
-        <v>0.820674477890516</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4961603152117828</v>
+        <v>0.2108181361929328</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9796210093737875</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="84">
@@ -1865,16 +1865,16 @@
         <v>43405</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8179852778074733</v>
+        <v>0.980251139442347</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8181339159172965</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3415997683456339</v>
+        <v>0.2633811926784992</v>
       </c>
       <c r="E84" t="n">
-        <v>0.98166126228281</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="85">
@@ -1882,16 +1882,16 @@
         <v>43435</v>
       </c>
       <c r="B85" t="n">
-        <v>0.8101511910185669</v>
+        <v>0.9803874635780828</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8213242929372483</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3600564217250121</v>
+        <v>0.2954205999682032</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9806439707852279</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="86">
@@ -1899,16 +1899,16 @@
         <v>43466</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7973139801202804</v>
+        <v>0.9766638008115488</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8259309936709726</v>
+        <v>0.1227604081384049</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3647174717258458</v>
+        <v>0.3227949934968092</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9786664338987189</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="87">
@@ -1916,16 +1916,16 @@
         <v>43497</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8196116871088801</v>
+        <v>0.9755505338400688</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8138010898794865</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5038792710841919</v>
+        <v>0.2167578577599349</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9767325971937034</v>
+        <v>0.1166666666666667</v>
       </c>
     </row>
     <row r="88">
@@ -1933,16 +1933,16 @@
         <v>43525</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8018329244093183</v>
+        <v>0.9747666858589701</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8229487460305345</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5913563343395413</v>
+        <v>0.1643128685308544</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9793252182555847</v>
+        <v>0.1083333333333333</v>
       </c>
     </row>
     <row r="89">
@@ -1950,16 +1950,16 @@
         <v>43556</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8045367245601444</v>
+        <v>0.9807586150276071</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8234836547045727</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5446092017417534</v>
+        <v>0.1249615539682035</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9851240471169656</v>
+        <v>0.1083333333333333</v>
       </c>
     </row>
     <row r="90">
@@ -1967,16 +1967,16 @@
         <v>43586</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8113212842232385</v>
+        <v>0.9822931978929543</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8170516540991243</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4097728513891348</v>
+        <v>0.1677173211938975</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9785662060674547</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="91">
@@ -1984,16 +1984,16 @@
         <v>43617</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8186221843914154</v>
+        <v>0.982270425381366</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8206962770596742</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D91" t="n">
-        <v>0.38649153885636</v>
+        <v>0.208384615064202</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9823941640804321</v>
+        <v>0.1083333333333333</v>
       </c>
     </row>
     <row r="92">
@@ -2001,16 +2001,16 @@
         <v>43647</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8189620174086807</v>
+        <v>0.9811480255401975</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8175942660774596</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4792752537025191</v>
+        <v>0.2324316460751045</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9798030836781131</v>
+        <v>0.1166666666666667</v>
       </c>
     </row>
     <row r="93">
@@ -2018,16 +2018,16 @@
         <v>43678</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8154828077055877</v>
+        <v>0.9818568944632101</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8230507446757434</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4312301472581591</v>
+        <v>0.1582140600407005</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9781783786194277</v>
+        <v>0.1166666666666667</v>
       </c>
     </row>
     <row r="94">
@@ -2035,16 +2035,16 @@
         <v>43709</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8241791552854203</v>
+        <v>0.9816376221590658</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8221298771470258</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4565441355295847</v>
+        <v>0.2026588720041938</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9765585280189282</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="95">
@@ -2052,16 +2052,16 @@
         <v>43739</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8126319742663987</v>
+        <v>0.9786728640054722</v>
       </c>
       <c r="C95" t="n">
-        <v>0.819289810779421</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5099701165816628</v>
+        <v>0.2527254482232388</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9797858088696763</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="96">
@@ -2069,16 +2069,16 @@
         <v>43770</v>
       </c>
       <c r="B96" t="n">
-        <v>0.8124937237162303</v>
+        <v>0.9796680206681859</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8224031023543661</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4682875810744797</v>
+        <v>0.2929200064901</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9750503690185857</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="97">
@@ -2086,16 +2086,16 @@
         <v>43800</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8132794396938479</v>
+        <v>0.9783754356018923</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8183015343154202</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4666626050633214</v>
+        <v>0.2850256709125391</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9831072632591373</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="98">
@@ -2103,16 +2103,16 @@
         <v>43831</v>
       </c>
       <c r="B98" t="n">
-        <v>0.7973372499006984</v>
+        <v>0.9765294079518348</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8266883716369168</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4562957516250217</v>
+        <v>0.2633107845660951</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9826493603113391</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="99">
@@ -2120,16 +2120,16 @@
         <v>43862</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8137453876417202</v>
+        <v>0.9769936075085259</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8244621293926442</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D99" t="n">
-        <v>0.439059555797408</v>
+        <v>0.2212326571613092</v>
       </c>
       <c r="E99" t="n">
-        <v>0.98124669381788</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="100">
@@ -2137,16 +2137,16 @@
         <v>43891</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6969692592429803</v>
+        <v>0.9791453447908507</v>
       </c>
       <c r="C100" t="n">
-        <v>0.762894256021043</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2262743642876197</v>
+        <v>0.1401464324762213</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9717266243966615</v>
+        <v>0.1416666666666667</v>
       </c>
     </row>
     <row r="101">
@@ -2154,16 +2154,16 @@
         <v>43922</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>0.9628955650636005</v>
       </c>
       <c r="C101" t="n">
-        <v>0.01182346175643989</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>0.956664595749088</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="102">
@@ -2171,16 +2171,16 @@
         <v>43952</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9569070071883189</v>
+        <v>0.9580499782539496</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9241151740788696</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3522132825430839</v>
+        <v>0.05553165799392323</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9795497106727131</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="103">
@@ -2188,16 +2188,16 @@
         <v>43983</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0.9556471143326066</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6138188260274466</v>
+        <v>0.1140188795014797</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9824998107526026</v>
+        <v>0.5750000000000001</v>
       </c>
     </row>
     <row r="104">
@@ -2205,16 +2205,16 @@
         <v>44013</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8619915693855537</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8719716723206929</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6223428498919439</v>
+        <v>0.1793993068853492</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9876516371695102</v>
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="105">
@@ -2222,16 +2222,16 @@
         <v>44044</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9301592416903756</v>
+        <v>0.9992669949588067</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8827494139037064</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D105" t="n">
-        <v>0.568632768710604</v>
+        <v>0.1374618667608268</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9869906892720072</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="106">
@@ -2239,16 +2239,16 @@
         <v>44075</v>
       </c>
       <c r="B106" t="n">
-        <v>0.8220104815944788</v>
+        <v>0.9994433335900367</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8519897923760563</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4905468607131919</v>
+        <v>0.1629047989781745</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9811618247421615</v>
+        <v>0.3416666666666667</v>
       </c>
     </row>
     <row r="107">
@@ -2256,16 +2256,16 @@
         <v>44105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.8854473545587337</v>
+        <v>0.9845451970568354</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8424105555477105</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4091997879257664</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9753990616390603</v>
+        <v>0.2833333333333333</v>
       </c>
     </row>
     <row r="108">
@@ -2273,16 +2273,16 @@
         <v>44136</v>
       </c>
       <c r="B108" t="n">
-        <v>0.809529527014256</v>
+        <v>0.9846204476861801</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8247803516057473</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4466437111373774</v>
+        <v>0.1409587160061469</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9751453397140232</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="109">
@@ -2290,16 +2290,16 @@
         <v>44166</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8080962408847309</v>
+        <v>0.9819059621780379</v>
       </c>
       <c r="C109" t="n">
-        <v>0.804278529958791</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5321018246348093</v>
+        <v>0.210122527450084</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9875337282372185</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="110">
@@ -2307,16 +2307,16 @@
         <v>44197</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8037985530107958</v>
+        <v>0.9863558561268886</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8336290661528916</v>
+        <v>0.07701556280256053</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4943928131909315</v>
+        <v>0.2325168120322271</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9869867133354615</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="111">
@@ -2324,16 +2324,16 @@
         <v>44228</v>
       </c>
       <c r="B111" t="n">
-        <v>0.8186046173234472</v>
+        <v>0.9865826577304457</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8366655330876169</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5855552089591999</v>
+        <v>0.2041041477752638</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9809566549164035</v>
+        <v>0.1916666666666667</v>
       </c>
     </row>
     <row r="112">
@@ -2341,16 +2341,16 @@
         <v>44256</v>
       </c>
       <c r="B112" t="n">
-        <v>0.8259506443671929</v>
+        <v>0.9848258807083985</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8445415267298729</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6801679785195373</v>
+        <v>0.1636287734006511</v>
       </c>
       <c r="E112" t="n">
-        <v>0.991288101526027</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="113">
@@ -2358,16 +2358,16 @@
         <v>44287</v>
       </c>
       <c r="B113" t="n">
-        <v>0.8215175625321907</v>
+        <v>0.9831579106593669</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8254862688070219</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D113" t="n">
-        <v>0.681290936005489</v>
+        <v>0.1719525321744509</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="114">
@@ -2375,16 +2375,16 @@
         <v>44317</v>
       </c>
       <c r="B114" t="n">
-        <v>0.8177091421539534</v>
+        <v>0.9832664208023587</v>
       </c>
       <c r="C114" t="n">
-        <v>0.832893679041615</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7097890436050871</v>
+        <v>0.2215126636187232</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9953177368131433</v>
+        <v>0.1583333333333334</v>
       </c>
     </row>
     <row r="115">
@@ -2392,16 +2392,16 @@
         <v>44348</v>
       </c>
       <c r="B115" t="n">
-        <v>0.8139240932155383</v>
+        <v>0.9829086305733387</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8407928447358934</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7918698206865462</v>
+        <v>0.1329664300756108</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9938378403237628</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="116">
@@ -2409,16 +2409,16 @@
         <v>44378</v>
       </c>
       <c r="B116" t="n">
-        <v>0.8447262678280361</v>
+        <v>0.9842841400475335</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8435193384603674</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5933676549433829</v>
+        <v>0.145175955863196</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9902418238171297</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="117">
@@ -2426,16 +2426,16 @@
         <v>44409</v>
       </c>
       <c r="B117" t="n">
-        <v>0.8216318148412766</v>
+        <v>0.9846238290349504</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8394124451332354</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5369842896455852</v>
+        <v>0.1658346478648221</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9875954422895242</v>
+        <v>0.1083333333333333</v>
       </c>
     </row>
     <row r="118">
@@ -2443,16 +2443,16 @@
         <v>44440</v>
       </c>
       <c r="B118" t="n">
-        <v>0.829324685465715</v>
+        <v>0.9850928378974136</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8353603053475847</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5733056891296506</v>
+        <v>0.1151835783290364</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9826403914483204</v>
+        <v>0.09166666666666667</v>
       </c>
     </row>
     <row r="119">
@@ -2460,16 +2460,16 @@
         <v>44470</v>
       </c>
       <c r="B119" t="n">
-        <v>0.8248883981973458</v>
+        <v>0.9867772971812205</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8435751480102291</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7869501147721993</v>
+        <v>0.1504477634023553</v>
       </c>
       <c r="E119" t="n">
-        <v>0.990822126533077</v>
+        <v>0.06666666666666665</v>
       </c>
     </row>
     <row r="120">
@@ -2477,16 +2477,16 @@
         <v>44501</v>
       </c>
       <c r="B120" t="n">
-        <v>0.8454799427581161</v>
+        <v>0.9863838845757229</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8372741196385735</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D120" t="n">
-        <v>0.7086646182002438</v>
+        <v>0.2215720328580892</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9952808646827681</v>
+        <v>0.06666666666666665</v>
       </c>
     </row>
     <row r="121">
@@ -2494,16 +2494,16 @@
         <v>44531</v>
       </c>
       <c r="B121" t="n">
-        <v>0.8253004314759759</v>
+        <v>0.9867060139077807</v>
       </c>
       <c r="C121" t="n">
-        <v>0.8355296793252621</v>
+        <v>0.0458975988116077</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6505070675988471</v>
+        <v>0.2474646398073269</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9964095594698834</v>
+        <v>0.06666666666666665</v>
       </c>
     </row>
     <row r="122">
@@ -2511,16 +2511,16 @@
         <v>44562</v>
       </c>
       <c r="B122" t="n">
-        <v>0.8417655800512969</v>
+        <v>0.9809365645295356</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8279498252863896</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6833060359507753</v>
+        <v>0.2899185086085146</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9934873959452977</v>
+        <v>0.04999999999999999</v>
       </c>
     </row>
     <row r="123">
@@ -2528,16 +2528,16 @@
         <v>44593</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8225231991975527</v>
+        <v>0.9804999458313893</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8476052779413291</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7548506731960245</v>
+        <v>0.20317847274349</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9891751212416464</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="124">
@@ -2545,16 +2545,16 @@
         <v>44621</v>
       </c>
       <c r="B124" t="n">
-        <v>0.8314178054745589</v>
+        <v>0.9781874232758202</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8296529253655485</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9618970566512602</v>
+        <v>0.1533211026921886</v>
       </c>
       <c r="E124" t="n">
-        <v>0.9891880507522977</v>
+        <v>0.01666666666666672</v>
       </c>
     </row>
     <row r="125">
@@ -2562,16 +2562,16 @@
         <v>44652</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7954831318683658</v>
+        <v>0.9925276141964852</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8238175672650873</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5362716851339961</v>
+        <v>0.1043572006310489</v>
       </c>
       <c r="E125" t="n">
-        <v>0.9868666973528365</v>
+        <v>0.008333333333333359</v>
       </c>
     </row>
     <row r="126">
@@ -2579,16 +2579,16 @@
         <v>44682</v>
       </c>
       <c r="B126" t="n">
-        <v>0.8174440166948352</v>
+        <v>0.9896540553140165</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8277797188483189</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>0.8373213481418396</v>
+        <v>0.1795203267886614</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9894910767429179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -2596,16 +2596,16 @@
         <v>44713</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7989289927695611</v>
+        <v>0.9869420778421085</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8279645765271101</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0.2540828620568416</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9998990712482405</v>
+        <v>0.008333333333333359</v>
       </c>
     </row>
     <row r="128">
@@ -2613,16 +2613,16 @@
         <v>44743</v>
       </c>
       <c r="B128" t="n">
-        <v>0.8140641755195509</v>
+        <v>0.9830576570261461</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8350499354766038</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3707296219929684</v>
+        <v>0.09685016508167336</v>
       </c>
       <c r="E128" t="n">
-        <v>0.9771713840447283</v>
+        <v>0.01666666666666672</v>
       </c>
     </row>
     <row r="129">
@@ -2630,16 +2630,16 @@
         <v>44774</v>
       </c>
       <c r="B129" t="n">
-        <v>0.8208919451701608</v>
+        <v>0.9807199546695198</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8272376443346845</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4356150255383813</v>
+        <v>0.3042254903999954</v>
       </c>
       <c r="E129" t="n">
-        <v>0.9966912583357779</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="130">
@@ -2647,16 +2647,16 @@
         <v>44805</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8120903226948355</v>
+        <v>0.9802258672411133</v>
       </c>
       <c r="C130" t="n">
-        <v>0.827137159737487</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5617259035703712</v>
+        <v>0.1468457109283386</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9931564108696392</v>
+        <v>0.04166666666666669</v>
       </c>
     </row>
     <row r="131">
@@ -2664,16 +2664,16 @@
         <v>44835</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7984613780182788</v>
+        <v>0.9791466503172632</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8261809070724782</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5863861258720136</v>
+        <v>0.2137859814001123</v>
       </c>
       <c r="E131" t="n">
-        <v>0.986597945689223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -2681,16 +2681,16 @@
         <v>44866</v>
       </c>
       <c r="B132" t="n">
-        <v>0.8047628919116875</v>
+        <v>0.9809558157018705</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8249456853534888</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4252858022654106</v>
+        <v>0.2662159434983676</v>
       </c>
       <c r="E132" t="n">
-        <v>0.982967929989221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -2698,16 +2698,16 @@
         <v>44896</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8305827208491328</v>
+        <v>0.9812455951373444</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8231128340033643</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>0.9894576781362352</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/covid19_drdfm/data/example-output/WV/df.xlsx
+++ b/covid19_drdfm/data/example-output/WV/df.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,19 +452,64 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Prod</t>
+          <t>RPFI</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FixAss</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>UI</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PartR</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>UR</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Cons3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Cons5</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CPIU</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>PCE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Mask2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>School</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Hosp1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -480,7 +525,34 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.639999999999997</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.2999999999999999</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -491,13 +563,40 @@
         <v>0.9792458015912889</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6516865186463175</v>
       </c>
       <c r="D3" t="n">
+        <v>0.2631190943583174</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.207058232299019</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
+        <v>0.639999999999997</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.2916666666666666</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9937716560450129</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9947471817062132</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4804248097350872</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9679389035394174</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +607,40 @@
         <v>0.9794563405214187</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6498648109175603</v>
       </c>
       <c r="D4" t="n">
+        <v>0.2755276299387904</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.1816823990022929</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
+        <v>0.639999999999997</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.2999999999999999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.993950230283156</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9949732425672637</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4783596646895119</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.966573298315848</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -525,13 +651,40 @@
         <v>0.9806067245238038</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6449290164501711</v>
       </c>
       <c r="D5" t="n">
+        <v>0.4311792567328561</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.1878120662696517</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
+        <v>0.639999999999997</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.3083333333333333</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9942827477753763</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9953897985707622</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4580164258916395</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9640820130383683</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -542,13 +695,40 @@
         <v>0.982180049737298</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6442605109735607</v>
       </c>
       <c r="D6" t="n">
+        <v>0.5336344685848848</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.2028418475831665</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
+        <v>0.639999999999997</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.3166666666666667</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9956702535806664</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9971121226181706</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2823120937051792</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9538741718760513</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -559,13 +739,40 @@
         <v>0.9817782278312861</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6435993608348638</v>
       </c>
       <c r="D7" t="n">
+        <v>0.5069454358296268</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.2081447625246162</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
+        <v>0.6799999999999997</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.3250000000000001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9953064767553799</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9966667392431837</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3408982227867237</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.956476820529933</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -576,13 +783,40 @@
         <v>0.9780848190843977</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.494104625653996</v>
       </c>
       <c r="D8" t="n">
+        <v>0.2890076848295597</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.2392357084138474</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
+        <v>0.6799999999999997</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.3250000000000001</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9948042857752272</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9960499874196742</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.3934463727922193</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.9600922983102562</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -593,13 +827,40 @@
         <v>0.9761406167780877</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.49357714154594</v>
       </c>
       <c r="D9" t="n">
+        <v>0.1606052731110216</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.1825118686062808</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
+        <v>0.639999999999997</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.3250000000000001</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9930814413846537</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9939223234285672</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.6527359268372354</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.9726370191705382</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -610,13 +871,40 @@
         <v>0.9763373308561424</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.4930435435946334</v>
       </c>
       <c r="D10" t="n">
+        <v>0.1721742579093236</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.2143304746786493</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
+        <v>0.639999999999997</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.3250000000000001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9932570568526139</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9941444386023019</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.6040928049754837</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.9712958398905062</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -627,13 +915,40 @@
         <v>0.9773505868327024</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5976211080042045</v>
       </c>
       <c r="D11" t="n">
+        <v>0.2516169375083874</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.1761575973173962</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
+        <v>0.639999999999997</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.3166666666666667</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9932887362647258</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9941883513897526</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.506728251696605</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9710078867636006</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -644,13 +959,40 @@
         <v>0.9796996063115325</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5968244490524435</v>
       </c>
       <c r="D12" t="n">
+        <v>0.4043097408557277</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.2413517899263925</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
+        <v>0.639999999999997</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.3166666666666667</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9953674146892386</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9967658966558505</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.3006557725101743</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9557458204525275</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -661,13 +1003,40 @@
         <v>0.9793616917751542</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5960308218116912</v>
       </c>
       <c r="D13" t="n">
+        <v>0.3813265919055909</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.2496319050489869</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
+        <v>0.6000000000000014</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.3083333333333333</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9950636844433872</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.9963945651780773</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.37413804795302</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.9579119267895568</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -678,13 +1047,40 @@
         <v>0.9846150552505382</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.7073411554072103</v>
       </c>
       <c r="D14" t="n">
+        <v>0.6934639745732059</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.270337338877089</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
+        <v>0.5599999999999987</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.2999999999999999</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9928612364179936</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.9942468148448251</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.4730736920152049</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.9666573187698657</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -695,13 +1091,40 @@
         <v>0.9834598267163426</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.7068086944185847</v>
       </c>
       <c r="D15" t="n">
+        <v>0.6192526423129912</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.1939134362900357</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
+        <v>0.5199999999999996</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.2833333333333333</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9918688786681645</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.9930190780821138</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.6349860070635606</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.9739022526346681</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -712,13 +1135,40 @@
         <v>0.9866348685096663</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.7062804540707058</v>
       </c>
       <c r="D16" t="n">
+        <v>0.8281322779952873</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.1765637901806676</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
+        <v>0.4800000000000004</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.275</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9947156309625792</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9965432004415353</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.2471689513070562</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.953062076468007</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -729,13 +1179,40 @@
         <v>0.9814591100875247</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5970954287204915</v>
       </c>
       <c r="D17" t="n">
+        <v>0.6079879754215424</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.1497529395587992</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
+        <v>0.4399999999999977</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.2666666666666667</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9944079087994945</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9961628653719722</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.2813645162752761</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9552985360150279</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -746,13 +1223,40 @@
         <v>0.9805308916362365</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5969701940403038</v>
       </c>
       <c r="D18" t="n">
+        <v>0.5465405976584098</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.1705767048712609</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
+        <v>0.4399999999999977</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.2583333333333333</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9935828683003305</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9951422172537293</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.3993518297214528</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.9613194141187007</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -763,13 +1267,40 @@
         <v>0.9795597884409142</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5968453983296655</v>
       </c>
       <c r="D19" t="n">
+        <v>0.4822927025468605</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.2251925554017161</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
+        <v>0.4399999999999977</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.2583333333333333</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9927198090880888</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9940745091902249</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.4918638127890506</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.9676185898792923</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -780,13 +1311,40 @@
         <v>0.9813156667358194</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6265833305727271</v>
       </c>
       <c r="D20" t="n">
+        <v>0.4784027709599425</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.2077614698344976</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
+        <v>0.4399999999999977</v>
+      </c>
+      <c r="G20" t="n">
         <v>0.2583333333333333</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9932405162018693</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.9947195548510395</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.4719810427311055</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.9637948380358665</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -797,13 +1355,40 @@
         <v>0.9811231552779697</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6260523911851393</v>
       </c>
       <c r="D21" t="n">
+        <v>0.4650836835908427</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.1784265007587401</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
+        <v>0.4000000000000021</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.2583333333333333</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9930699976507491</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.9945090332249359</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.4921920362000497</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.9650278671739611</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -814,13 +1399,40 @@
         <v>0.9818602290243158</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6255259768353403</v>
       </c>
       <c r="D22" t="n">
+        <v>0.5125499901130901</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.186202116988849</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
+        <v>0.4000000000000021</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.2583333333333333</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.9937237357198176</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.9953187320404182</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.3976005690238599</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.9602308122521267</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -831,13 +1443,40 @@
         <v>0.9805707342314813</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5963653237411397</v>
       </c>
       <c r="D23" t="n">
+        <v>0.4206548533501419</v>
+      </c>
+      <c r="E23" t="n">
         <v>0.2110000437695358</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
+        <v>0.3599999999999994</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.2666666666666667</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.992977587985762</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9943957200982848</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.4050553748719518</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.9656751792246812</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -848,13 +1487,40 @@
         <v>0.980654065346068</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5959344869637961</v>
       </c>
       <c r="D24" t="n">
+        <v>0.4250934288827213</v>
+      </c>
+      <c r="E24" t="n">
         <v>0.2622223178929439</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
+        <v>0.3599999999999994</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.2666666666666667</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9930503965900044</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.994486368182811</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.4666731454969064</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.9651282623410788</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -865,13 +1531,40 @@
         <v>0.9803759696646575</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5955052054290171</v>
       </c>
       <c r="D25" t="n">
+        <v>0.4059023839580642</v>
+      </c>
+      <c r="E25" t="n">
         <v>0.2824752745654198</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
+        <v>0.3599999999999994</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.2666666666666667</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9928027351980007</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.9941803519969415</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.504271433281398</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.9669260016326096</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -882,13 +1575,40 @@
         <v>0.9778565806307092</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4446558010689881</v>
+        <v>0.5826460093175335</v>
       </c>
       <c r="D26" t="n">
+        <v>0.3953523093042827</v>
+      </c>
+      <c r="E26" t="n">
         <v>0.2591347356598474</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
+        <v>0.4000000000000021</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.2666666666666667</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.9921316156491433</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.9948471038033506</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.493934346505972</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.9665405811298221</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -899,13 +1619,40 @@
         <v>0.9786998582197903</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5823619799967129</v>
       </c>
       <c r="D27" t="n">
+        <v>0.4499738884956447</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.2082087559806282</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
+        <v>0.4000000000000021</v>
+      </c>
+      <c r="G27" t="n">
         <v>0.2666666666666667</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.9928835009502054</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.9957736362443353</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.4316850960443767</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.9610381658735081</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -916,13 +1663,40 @@
         <v>0.9777804378835883</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5820782315707983</v>
       </c>
       <c r="D28" t="n">
+        <v>0.3893447947004804</v>
+      </c>
+      <c r="E28" t="n">
         <v>0.1511093337405211</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
+        <v>0.4000000000000021</v>
+      </c>
+      <c r="G28" t="n">
         <v>0.2666666666666667</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.9920724367157936</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.9947656496514267</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.4759716818008413</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.9669709174555586</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -933,13 +1707,40 @@
         <v>0.9844707322322949</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.7278027203772192</v>
       </c>
       <c r="D29" t="n">
+        <v>0.5692471028316946</v>
+      </c>
+      <c r="E29" t="n">
         <v>0.1341967772589656</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
+        <v>0.4000000000000021</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.2583333333333333</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.9921080055137039</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.9948056037311068</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.467607911577312</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.9667094161832184</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -950,13 +1751,40 @@
         <v>0.9845750298033998</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.7266863241067572</v>
       </c>
       <c r="D30" t="n">
+        <v>0.5779107992031214</v>
+      </c>
+      <c r="E30" t="n">
         <v>0.18880629141552</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
+        <v>0.3599999999999994</v>
+      </c>
+      <c r="G30" t="n">
         <v>0.25</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.9922324713263238</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.9949556110758877</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.4694354679379368</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.9657974574043684</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -967,13 +1795,40 @@
         <v>0.9849237753386423</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.7255880087543926</v>
       </c>
       <c r="D31" t="n">
+        <v>0.6025265212783053</v>
+      </c>
+      <c r="E31" t="n">
         <v>0.2090801009046518</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
+        <v>0.3200000000000003</v>
+      </c>
+      <c r="G31" t="n">
         <v>0.25</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.9925732107422446</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.9953733320927829</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.4420601940130754</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.9633029987871482</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -984,13 +1839,40 @@
         <v>0.9814117883118657</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6252661781371545</v>
       </c>
       <c r="D32" t="n">
+        <v>0.4065623065196782</v>
+      </c>
+      <c r="E32" t="n">
         <v>0.2188068132584796</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
+        <v>0.3200000000000003</v>
+      </c>
+      <c r="G32" t="n">
         <v>0.2416666666666667</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.9923570752742813</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.9951018014690436</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.4328522352647602</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.9648830981661997</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1001,13 +1883,40 @@
         <v>0.9824613635585844</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6245689219930052</v>
       </c>
       <c r="D33" t="n">
+        <v>0.4745893817056921</v>
+      </c>
+      <c r="E33" t="n">
         <v>0.1521868478428015</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
+        <v>0.3200000000000003</v>
+      </c>
+      <c r="G33" t="n">
         <v>0.2416666666666667</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.9932907000876993</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.996253408209533</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.3723022077765162</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.9580503926351426</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1018,13 +1927,40 @@
         <v>0.9822134940668988</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6238776030206965</v>
       </c>
       <c r="D34" t="n">
+        <v>0.4577804964418128</v>
+      </c>
+      <c r="E34" t="n">
         <v>0.1706796148783727</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
+        <v>0.3200000000000003</v>
+      </c>
+      <c r="G34" t="n">
         <v>0.2416666666666667</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.9930738749479969</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.995981064744979</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.3832166305801797</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.9596354928650028</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1035,13 +1971,40 @@
         <v>0.9795531766920482</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5705054746447755</v>
       </c>
       <c r="D35" t="n">
+        <v>0.4239859861258212</v>
+      </c>
+      <c r="E35" t="n">
         <v>0.2186083865709753</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
+        <v>0.3200000000000003</v>
+      </c>
+      <c r="G35" t="n">
         <v>0.2416666666666667</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.993362519559705</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.9963343870653018</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.3705152434098531</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.9575220698412108</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1052,13 +2015,40 @@
         <v>0.9798820797677843</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5700207345738715</v>
       </c>
       <c r="D36" t="n">
+        <v>0.4444789088039849</v>
+      </c>
+      <c r="E36" t="n">
         <v>0.2424096701751749</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
+        <v>0.3200000000000003</v>
+      </c>
+      <c r="G36" t="n">
         <v>0.2333333333333333</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.9936569424736793</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.996694881384147</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.2910385964014466</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.9553663852445861</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1069,13 +2059,40 @@
         <v>0.9803749798810294</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5695353819866507</v>
       </c>
       <c r="D37" t="n">
+        <v>0.4756919814260276</v>
+      </c>
+      <c r="E37" t="n">
         <v>0.2714685266494967</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
+        <v>0.3200000000000003</v>
+      </c>
+      <c r="G37" t="n">
         <v>0.2416666666666667</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.9940967946475091</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.997235400481443</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.2342588880723614</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.9521466689884892</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1086,13 +2103,40 @@
         <v>0.9785961561854443</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1506756893971514</v>
+        <v>0.436026790652925</v>
       </c>
       <c r="D38" t="n">
+        <v>0.2866982255480919</v>
+      </c>
+      <c r="E38" t="n">
         <v>0.2870598781406751</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
+        <v>0.3200000000000003</v>
+      </c>
+      <c r="G38" t="n">
         <v>0.2416666666666667</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.9974565854982826</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.07870096975326518</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.9391826878446033</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1103,13 +2147,40 @@
         <v>0.9744980866379559</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.4344544946603912</v>
       </c>
       <c r="D39" t="n">
+        <v>0.01652645288854082</v>
+      </c>
+      <c r="E39" t="n">
         <v>0.1944137820668006</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
+        <v>0.3200000000000003</v>
+      </c>
+      <c r="G39" t="n">
         <v>0.25</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.9938546445821134</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.9955422975599746</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.4991270461619542</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.965489893197179</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1120,13 +2191,40 @@
         <v>0.974280005484694</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.4328506340699389</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
         <v>0.2264016262846144</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
+        <v>0.3599999999999994</v>
+      </c>
+      <c r="G40" t="n">
         <v>0.2666666666666667</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.9936937414421787</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.9953437329655476</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5066174053952723</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.9666207178331913</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1137,13 +2235,40 @@
         <v>0.9827842982366185</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6173493320099553</v>
       </c>
       <c r="D41" t="n">
+        <v>0.5077912220035956</v>
+      </c>
+      <c r="E41" t="n">
         <v>0.1365984613084902</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
+        <v>0.3599999999999994</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.275</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.9943463692926496</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.9961521089369195</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.4289422565245661</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.9617994349538268</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1154,13 +2279,40 @@
         <v>0.9817283254633826</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6172400970809266</v>
       </c>
       <c r="D42" t="n">
+        <v>0.4391736959019185</v>
+      </c>
+      <c r="E42" t="n">
         <v>0.1649524198350561</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
+        <v>0.3599999999999994</v>
+      </c>
+      <c r="G42" t="n">
         <v>0.275</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.993411754055179</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.994995872480074</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5349905266530876</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.9685919911023991</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1171,13 +2323,40 @@
         <v>0.9820106878260911</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6171314129064057</v>
       </c>
       <c r="D43" t="n">
+        <v>0.4580513386440512</v>
+      </c>
+      <c r="E43" t="n">
         <v>0.2316248105620321</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
+        <v>0.3599999999999994</v>
+      </c>
+      <c r="G43" t="n">
         <v>0.275</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.9936638175436728</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.9953084394563737</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5101022712614719</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.9667021880574344</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1188,13 +2367,40 @@
         <v>0.9786258341824898</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5490204772149632</v>
       </c>
       <c r="D44" t="n">
+        <v>0.308124817908754</v>
+      </c>
+      <c r="E44" t="n">
         <v>0.2144065221273347</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
+        <v>0.3200000000000003</v>
+      </c>
+      <c r="G44" t="n">
         <v>0.2666666666666667</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.9942966381392943</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.9960922815890112</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.4545412938591608</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.9620265158749708</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1205,13 +2411,40 @@
         <v>0.979146471959957</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5485920690732964</v>
       </c>
       <c r="D45" t="n">
+        <v>0.3413524378689806</v>
+      </c>
+      <c r="E45" t="n">
         <v>0.1764850447665497</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
+        <v>0.2799999999999976</v>
+      </c>
+      <c r="G45" t="n">
         <v>0.2583333333333333</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.9947561271473622</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.996661576846578</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.3796449961608567</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.9586193262337169</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1222,13 +2455,40 @@
         <v>0.9801050064620661</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5481614560740329</v>
       </c>
       <c r="D46" t="n">
+        <v>0.4032001714100717</v>
+      </c>
+      <c r="E46" t="n">
         <v>0.1855446390100394</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
+        <v>0.2399999999999984</v>
+      </c>
+      <c r="G46" t="n">
         <v>0.25</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.9956039606860972</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.9977115374814253</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.2738033829246919</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.9523708961543608</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1239,13 +2499,40 @@
         <v>0.9790307942494291</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5145183621779846</v>
       </c>
       <c r="D47" t="n">
+        <v>0.4025625348343909</v>
+      </c>
+      <c r="E47" t="n">
         <v>0.2158584096675539</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
+        <v>0.2399999999999984</v>
+      </c>
+      <c r="G47" t="n">
         <v>0.2416666666666667</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.9948327195371162</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.9967574899056671</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.4264502145385787</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.9579696750175393</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1256,13 +2543,40 @@
         <v>0.9785369473762112</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.514358047768167</v>
       </c>
       <c r="D48" t="n">
+        <v>0.3699904986251979</v>
+      </c>
+      <c r="E48" t="n">
         <v>0.2561030760475949</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
+        <v>0.2399999999999984</v>
+      </c>
+      <c r="G48" t="n">
         <v>0.2416666666666667</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.9943938882609921</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.9962148769198987</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.4361074937639563</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.9611364394003525</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1273,13 +2587,40 @@
         <v>0.9794510444637473</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5141968019866583</v>
       </c>
       <c r="D49" t="n">
+        <v>0.4294631421700806</v>
+      </c>
+      <c r="E49" t="n">
         <v>0.2657043833199647</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
+        <v>0.2799999999999976</v>
+      </c>
+      <c r="G49" t="n">
         <v>0.2416666666666667</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.9952035496900214</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.9972175732431618</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.3291286649421136</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.9551682272165031</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1290,13 +2631,40 @@
         <v>0.9775940685228044</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3526309789661738</v>
+        <v>0.5147264638608219</v>
       </c>
       <c r="D50" t="n">
+        <v>0.3181370825104928</v>
+      </c>
+      <c r="E50" t="n">
         <v>0.2912454857306049</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
+        <v>0.2799999999999976</v>
+      </c>
+      <c r="G50" t="n">
         <v>0.2416666666666667</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.9925032693574645</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.996566755236611</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.3582333302100829</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.9607309983917958</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1307,13 +2675,40 @@
         <v>0.9783129831716185</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5141279404218563</v>
       </c>
       <c r="D51" t="n">
+        <v>0.3638497708219057</v>
+      </c>
+      <c r="E51" t="n">
         <v>0.2238552011310319</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
+        <v>0.3200000000000003</v>
+      </c>
+      <c r="G51" t="n">
         <v>0.2333333333333333</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.9931525996264038</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.9973617229977539</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.317139331932879</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.9559797406527168</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1324,13 +2719,40 @@
         <v>0.976404171369873</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5135231918613764</v>
       </c>
       <c r="D52" t="n">
+        <v>0.2377702801594132</v>
+      </c>
+      <c r="E52" t="n">
         <v>0.1635615575114485</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
+        <v>0.2799999999999976</v>
+      </c>
+      <c r="G52" t="n">
         <v>0.2333333333333333</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.9914720336418524</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.9952729371748029</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.527342817213182</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.9682764402574415</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1341,13 +2763,40 @@
         <v>0.9814423782542909</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6143968491652607</v>
       </c>
       <c r="D53" t="n">
+        <v>0.4975981221031544</v>
+      </c>
+      <c r="E53" t="n">
         <v>0.1520601163196794</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
+        <v>0.2799999999999976</v>
+      </c>
+      <c r="G53" t="n">
         <v>0.225</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.9909061607083292</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.9945639149745293</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5600276253743403</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.9724172516696103</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1358,13 +2807,40 @@
         <v>0.9826057826617209</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6143485973418735</v>
       </c>
       <c r="D54" t="n">
+        <v>0.5738735060598511</v>
+      </c>
+      <c r="E54" t="n">
         <v>0.2090092571082031</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
+        <v>0.2399999999999984</v>
+      </c>
+      <c r="G54" t="n">
         <v>0.225</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.9919477912226627</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.9958446318516907</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.4911291353516724</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.9647954030113071</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1375,13 +2851,40 @@
         <v>0.9823228739714028</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6143004880000449</v>
       </c>
       <c r="D55" t="n">
+        <v>0.5555976175729329</v>
+      </c>
+      <c r="E55" t="n">
         <v>0.1923441046221653</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="G55" t="n">
         <v>0.225</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.9917068928744566</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.9955379647256603</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5104932049111612</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.9665581937920824</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1392,13 +2895,40 @@
         <v>0.9824617499521803</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6188968034816362</v>
       </c>
       <c r="D56" t="n">
+        <v>0.5803338616585754</v>
+      </c>
+      <c r="E56" t="n">
         <v>0.2092296379039033</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="G56" t="n">
         <v>0.2166666666666667</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.9925607857965821</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.9965864297727629</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.3560972505717873</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.9603096985690595</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1409,13 +2939,40 @@
         <v>0.9817562670911325</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6187769881485811</v>
       </c>
       <c r="D57" t="n">
+        <v>0.5340825141418861</v>
+      </c>
+      <c r="E57" t="n">
         <v>0.1517024755076585</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
+        <v>0.1600000000000001</v>
+      </c>
+      <c r="G57" t="n">
         <v>0.2166666666666667</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.9919399851115615</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.9958096568751026</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.4669182200412889</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.9648524551104239</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1426,13 +2983,40 @@
         <v>0.9815977870953502</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6186578327757865</v>
       </c>
       <c r="D58" t="n">
+        <v>0.5235919006727965</v>
+      </c>
+      <c r="E58" t="n">
         <v>0.160071659194748</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
+        <v>0.1600000000000001</v>
+      </c>
+      <c r="G58" t="n">
         <v>0.2083333333333334</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.9918041839580658</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.9956332474322317</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5033182562553414</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.9658462222735239</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1443,13 +3027,40 @@
         <v>0.9814043295561143</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.608382053461788</v>
       </c>
       <c r="D59" t="n">
+        <v>0.4895595263164161</v>
+      </c>
+      <c r="E59" t="n">
         <v>0.1863359148403762</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
+        <v>0.1600000000000001</v>
+      </c>
+      <c r="G59" t="n">
         <v>0.2000000000000001</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.9915323239327476</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.9952884881526008</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.4901319569909405</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.9678357228058145</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1460,13 +3071,40 @@
         <v>0.9825782397626195</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6082887842974751</v>
       </c>
       <c r="D60" t="n">
+        <v>0.5662168908230201</v>
+      </c>
+      <c r="E60" t="n">
         <v>0.2202767396619979</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="G60" t="n">
         <v>0.1916666666666667</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.9925785137062092</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.9965751982238752</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.4353786391004341</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.9601796615295174</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1477,13 +3115,40 @@
         <v>0.9816422634949665</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.608195925637027</v>
       </c>
       <c r="D61" t="n">
+        <v>0.5049383825186163</v>
+      </c>
+      <c r="E61" t="n">
         <v>0.2709180295074348</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="G61" t="n">
         <v>0.175</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.9917538401405641</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.9955463074225531</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.4986856164755484</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.9662146507041421</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1494,13 +3159,40 @@
         <v>0.9863799377863873</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9212361703797448</v>
+        <v>0.7698369078432568</v>
       </c>
       <c r="D62" t="n">
+        <v>0.827371691602879</v>
+      </c>
+      <c r="E62" t="n">
         <v>0.2903201625054239</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="G62" t="n">
         <v>0.1583333333333334</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.9909462011311388</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.9929590380261272</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5700337409100718</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.9741675116419231</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1511,13 +3203,40 @@
         <v>0.9876936491413209</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.7686026752213312</v>
       </c>
       <c r="D63" t="n">
+        <v>0.9156624653544949</v>
+      </c>
+      <c r="E63" t="n">
         <v>0.1697376783431637</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="G63" t="n">
         <v>0.1416666666666667</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.992196001047808</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.9945041565421152</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.454856946818932</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.9650207628940169</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1528,13 +3247,40 @@
         <v>0.9889480293190629</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.767384708566216</v>
       </c>
       <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
         <v>0.1785791995818198</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="G64" t="n">
         <v>0.1333333333333333</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.993391157887009</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.9959816477831266</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.3578150554331625</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.9562735189784204</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1545,13 +3291,40 @@
         <v>0.9780187329219087</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5529759584079529</v>
       </c>
       <c r="D65" t="n">
+        <v>0.303030348893372</v>
+      </c>
+      <c r="E65" t="n">
         <v>0.1320879786694017</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="G65" t="n">
         <v>0.125</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.9918171868439222</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.9940316593651903</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.4379823293781138</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.967792310613265</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1562,13 +3335,40 @@
         <v>0.9796187939087277</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5524742092581885</v>
       </c>
       <c r="D66" t="n">
+        <v>0.406332701230257</v>
+      </c>
+      <c r="E66" t="n">
         <v>0.161232117055449</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
+        <v>0.2399999999999984</v>
+      </c>
+      <c r="G66" t="n">
         <v>0.125</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.99323867828538</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.9957893085366989</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.3433451879440547</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.9573885046215503</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1579,13 +3379,40 @@
         <v>0.9788149208981968</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5519701764404846</v>
       </c>
       <c r="D67" t="n">
+        <v>0.3524453445094462</v>
+      </c>
+      <c r="E67" t="n">
         <v>0.2143234682883428</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
+        <v>0.2799999999999976</v>
+      </c>
+      <c r="G67" t="n">
         <v>0.1333333333333333</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.9925286233917936</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.9949086436529175</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.410549347079741</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.9625847141759466</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1596,13 +3423,40 @@
         <v>0.9823992514253815</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5768501978640937</v>
       </c>
       <c r="D68" t="n">
+        <v>0.516151413322688</v>
+      </c>
+      <c r="E68" t="n">
         <v>0.2241264030223044</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
+        <v>0.3200000000000003</v>
+      </c>
+      <c r="G68" t="n">
         <v>0.1333333333333333</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.9929296822131742</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.9954032651902062</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.3952852113377378</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.9596490326494385</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1613,13 +3467,40 @@
         <v>0.9810285626335299</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5767584999932339</v>
       </c>
       <c r="D69" t="n">
+        <v>0.4261969718358992</v>
+      </c>
+      <c r="E69" t="n">
         <v>0.1746218177436331</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
+        <v>0.3599999999999994</v>
+      </c>
+      <c r="G69" t="n">
         <v>0.1416666666666667</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.9917181977457692</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.9939019677125391</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5609150233935125</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.9685152302080455</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1630,13 +3511,40 @@
         <v>0.980134803784351</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5766668024276597</v>
       </c>
       <c r="D70" t="n">
+        <v>0.3674284545578389</v>
+      </c>
+      <c r="E70" t="n">
         <v>0.1554166725122772</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
+        <v>0.4000000000000021</v>
+      </c>
+      <c r="G70" t="n">
         <v>0.15</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.9909295853295196</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.9929240848466572</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.6199503001817661</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.9742869427779088</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1647,13 +3555,40 @@
         <v>0.983311633143358</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6720086946524015</v>
       </c>
       <c r="D71" t="n">
+        <v>0.5212256363153743</v>
+      </c>
+      <c r="E71" t="n">
         <v>0.2041425509443363</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
+        <v>0.4000000000000021</v>
+      </c>
+      <c r="G71" t="n">
         <v>0.15</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.9922313148193078</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.9945335296946549</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.4163665091399184</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.9647592257847142</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1664,13 +3599,40 @@
         <v>0.9831741922438674</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6713504766865739</v>
       </c>
       <c r="D72" t="n">
+        <v>0.512916403096358</v>
+      </c>
+      <c r="E72" t="n">
         <v>0.2586519527628245</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
+        <v>0.4399999999999977</v>
+      </c>
+      <c r="G72" t="n">
         <v>0.1583333333333334</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.9921251730801063</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.9944003874101337</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5054531287823583</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.9655357433002423</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1681,13 +3643,40 @@
         <v>0.9832912654203018</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.670700668051877</v>
       </c>
       <c r="D73" t="n">
+        <v>0.5212396478796766</v>
+      </c>
+      <c r="E73" t="n">
         <v>0.2888084824913531</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
+        <v>0.4399999999999977</v>
+      </c>
+      <c r="G73" t="n">
         <v>0.1583333333333334</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.9922445432344634</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.9945463785997039</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.4790655403947179</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.9646616633608113</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1698,13 +3687,40 @@
         <v>0.9842118267352117</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4195368703961971</v>
+        <v>0.6608746527990154</v>
       </c>
       <c r="D74" t="n">
+        <v>0.5533105240007432</v>
+      </c>
+      <c r="E74" t="n">
         <v>0.2965801552462929</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
+        <v>0.4800000000000004</v>
+      </c>
+      <c r="G74" t="n">
         <v>0.1583333333333334</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.9931031972710472</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.9941899784238489</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5579617292651852</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.9735329438710333</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1715,13 +3731,40 @@
         <v>0.9848853367202652</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6606003962347587</v>
       </c>
       <c r="D75" t="n">
+        <v>0.5996460786225351</v>
+      </c>
+      <c r="E75" t="n">
         <v>0.1904496378616208</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
+        <v>0.5199999999999996</v>
+      </c>
+      <c r="G75" t="n">
         <v>0.1583333333333334</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.9937349809947782</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.9949756264764467</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5115782435314746</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.9688438384149842</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1732,13 +3775,40 @@
         <v>0.9855064284341594</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6603281126993064</v>
       </c>
       <c r="D76" t="n">
+        <v>0.642508629889773</v>
+      </c>
+      <c r="E76" t="n">
         <v>0.1816971387047914</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
+        <v>0.6000000000000014</v>
+      </c>
+      <c r="G76" t="n">
         <v>0.1583333333333334</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.9943196083040386</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.9957028669948595</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.4066752155894716</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.9645001110870208</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1749,13 +3819,40 @@
         <v>0.984140422159468</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6864418702369749</v>
       </c>
       <c r="D77" t="n">
+        <v>0.6685427472522493</v>
+      </c>
+      <c r="E77" t="n">
         <v>0.1162364489582789</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
+        <v>0.6799999999999997</v>
+      </c>
+      <c r="G77" t="n">
         <v>0.15</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.993998764499943</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.9953093211963848</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.4864555798421895</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.9667848214319522</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1766,13 +3863,40 @@
         <v>0.9841470404346222</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6860452616489104</v>
       </c>
       <c r="D78" t="n">
+        <v>0.6699694585878238</v>
+      </c>
+      <c r="E78" t="n">
         <v>0.159858135721604</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
+        <v>0.7199999999999989</v>
+      </c>
+      <c r="G78" t="n">
         <v>0.1416666666666667</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.9940240665721217</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.9953441798174321</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.4990037387758953</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.9665362728472044</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1783,13 +3907,40 @@
         <v>0.9846013184553793</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6856515975127232</v>
       </c>
       <c r="D79" t="n">
+        <v>0.7006498586059779</v>
+      </c>
+      <c r="E79" t="n">
         <v>0.1994453425305942</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
+        <v>0.7199999999999989</v>
+      </c>
+      <c r="G79" t="n">
         <v>0.1416666666666667</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.9944459841801625</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.9958699115907703</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.443536424040789</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.9633848452105244</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1800,13 +3951,40 @@
         <v>0.9841267162558807</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6300379921570257</v>
       </c>
       <c r="D80" t="n">
+        <v>0.7014322992840308</v>
+      </c>
+      <c r="E80" t="n">
         <v>0.2124242986274045</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
+        <v>0.7199999999999989</v>
+      </c>
+      <c r="G80" t="n">
         <v>0.1333333333333333</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.9945650661799672</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.9960207714146492</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.4183183667114636</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.9624506699879065</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1817,13 +3995,40 @@
         <v>0.9841937017298964</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6299462012821185</v>
       </c>
       <c r="D81" t="n">
+        <v>0.7062966253082099</v>
+      </c>
+      <c r="E81" t="n">
         <v>0.1583764803505173</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
+        <v>0.7199999999999989</v>
+      </c>
+      <c r="G81" t="n">
         <v>0.125</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.9946363157176881</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.9961123901085233</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.4596972479140294</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.9618671054426999</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1834,13 +4039,40 @@
         <v>0.9832731661512146</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6298547517930039</v>
       </c>
       <c r="D82" t="n">
+        <v>0.6465693068713499</v>
+      </c>
+      <c r="E82" t="n">
         <v>0.1712038862190803</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
+        <v>0.7199999999999989</v>
+      </c>
+      <c r="G82" t="n">
         <v>0.125</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.9938317583634496</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.9951199449022818</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.4715287686595205</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.9676953519512914</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1851,13 +4083,40 @@
         <v>0.9794135469278923</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5527278732401535</v>
       </c>
       <c r="D83" t="n">
+        <v>0.4635170623346944</v>
+      </c>
+      <c r="E83" t="n">
         <v>0.2108181361929328</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
+        <v>0.7199999999999989</v>
+      </c>
+      <c r="G83" t="n">
         <v>0.125</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.9940891629509842</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.9954419058808307</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.4961603152117828</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.9657500705502127</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1868,13 +4127,40 @@
         <v>0.980251139442347</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5526365497448071</v>
       </c>
       <c r="D84" t="n">
+        <v>0.5172908355379611</v>
+      </c>
+      <c r="E84" t="n">
         <v>0.2633811926784992</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
+        <v>0.7600000000000016</v>
+      </c>
+      <c r="G84" t="n">
         <v>0.1333333333333333</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.9948237359532175</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.996354445316449</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.3415997683456339</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.9603119476597124</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1885,13 +4171,40 @@
         <v>0.9803874635780828</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5525448491323385</v>
       </c>
       <c r="D85" t="n">
+        <v>0.5252085891258087</v>
+      </c>
+      <c r="E85" t="n">
         <v>0.2954205999682032</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
+        <v>0.7600000000000016</v>
+      </c>
+      <c r="G85" t="n">
         <v>0.1333333333333333</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.9949365595780234</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.9964973811649218</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.3600564217250121</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.9594258489978714</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1902,13 +4215,40 @@
         <v>0.9766638008115488</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1227604081384049</v>
+        <v>0.4331734475764105</v>
       </c>
       <c r="D86" t="n">
+        <v>0.1571373513138067</v>
+      </c>
+      <c r="E86" t="n">
         <v>0.3227949934968092</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
+        <v>0.7600000000000016</v>
+      </c>
+      <c r="G86" t="n">
         <v>0.125</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.9933100216529934</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.9960346289851585</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.3647174717258458</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.9580397579119233</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1919,13 +4259,40 @@
         <v>0.9755505338400688</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.4316284645649581</v>
       </c>
       <c r="D87" t="n">
+        <v>0.08096194639820559</v>
+      </c>
+      <c r="E87" t="n">
         <v>0.2167578577599349</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
+        <v>0.7600000000000016</v>
+      </c>
+      <c r="G87" t="n">
         <v>0.1166666666666667</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.9923479885390009</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.9948409380883553</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5038792710841919</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.9650809838276905</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -1936,13 +4303,40 @@
         <v>0.9747666858589701</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.4300525294041384</v>
       </c>
       <c r="D88" t="n">
+        <v>0.02626172893526496</v>
+      </c>
+      <c r="E88" t="n">
         <v>0.1643128685308544</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
+        <v>0.7600000000000016</v>
+      </c>
+      <c r="G88" t="n">
         <v>0.1083333333333333</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.9916783908542022</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.994009220765103</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5913563343395413</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.9699815938231239</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1953,13 +4347,40 @@
         <v>0.9807586150276071</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6342622907480916</v>
       </c>
       <c r="D89" t="n">
+        <v>0.4210663226238261</v>
+      </c>
+      <c r="E89" t="n">
         <v>0.1249615539682035</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
+        <v>0.7600000000000016</v>
+      </c>
+      <c r="G89" t="n">
         <v>0.1083333333333333</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.9914735146664684</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.9937527234300976</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5446092017417534</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.9714802479258705</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1970,13 +4391,40 @@
         <v>0.9822931978929543</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6338907534578934</v>
       </c>
       <c r="D90" t="n">
+        <v>0.5212615223529012</v>
+      </c>
+      <c r="E90" t="n">
         <v>0.1677173211938975</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
+        <v>0.8000000000000007</v>
+      </c>
+      <c r="G90" t="n">
         <v>0.1</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.9928388660847176</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.9954397839885191</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.4097728513891348</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.9614828871109893</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1987,13 +4435,40 @@
         <v>0.982270425381366</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6335225431886601</v>
       </c>
       <c r="D91" t="n">
+        <v>0.5196206023167337</v>
+      </c>
+      <c r="E91" t="n">
         <v>0.208384615064202</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
+        <v>0.8399999999999999</v>
+      </c>
+      <c r="G91" t="n">
         <v>0.1083333333333333</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.9928232857691851</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.995417613705623</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.38649153885636</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.9615954132079207</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2004,13 +4479,40 @@
         <v>0.9811480255401975</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5981599437213381</v>
       </c>
       <c r="D92" t="n">
+        <v>0.4553175340616299</v>
+      </c>
+      <c r="E92" t="n">
         <v>0.2324316460751045</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
+        <v>0.879999999999999</v>
+      </c>
+      <c r="G92" t="n">
         <v>0.1166666666666667</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.9924067166777026</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.9948991335377088</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.4792752537025191</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.9646437228756978</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2021,13 +4523,40 @@
         <v>0.9818568944632101</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5979470690087897</v>
       </c>
       <c r="D93" t="n">
+        <v>0.5012206899150616</v>
+      </c>
+      <c r="E93" t="n">
         <v>0.1582140600407005</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
+        <v>0.9199999999999982</v>
+      </c>
+      <c r="G93" t="n">
         <v>0.1166666666666667</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.9930370941957983</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.995676521567823</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.4312301472581591</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.9600269790545484</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2038,13 +4567,40 @@
         <v>0.9816376221590658</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5977349974479133</v>
       </c>
       <c r="D94" t="n">
+        <v>0.486432776065485</v>
+      </c>
+      <c r="E94" t="n">
         <v>0.2026588720041938</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
+        <v>0.9600000000000009</v>
+      </c>
+      <c r="G94" t="n">
         <v>0.125</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.9928444837070349</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.9954352711297975</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.4565441355295847</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.9614356136961584</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2055,13 +4611,40 @@
         <v>0.9786728640054722</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5352291158445619</v>
       </c>
       <c r="D95" t="n">
+        <v>0.4374816752064792</v>
+      </c>
+      <c r="E95" t="n">
         <v>0.2527254482232388</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
+        <v>0.9600000000000009</v>
+      </c>
+      <c r="G95" t="n">
         <v>0.125</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.9921121739344487</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.9945260217917901</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5099701165816628</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.9667957063588241</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2072,13 +4655,40 @@
         <v>0.9796680206681859</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5351749887372476</v>
       </c>
       <c r="D96" t="n">
+        <v>0.5020699591501663</v>
+      </c>
+      <c r="E96" t="n">
         <v>0.2929200064901</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="n">
         <v>0.125</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.9929955371516075</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.9956165804401551</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.4682875810744797</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.9603266245918292</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2089,13 +4699,40 @@
         <v>0.9783754356018923</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5351207458898452</v>
       </c>
       <c r="D97" t="n">
+        <v>0.4170600172768864</v>
+      </c>
+      <c r="E97" t="n">
         <v>0.2850256709125391</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" t="n">
         <v>0.125</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.9918503693717906</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.9941963418036438</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.4666626050633214</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.9687096497014823</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2106,13 +4743,40 @@
         <v>0.9765294079518348</v>
       </c>
       <c r="C98" t="n">
+        <v>0.5328171031264035</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.515848300470881</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.2633107845660951</v>
+      </c>
+      <c r="F98" t="n">
         <v>1</v>
       </c>
-      <c r="D98" t="n">
-        <v>0.2633107845660951</v>
-      </c>
-      <c r="E98" t="n">
+      <c r="G98" t="n">
         <v>0.1333333333333333</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.9942015638137721</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.9915459407102842</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.4562957516250217</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.9664542322535288</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2123,13 +4787,40 @@
         <v>0.9769936075085259</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5327286548422425</v>
       </c>
       <c r="D99" t="n">
+        <v>0.5466001723449057</v>
+      </c>
+      <c r="E99" t="n">
         <v>0.2212326571613092</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
+        <v>0.9600000000000009</v>
+      </c>
+      <c r="G99" t="n">
         <v>0.1333333333333333</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.9946166507776943</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.992068583979498</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.439059555797408</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.9633423732977117</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="100">
@@ -2140,13 +4831,40 @@
         <v>0.9791453447908507</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5326398181209794</v>
       </c>
       <c r="D100" t="n">
+        <v>0.6877225644199133</v>
+      </c>
+      <c r="E100" t="n">
         <v>0.1401464324762213</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
+        <v>0.9199999999999982</v>
+      </c>
+      <c r="G100" t="n">
         <v>0.1416666666666667</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.9965282895171348</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.9944434598915279</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.2262743642876197</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.9492734477251853</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="101">
@@ -2157,13 +4875,40 @@
         <v>0.9628955650636005</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.02325062377421372</v>
       </c>
       <c r="D101" t="n">
+        <v>0.3898601182073396</v>
+      </c>
+      <c r="E101" t="n">
         <v>1</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
         <v>0.9999999999999999</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.9982916472990756</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.9966346784855057</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.9362916290410209</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="102">
@@ -2174,13 +4919,40 @@
         <v>0.9580499782539496</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.01188647935065801</v>
       </c>
       <c r="D102" t="n">
+        <v>0.1155372452381759</v>
+      </c>
+      <c r="E102" t="n">
         <v>0.05553165799392323</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
+        <v>0.4000000000000021</v>
+      </c>
+      <c r="G102" t="n">
         <v>0.725</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.9946351107429056</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.9921173423914709</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.3522132825430839</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.9629923664167638</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="103">
@@ -2191,13 +4963,40 @@
         <v>0.9556471143326066</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0458975988116077</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
+        <v>0.004267950861548686</v>
+      </c>
+      <c r="E103" t="n">
         <v>0.1140188795014797</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
+        <v>0.3599999999999994</v>
+      </c>
+      <c r="G103" t="n">
         <v>0.5750000000000001</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.9931906878854012</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.9903379288588958</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.6138188260274466</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.9734976021779451</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="104">
@@ -2208,13 +5007,40 @@
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0458975988116077</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
+        <v>0.811606855414007</v>
+      </c>
+      <c r="E104" t="n">
         <v>0.1793993068853492</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
+        <v>0.4800000000000004</v>
+      </c>
+      <c r="G104" t="n">
         <v>0.4916666666666667</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.9935340179252792</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.9907711816295259</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.6223428498919439</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.9709144307873941</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -2225,13 +5051,40 @@
         <v>0.9992669949588067</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.9934525449026015</v>
       </c>
       <c r="D105" t="n">
+        <v>0.8040275781551605</v>
+      </c>
+      <c r="E105" t="n">
         <v>0.1374618667608268</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
+        <v>0.4800000000000004</v>
+      </c>
+      <c r="G105" t="n">
         <v>0.4</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.9934626141716766</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.990690989457141</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.568632768710604</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.9713683439790582</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="106">
@@ -2242,13 +5095,40 @@
         <v>0.9994433335900367</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.9871237555395231</v>
       </c>
       <c r="D106" t="n">
+        <v>0.8533056831061547</v>
+      </c>
+      <c r="E106" t="n">
         <v>0.1629047989781745</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
+        <v>0.5199999999999996</v>
+      </c>
+      <c r="G106" t="n">
         <v>0.3416666666666667</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.9941616637722259</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.9915643089909039</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.4905468607131919</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.9661813748160424</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="107">
@@ -2259,13 +5139,40 @@
         <v>0.9845451970568354</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.7877398689433696</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>0.6591843439124401</v>
       </c>
       <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.5199999999999996</v>
+      </c>
+      <c r="G107" t="n">
         <v>0.2833333333333333</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.9950109451901903</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.9926234660558579</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.4091997879257664</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.9598946761274347</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2276,13 +5183,40 @@
         <v>0.9846204476861801</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.7854774516646511</v>
       </c>
       <c r="D108" t="n">
+        <v>0.6649899222479714</v>
+      </c>
+      <c r="E108" t="n">
         <v>0.1409587160061469</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
+        <v>0.5199999999999996</v>
+      </c>
+      <c r="G108" t="n">
         <v>0.25</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.9950890274699772</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.9927279693660751</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.4466437111373774</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.9592553680439437</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2293,13 +5227,40 @@
         <v>0.9819059621780379</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.7832674165940769</v>
       </c>
       <c r="D109" t="n">
+        <v>0.4883328857860252</v>
+      </c>
+      <c r="E109" t="n">
         <v>0.210122527450084</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
+        <v>0.5599999999999987</v>
+      </c>
+      <c r="G109" t="n">
         <v>0.225</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.9926932707642638</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.9897703988315975</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.5321018246348093</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.9767310302830582</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="110">
@@ -2310,13 +5271,40 @@
         <v>0.9863558561268886</v>
       </c>
       <c r="C110" t="n">
-        <v>0.07701556280256053</v>
+        <v>0.7012773531600075</v>
       </c>
       <c r="D110" t="n">
+        <v>0.8158544504909343</v>
+      </c>
+      <c r="E110" t="n">
         <v>0.2325168120322271</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
+        <v>0.5599999999999987</v>
+      </c>
+      <c r="G110" t="n">
         <v>0.2000000000000001</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.9998572058527568</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.9964606311154828</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.4943928131909315</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.9747526090468045</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="111">
@@ -2327,13 +5315,40 @@
         <v>0.9865826577304457</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.700471486461989</v>
       </c>
       <c r="D111" t="n">
+        <v>0.8314975893534263</v>
+      </c>
+      <c r="E111" t="n">
         <v>0.2041041477752638</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
+        <v>0.6000000000000014</v>
+      </c>
+      <c r="G111" t="n">
         <v>0.1916666666666667</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.9967847425488257</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.5855552089591999</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.9726478689356843</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -2344,13 +5359,40 @@
         <v>0.9848258807083985</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6996768700171886</v>
       </c>
       <c r="D112" t="n">
+        <v>0.717374670767285</v>
+      </c>
+      <c r="E112" t="n">
         <v>0.1636287734006511</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
+        <v>0.6799999999999997</v>
+      </c>
+      <c r="G112" t="n">
         <v>0.175</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.9983863487944844</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.9949297051451547</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.6801679785195373</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.9834387148438586</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -2361,13 +5403,40 @@
         <v>0.9831579106593669</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6149167003030452</v>
       </c>
       <c r="D113" t="n">
+        <v>0.6143460142725782</v>
+      </c>
+      <c r="E113" t="n">
         <v>0.1719525321744509</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
+        <v>0.7600000000000016</v>
+      </c>
+      <c r="G113" t="n">
         <v>0.1666666666666667</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.998596453608622</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.9953271031612764</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.681290936005489</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.9809057856832755</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2378,13 +5447,40 @@
         <v>0.9832664208023587</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6145329196719098</v>
       </c>
       <c r="D114" t="n">
+        <v>0.6193670873919861</v>
+      </c>
+      <c r="E114" t="n">
         <v>0.2215126636187232</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
+        <v>0.8000000000000007</v>
+      </c>
+      <c r="G114" t="n">
         <v>0.1583333333333334</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.9986055396016318</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.9954710320854808</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.7097890436050871</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.979874732390936</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -2395,13 +5491,40 @@
         <v>0.9829086305733387</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6141516814972751</v>
       </c>
       <c r="D115" t="n">
+        <v>0.5939427102711708</v>
+      </c>
+      <c r="E115" t="n">
         <v>0.1329664300756108</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
+        <v>0.8399999999999999</v>
+      </c>
+      <c r="G115" t="n">
         <v>0.15</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.9982042823855393</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.9951026246083812</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.7918698206865462</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.9818776518647443</v>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -2412,13 +5535,40 @@
         <v>0.9842841400475335</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5672293017361408</v>
       </c>
       <c r="D116" t="n">
+        <v>0.7311467348574048</v>
+      </c>
+      <c r="E116" t="n">
         <v>0.145175955863196</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
+        <v>0.8399999999999999</v>
+      </c>
+      <c r="G116" t="n">
         <v>0.1333333333333333</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.9986459402198081</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.995773276933737</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.5933676549433829</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.9777341744656977</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -2429,13 +5579,40 @@
         <v>0.9846238290349504</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5672169672742053</v>
       </c>
       <c r="D117" t="n">
+        <v>0.7525806944403595</v>
+      </c>
+      <c r="E117" t="n">
         <v>0.1658346478648221</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
+        <v>0.8399999999999999</v>
+      </c>
+      <c r="G117" t="n">
         <v>0.1083333333333333</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.9988816793440317</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.9961850097564295</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.5369842896455852</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.9751247411652975</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="118">
@@ -2446,13 +5623,40 @@
         <v>0.9850928378974136</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.5672045918151464</v>
       </c>
       <c r="D118" t="n">
+        <v>0.7824997900443604</v>
+      </c>
+      <c r="E118" t="n">
         <v>0.1151835783290364</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
+        <v>0.8399999999999999</v>
+      </c>
+      <c r="G118" t="n">
         <v>0.09166666666666667</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.9992344483800536</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.9967377261488968</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.5733056891296506</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.9716828912948247</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="119">
@@ -2463,13 +5667,40 @@
         <v>0.9867772971812205</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6427792807430464</v>
       </c>
       <c r="D119" t="n">
+        <v>0.8292471137121744</v>
+      </c>
+      <c r="E119" t="n">
         <v>0.1504477634023553</v>
       </c>
-      <c r="E119" t="n">
+      <c r="F119" t="n">
+        <v>0.879999999999999</v>
+      </c>
+      <c r="G119" t="n">
         <v>0.06666666666666665</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.9976262724086693</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.9948596474417933</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.7869501147721993</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.9826292188753706</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="120">
@@ -2480,13 +5711,40 @@
         <v>0.9863838845757229</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6425569613795258</v>
       </c>
       <c r="D120" t="n">
+        <v>0.8074887727127894</v>
+      </c>
+      <c r="E120" t="n">
         <v>0.2215720328580892</v>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
+        <v>0.879999999999999</v>
+      </c>
+      <c r="G120" t="n">
         <v>0.06666666666666665</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.9972916942222969</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.9945543976804061</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.7086646182002438</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.9842700119624287</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -2497,13 +5755,40 @@
         <v>0.9867060139077807</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0458975988116077</v>
+        <v>0.6423362731205151</v>
       </c>
       <c r="D121" t="n">
+        <v>0.832372549079529</v>
+      </c>
+      <c r="E121" t="n">
         <v>0.2474646398073269</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
+        <v>0.879999999999999</v>
+      </c>
+      <c r="G121" t="n">
         <v>0.06666666666666665</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.9975910031101359</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.9950303407018924</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.6505070675988471</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.981289234280188</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -2517,10 +5802,37 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
         <v>0.2899185086085146</v>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
+        <v>0.9199999999999982</v>
+      </c>
+      <c r="G122" t="n">
         <v>0.04999999999999999</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.9913723772165168</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.9946000477678022</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.6833060359507753</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.9807111507994541</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="123">
@@ -2534,10 +5846,37 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
         <v>0.20317847274349</v>
       </c>
-      <c r="E123" t="n">
+      <c r="F123" t="n">
+        <v>0.9199999999999982</v>
+      </c>
+      <c r="G123" t="n">
         <v>0.03333333333333333</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.9909978008987025</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.994119946860988</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.7548506731960245</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.9834275684871278</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -2551,10 +5890,37 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
         <v>0.1533211026921886</v>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
+        <v>0.9199999999999982</v>
+      </c>
+      <c r="G124" t="n">
         <v>0.01666666666666672</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.9889596728338375</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.9915810441747794</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.9618970566512602</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.9983337449731385</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="125">
@@ -2568,10 +5934,37 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
         <v>0.1043572006310489</v>
       </c>
-      <c r="E125" t="n">
+      <c r="F125" t="n">
+        <v>0.9600000000000009</v>
+      </c>
+      <c r="G125" t="n">
         <v>0.008333333333333359</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.9932393505182627</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.9968620077050695</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.5362716851339961</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.9669481793166751</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -2585,9 +5978,36 @@
         <v>0</v>
       </c>
       <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
         <v>0.1795203267886614</v>
       </c>
-      <c r="E126" t="n">
+      <c r="F126" t="n">
+        <v>0.9600000000000009</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.9909130744676957</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.9939668626016765</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.8373213481418396</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.983965977254543</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2602,10 +6022,37 @@
         <v>0</v>
       </c>
       <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
         <v>0.2540828620568416</v>
       </c>
-      <c r="E127" t="n">
+      <c r="F127" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" t="n">
         <v>0.008333333333333359</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.9887214047936665</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.9912385147302469</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -2619,10 +6066,37 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
         <v>0.09685016508167336</v>
       </c>
-      <c r="E128" t="n">
+      <c r="F128" t="n">
+        <v>1</v>
+      </c>
+      <c r="G128" t="n">
         <v>0.01666666666666672</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.9949038799073063</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.9988752063930684</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.3707296219929684</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.9546659025765803</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="129">
@@ -2636,10 +6110,37 @@
         <v>0</v>
       </c>
       <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
         <v>0.3042254903999954</v>
       </c>
-      <c r="E129" t="n">
+      <c r="F129" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
         <v>0.03333333333333333</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.9928306437579619</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.9962938306888078</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.4356150255383813</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.9698313082519218</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="130">
@@ -2653,10 +6154,37 @@
         <v>0</v>
       </c>
       <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
         <v>0.1468457109283386</v>
       </c>
-      <c r="E130" t="n">
+      <c r="F130" t="n">
+        <v>0.9600000000000009</v>
+      </c>
+      <c r="G130" t="n">
         <v>0.04166666666666669</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.9923921725685163</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.9957360229872511</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.5617259035703712</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.9730170184310524</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="131">
@@ -2670,9 +6198,36 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
         <v>0.2137859814001123</v>
       </c>
-      <c r="E131" t="n">
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.9921973201784812</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.9954799306096264</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.5863861258720136</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.9744176722955573</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2687,9 +6242,36 @@
         <v>0</v>
       </c>
       <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
         <v>0.2662159434983676</v>
       </c>
-      <c r="E132" t="n">
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.9937984759312937</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.9974469746632418</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.4252858022654106</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.9626555518560601</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2708,6 +6290,33 @@
       </c>
       <c r="E133" t="n">
         <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.9940523862432423</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.9977466831476445</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.9607671626147806</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.6000000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/covid19_drdfm/data/example-output/WV/df.xlsx
+++ b/covid19_drdfm/data/example-output/WV/df.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:S132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,65 +447,90 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>GDP</t>
+          <t>TBill1yr</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>RPFI</t>
+          <t>TBill10yr</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>FixAss</t>
+          <t>Employment1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>UI</t>
+          <t>Employment2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>PartR</t>
+          <t>Cons1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>UR</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Cons3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Cons5</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CPIU</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>PCE</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Cases5</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Cases2</t>
+        </is>
+      </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Mask2</t>
+          <t>Deaths5</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>School</t>
+          <t>Deaths2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Cases3</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Deaths3</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Cases4</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Hosp2</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Cases1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Hosp1</t>
         </is>
@@ -513,5809 +538,7730 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.0235042735042735</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.4017857142857143</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.8170711884503437</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.8237297960071758</v>
       </c>
       <c r="F2" t="n">
-        <v>0.639999999999997</v>
+        <v>0.4347363057966733</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2999999999999999</v>
+        <v>0.486508006782136</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.4804248097350872</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4967522167341814</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N2" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9792458015912889</v>
+        <v>0.02991452991452991</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6516865186463175</v>
+        <v>0.4613095238095237</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2631190943583174</v>
+        <v>0.8135122768330407</v>
       </c>
       <c r="E3" t="n">
-        <v>0.207058232299019</v>
+        <v>0.8217942005629378</v>
       </c>
       <c r="F3" t="n">
-        <v>0.639999999999997</v>
+        <v>0.4612219225785277</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2916666666666666</v>
+        <v>0.508606704212173</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9937716560450129</v>
+        <v>0.4783596646895119</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9947471817062132</v>
+        <v>0.4753169610054069</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4804248097350872</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9679389035394174</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N3" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9794563405214187</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6498648109175603</v>
+        <v>0.425595238095238</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2755276299387904</v>
+        <v>0.8018882440272991</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1816823990022929</v>
+        <v>0.8158387327196476</v>
       </c>
       <c r="F4" t="n">
-        <v>0.639999999999997</v>
+        <v>0.5098641121523804</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2999999999999999</v>
+        <v>0.5493273536921472</v>
       </c>
       <c r="H4" t="n">
-        <v>0.993950230283156</v>
+        <v>0.4580164258916395</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9949732425672637</v>
+        <v>0.4362124408304384</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4783596646895119</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K4" t="n">
-        <v>0.966573298315848</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N4" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9806067245238038</v>
+        <v>0.02991452991452991</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6449290164501711</v>
+        <v>0.3511904761904762</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4311792567328561</v>
+        <v>0.8182644828456356</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1878120662696517</v>
+        <v>0.8168747967004858</v>
       </c>
       <c r="F5" t="n">
-        <v>0.639999999999997</v>
+        <v>0.7103888981445676</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3083333333333333</v>
+        <v>0.7176940396513641</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9942827477753763</v>
+        <v>0.2823120937051792</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9953897985707622</v>
+        <v>0.2759848128333319</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4580164258916395</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9640820130383683</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N5" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B6" t="n">
-        <v>0.982180049737298</v>
+        <v>0.02991452991452991</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6442605109735607</v>
+        <v>0.2976190476190476</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5336344685848848</v>
+        <v>0.8137537407112719</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2028418475831665</v>
+        <v>0.8153773111977091</v>
       </c>
       <c r="F6" t="n">
-        <v>0.639999999999997</v>
+        <v>0.6587695028331216</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3166666666666667</v>
+        <v>0.6741553554294855</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9956702535806664</v>
+        <v>0.3408982227867237</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9971121226181706</v>
+        <v>0.316837350964585</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2823120937051792</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9538741718760513</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N6" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9817782278312861</v>
+        <v>0.02991452991452991</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6435993608348638</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5069454358296268</v>
+        <v>0.8032999920192481</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2081447625246162</v>
+        <v>0.8184443536062311</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6799999999999997</v>
+        <v>0.5872155766283058</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3250000000000001</v>
+        <v>0.6138644591026046</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9953064767553799</v>
+        <v>0.3934463727922193</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9966667392431837</v>
+        <v>0.3735877862041102</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3408982227867237</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K7" t="n">
-        <v>0.956476820529933</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N7" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9780848190843977</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C8" t="n">
-        <v>0.494104625653996</v>
+        <v>0.3154761904761905</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2890076848295597</v>
+        <v>0.8069065484055066</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2392357084138474</v>
+        <v>0.8197213812617881</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6799999999999997</v>
+        <v>0.3399144615755679</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3250000000000001</v>
+        <v>0.4058735554416651</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9948042857752272</v>
+        <v>0.6527359268372354</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9960499874196742</v>
+        <v>0.5704963034279991</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3934463727922193</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9600922983102562</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N8" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9761406167780877</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C9" t="n">
-        <v>0.49357714154594</v>
+        <v>0.3273809523809523</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1606052731110216</v>
+        <v>0.834591805387279</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1825118686062808</v>
+        <v>0.8199184598513599</v>
       </c>
       <c r="F9" t="n">
-        <v>0.639999999999997</v>
+        <v>0.3659329854536812</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3250000000000001</v>
+        <v>0.4275865401493057</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9930814413846537</v>
+        <v>0.6040928049754837</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9939223234285672</v>
+        <v>0.5494444501182414</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6527359268372354</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9726370191705382</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N9" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9763373308561424</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4930435435946334</v>
+        <v>0.3363095238095238</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1721742579093236</v>
+        <v>0.8210965500458856</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2143304746786493</v>
+        <v>0.8189585210915629</v>
       </c>
       <c r="F10" t="n">
-        <v>0.639999999999997</v>
+        <v>0.3712221028624129</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3250000000000001</v>
+        <v>0.4318792576001266</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9932570568526139</v>
+        <v>0.506728251696605</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9941444386023019</v>
+        <v>0.5449245868322847</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6040928049754837</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9712958398905062</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N10" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9773505868327024</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5976211080042045</v>
+        <v>0.306547619047619</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2516169375083874</v>
+        <v>0.8033629658599835</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1761575973173962</v>
+        <v>0.8191157606636335</v>
       </c>
       <c r="F11" t="n">
-        <v>0.639999999999997</v>
+        <v>0.6712162696146777</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3166666666666667</v>
+        <v>0.6838485400448403</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9932887362647258</v>
+        <v>0.3006557725101743</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9941883513897526</v>
+        <v>0.3053631904044893</v>
       </c>
       <c r="J11" t="n">
-        <v>0.506728251696605</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9710078867636006</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N11" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9796996063115325</v>
+        <v>0.0235042735042735</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5968244490524435</v>
+        <v>0.3273809523809523</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4043097408557277</v>
+        <v>0.8068337204551878</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2413517899263925</v>
+        <v>0.8223201170577645</v>
       </c>
       <c r="F12" t="n">
-        <v>0.639999999999997</v>
+        <v>0.6282025267151392</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3166666666666667</v>
+        <v>0.6475488376751988</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9953674146892386</v>
+        <v>0.37413804795302</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9967658966558505</v>
+        <v>0.3393635314024407</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3006557725101743</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9557458204525275</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N12" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9793616917751542</v>
+        <v>0.02136752136752136</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5960308218116912</v>
+        <v>0.3839285714285714</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3813265919055909</v>
+        <v>0.8055543580226956</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2496319050489869</v>
+        <v>0.8202058936939317</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6000000000000014</v>
+        <v>0.4134074191094497</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3083333333333333</v>
+        <v>0.4375943831568449</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9950636844433872</v>
+        <v>0.4730736920152049</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9963945651780773</v>
+        <v>0.4766357901129943</v>
       </c>
       <c r="J13" t="n">
-        <v>0.37413804795302</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9579119267895568</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N13" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9846150552505382</v>
+        <v>0.0235042735042735</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7073411554072103</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6934639745732059</v>
+        <v>0.8095017709632395</v>
       </c>
       <c r="E14" t="n">
-        <v>0.270337338877089</v>
+        <v>0.8238479088897778</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5599999999999987</v>
+        <v>0.2706078684036595</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2999999999999999</v>
+        <v>0.317576335287721</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9928612364179936</v>
+        <v>0.6349860070635606</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9942468148448251</v>
+        <v>0.5903560713844669</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4730736920152049</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9666573187698657</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N14" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9834598267163426</v>
+        <v>0.02136752136752136</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7068086944185847</v>
+        <v>0.3988095238095238</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6192526423129912</v>
+        <v>0.805262264353838</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1939134362900357</v>
+        <v>0.8183347319329395</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5199999999999996</v>
+        <v>0.680533663911878</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.6620787554120806</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9918688786681645</v>
+        <v>0.2471689513070562</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9930190780821138</v>
+        <v>0.2632377374361727</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6349860070635606</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9739022526346681</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N15" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9866348685096663</v>
+        <v>0.01495726495726495</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7062804540707058</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8281322779952873</v>
+        <v>0.8185903306715626</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1765637901806676</v>
+        <v>0.8200477520852829</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4800000000000004</v>
+        <v>0.6363018571125635</v>
       </c>
       <c r="G16" t="n">
-        <v>0.275</v>
+        <v>0.6248989022289482</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9947156309625792</v>
+        <v>0.2813645162752761</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9965432004415353</v>
+        <v>0.2983423793122137</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2471689513070562</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K16" t="n">
-        <v>0.953062076468007</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N16" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9814591100875247</v>
+        <v>0.01495726495726495</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5970954287204915</v>
+        <v>0.3898809523809523</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6079879754215424</v>
+        <v>0.815943793632123</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1497529395587992</v>
+        <v>0.8211815955429621</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4399999999999977</v>
+        <v>0.5175902692491235</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.5251249128582334</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9944079087994945</v>
+        <v>0.3993518297214528</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9961628653719722</v>
+        <v>0.3928492394475876</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2813645162752761</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9552985360150279</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N17" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9805308916362365</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5969701940403038</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5465405976584098</v>
+        <v>0.8112013334931283</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1705767048712609</v>
+        <v>0.8196578374857798</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4399999999999977</v>
+        <v>0.393404741387933</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2583333333333333</v>
+        <v>0.4207505539827031</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9935828683003305</v>
+        <v>0.4918638127890506</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9951422172537293</v>
+        <v>0.4917244055485628</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3993518297214528</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9613194141187007</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N18" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9795597884409142</v>
+        <v>0.01495726495726495</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5968453983296655</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4822927025468605</v>
+        <v>0.8165747062094404</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2251925554017161</v>
+        <v>0.8173653310839419</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4399999999999977</v>
+        <v>0.4684427620416143</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2583333333333333</v>
+        <v>0.483807329138998</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9927198090880888</v>
+        <v>0.4719810427311055</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9940745091902249</v>
+        <v>0.4317047913931817</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4918638127890506</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9676185898792923</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N19" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9813156667358194</v>
+        <v>0.01709401709401709</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6265833305727271</v>
+        <v>0.630952380952381</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4784027709599425</v>
+        <v>0.8091941800468382</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2077614698344976</v>
+        <v>0.8223289524283204</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4399999999999977</v>
+        <v>0.4439631192933258</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2583333333333333</v>
+        <v>0.4632276777295343</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9932405162018693</v>
+        <v>0.4921920362000497</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9947195548510395</v>
+        <v>0.4510590633598667</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4719810427311055</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9637948380358665</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N20" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9811231552779697</v>
+        <v>0.01495726495726495</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6260523911851393</v>
+        <v>0.6517857142857143</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4650836835908427</v>
+        <v>0.8102815037840168</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1784265007587401</v>
+        <v>0.8198728129715163</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4000000000000021</v>
+        <v>0.5381531406103922</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2583333333333333</v>
+        <v>0.5423802079360285</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9930699976507491</v>
+        <v>0.3976005690238599</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9945090332249359</v>
+        <v>0.3757619736740684</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4921920362000497</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9650278671739611</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N21" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9818602290243158</v>
+        <v>0.01495726495726495</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6255259768353403</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5125499901130901</v>
+        <v>0.7748893508307949</v>
       </c>
       <c r="E22" t="n">
-        <v>0.186202116988849</v>
+        <v>0.8213239601066769</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4000000000000021</v>
+        <v>0.4307981835170698</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2583333333333333</v>
+        <v>0.4521506939072275</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9937237357198176</v>
+        <v>0.4050553748719518</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9953187320404182</v>
+        <v>0.4612196127661135</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3976005690238599</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K22" t="n">
-        <v>0.9602308122521267</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N22" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9805707342314813</v>
+        <v>0.01495726495726495</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5963653237411397</v>
+        <v>0.625</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4206548533501419</v>
+        <v>0.8412095355145293</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2110000437695358</v>
+        <v>0.8235377070539099</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3599999999999994</v>
+        <v>0.441349798307488</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4610120447100455</v>
       </c>
       <c r="H23" t="n">
-        <v>0.992977587985762</v>
+        <v>0.4666731454969064</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9943957200982848</v>
+        <v>0.4526349185513692</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4050553748719518</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9656751792246812</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N23" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B24" t="n">
-        <v>0.980654065346068</v>
+        <v>0.01709401709401709</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5959344869637961</v>
+        <v>0.6785714285714285</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4250934288827213</v>
+        <v>0.8177730833014433</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2622223178929439</v>
+        <v>0.8145750700290521</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3599999999999994</v>
+        <v>0.4057622982371412</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4310972727818216</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9930503965900044</v>
+        <v>0.504271433281398</v>
       </c>
       <c r="I24" t="n">
-        <v>0.994486368182811</v>
+        <v>0.480853177227112</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4666731454969064</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9651282623410788</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N24" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9803759696646575</v>
+        <v>0.01495726495726495</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5955052054290171</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4059023839580642</v>
+        <v>0.8203859482666936</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2824752745654198</v>
+        <v>0.8198329027452651</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3599999999999994</v>
+        <v>0.4313394690677572</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4962759435269261</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9928027351980007</v>
+        <v>0.493934346505972</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9941803519969415</v>
+        <v>0.4748034148962615</v>
       </c>
       <c r="J25" t="n">
-        <v>0.504271433281398</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9669260016326096</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N25" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9778565806307092</v>
+        <v>0.01495726495726495</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5826460093175335</v>
+        <v>0.6220238095238095</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3953523093042827</v>
+        <v>0.8063658967333401</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2591347356598474</v>
+        <v>0.8186518557405352</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4000000000000021</v>
+        <v>0.5393445440501085</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.5868496057579287</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9921316156491433</v>
+        <v>0.4316850960443767</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9948471038033506</v>
+        <v>0.3884346195011176</v>
       </c>
       <c r="J26" t="n">
-        <v>0.493934346505972</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K26" t="n">
-        <v>0.9665405811298221</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N26" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9786998582197903</v>
+        <v>0.01709401709401709</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5823619799967129</v>
+        <v>0.625</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4499738884956447</v>
+        <v>0.8254627173521412</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2082087559806282</v>
+        <v>0.8236449003660327</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4000000000000021</v>
+        <v>0.4223293037507186</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4883133504030064</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9928835009502054</v>
+        <v>0.4759716818008413</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9957736362443353</v>
+        <v>0.4815581995385124</v>
       </c>
       <c r="J27" t="n">
-        <v>0.4316850960443767</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9610381658735081</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N27" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9777804378835883</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5820782315707983</v>
+        <v>0.6220238095238095</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3893447947004804</v>
+        <v>0.8076266774238325</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1511093337405211</v>
+        <v>0.8249493924630638</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4000000000000021</v>
+        <v>0.4272066213663791</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4922190823100976</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9920724367157936</v>
+        <v>0.467607911577312</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9947656496514267</v>
+        <v>0.4774535384334815</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4759716818008413</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K28" t="n">
-        <v>0.9669709174555586</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N28" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9844707322322949</v>
+        <v>0.01068376068376068</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7278027203772192</v>
+        <v>0.5773809523809523</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5692471028316946</v>
+        <v>0.8126222115907127</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1341967772589656</v>
+        <v>0.8205458782403786</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4000000000000021</v>
+        <v>0.4448835999843168</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2583333333333333</v>
+        <v>0.5068831285726448</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9921080055137039</v>
+        <v>0.4694354679379368</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9948056037311068</v>
+        <v>0.4631389551986168</v>
       </c>
       <c r="J29" t="n">
-        <v>0.467607911577312</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K29" t="n">
-        <v>0.9667094161832184</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N29" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9845750298033998</v>
+        <v>0.01068376068376068</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7266863241067572</v>
+        <v>0.5892857142857143</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5779107992031214</v>
+        <v>0.822080809866217</v>
       </c>
       <c r="E30" t="n">
-        <v>0.18880629141552</v>
+        <v>0.8257039822361284</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3599999999999994</v>
+        <v>0.4936989460655118</v>
       </c>
       <c r="G30" t="n">
-        <v>0.25</v>
+        <v>0.5477176645451163</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9922324713263238</v>
+        <v>0.4420601940130754</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9949556110758877</v>
+        <v>0.4239846246189448</v>
       </c>
       <c r="J30" t="n">
-        <v>0.4694354679379368</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9657974574043684</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N30" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9849237753386423</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7255880087543926</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6025265212783053</v>
+        <v>0.8123850160291054</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2090801009046518</v>
+        <v>0.8221142682634116</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3200000000000003</v>
+        <v>0.4623406752762026</v>
       </c>
       <c r="G31" t="n">
-        <v>0.25</v>
+        <v>0.521174046737411</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9925732107422446</v>
+        <v>0.4328522352647602</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9953733320927829</v>
+        <v>0.4487866930954535</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4420601940130754</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K31" t="n">
-        <v>0.9633029987871482</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N31" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9814117883118657</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6252661781371545</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4065623065196782</v>
+        <v>0.8116286777528561</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2188068132584796</v>
+        <v>0.8196616635690087</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3200000000000003</v>
+        <v>0.5965170094367795</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2416666666666667</v>
+        <v>0.6337499645597545</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9923570752742813</v>
+        <v>0.3723022077765162</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9951018014690436</v>
+        <v>0.3415369639278926</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4328522352647602</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9648830981661997</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N32" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9824613635585844</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6245689219930052</v>
+        <v>0.5684523809523809</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4745893817056921</v>
+        <v>0.8158018120719297</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1521868478428015</v>
+        <v>0.8245558462563858</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3200000000000003</v>
+        <v>0.5650613136056751</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2416666666666667</v>
+        <v>0.6071268870740804</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9932907000876993</v>
+        <v>0.3832166305801797</v>
       </c>
       <c r="I33" t="n">
-        <v>0.996253408209533</v>
+        <v>0.3664175283812016</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3723022077765162</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K33" t="n">
-        <v>0.9580503926351426</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N33" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9822134940668988</v>
+        <v>0.01068376068376068</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6238776030206965</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4577804964418128</v>
+        <v>0.8300547056264846</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1706796148783727</v>
+        <v>0.8220236597927636</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3200000000000003</v>
+        <v>0.6063801939561382</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2416666666666667</v>
+        <v>0.6416660948600098</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9930738749479969</v>
+        <v>0.3705152434098531</v>
       </c>
       <c r="I34" t="n">
-        <v>0.995981064744979</v>
+        <v>0.3332441322955792</v>
       </c>
       <c r="J34" t="n">
-        <v>0.3832166305801797</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K34" t="n">
-        <v>0.9596354928650028</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N34" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9795531766920482</v>
+        <v>0.01709401709401709</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5705054746447755</v>
+        <v>0.5089285714285714</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4239859861258212</v>
+        <v>0.8061260573769912</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2186083865709753</v>
+        <v>0.8236746516212029</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3200000000000003</v>
+        <v>0.6485318939882874</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2416666666666667</v>
+        <v>0.6769064051038485</v>
       </c>
       <c r="H35" t="n">
-        <v>0.993362519559705</v>
+        <v>0.2910385964014466</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9963343870653018</v>
+        <v>0.2994073764003015</v>
       </c>
       <c r="J35" t="n">
-        <v>0.3705152434098531</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K35" t="n">
-        <v>0.9575220698412108</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N35" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9798820797677843</v>
+        <v>0.03418803418803418</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5700207345738715</v>
+        <v>0.4732142857142857</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4444789088039849</v>
+        <v>0.8144364776464362</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2424096701751749</v>
+        <v>0.8233744488067245</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3200000000000003</v>
+        <v>0.7116222572986566</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.729745131501669</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9936569424736793</v>
+        <v>0.2342588880723614</v>
       </c>
       <c r="I36" t="n">
-        <v>0.996694881384147</v>
+        <v>0.2488690215870865</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2910385964014466</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9553663852445861</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N36" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9803749798810294</v>
+        <v>0.03205128205128205</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5695353819866507</v>
+        <v>0.375</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4756919814260276</v>
+        <v>0.8257177919739254</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2714685266494967</v>
+        <v>0.8201488230902793</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3200000000000003</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2416666666666667</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9940967946475091</v>
+        <v>0.07870096975326518</v>
       </c>
       <c r="I37" t="n">
-        <v>0.997235400481443</v>
+        <v>0.04537957508667029</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2342588880723614</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K37" t="n">
-        <v>0.9521466689884892</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N37" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9785961561854443</v>
+        <v>0.03632478632478632</v>
       </c>
       <c r="C38" t="n">
-        <v>0.436026790652925</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2866982255480919</v>
+        <v>0.8034061642763356</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2870598781406751</v>
+        <v>0.8229426152859306</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3200000000000003</v>
+        <v>0.4819485628927097</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2416666666666667</v>
+        <v>0.5642349719562424</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9974565854982826</v>
+        <v>0.4991270461619542</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0.4583112661122414</v>
       </c>
       <c r="J38" t="n">
-        <v>0.07870096975326518</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K38" t="n">
-        <v>0.9391826878446033</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N38" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9744980866379559</v>
+        <v>0.04273504273504273</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4344544946603912</v>
+        <v>0.4226190476190476</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01652645288854082</v>
+        <v>0.8098794065368862</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1944137820668006</v>
+        <v>0.8161387989449225</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3200000000000003</v>
+        <v>0.4593063601297441</v>
       </c>
       <c r="G39" t="n">
-        <v>0.25</v>
+        <v>0.544824186417467</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9938546445821134</v>
+        <v>0.5066174053952723</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9955422975599746</v>
+        <v>0.4760612826169863</v>
       </c>
       <c r="J39" t="n">
-        <v>0.4991270461619542</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K39" t="n">
-        <v>0.965489893197179</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N39" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B40" t="n">
-        <v>0.974280005484694</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4328506340699389</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>0.8204703357769915</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2264016262846144</v>
+        <v>0.8233488059890725</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3599999999999994</v>
+        <v>0.5537854214983137</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.6238474013076938</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9936937414421787</v>
+        <v>0.4289422565245661</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9953437329655476</v>
+        <v>0.4003838982043652</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5066174053952723</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K40" t="n">
-        <v>0.9666207178331913</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N40" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9827842982366185</v>
+        <v>0.04059829059829059</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6173493320099553</v>
+        <v>0.4702380952380952</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5077912220035956</v>
+        <v>0.8177257676594207</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1365984613084902</v>
+        <v>0.8256853374382761</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3599999999999994</v>
+        <v>0.4197417321751218</v>
       </c>
       <c r="G41" t="n">
-        <v>0.275</v>
+        <v>0.5108189031471853</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9943463692926496</v>
+        <v>0.5349905266530876</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9961521089369195</v>
+        <v>0.5070034216096323</v>
       </c>
       <c r="J41" t="n">
-        <v>0.4289422565245661</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K41" t="n">
-        <v>0.9617994349538268</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N41" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9817283254633826</v>
+        <v>0.04914529914529914</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6172400970809266</v>
+        <v>0.5178571428571428</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4391736959019185</v>
+        <v>0.8069081625681082</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1649524198350561</v>
+        <v>0.8184754748785685</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3599999999999994</v>
+        <v>0.4565421885424519</v>
       </c>
       <c r="G42" t="n">
-        <v>0.275</v>
+        <v>0.5413740510121073</v>
       </c>
       <c r="H42" t="n">
-        <v>0.993411754055179</v>
+        <v>0.5101022712614719</v>
       </c>
       <c r="I42" t="n">
-        <v>0.994995872480074</v>
+        <v>0.4773400819806607</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5349905266530876</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K42" t="n">
-        <v>0.9685919911023991</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N42" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9820106878260911</v>
+        <v>0.0534188034188034</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6171314129064057</v>
+        <v>0.5059523809523809</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4580513386440512</v>
+        <v>0.8074361484750139</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2316248105620321</v>
+        <v>0.8239159639196696</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3599999999999994</v>
+        <v>0.5481566785051103</v>
       </c>
       <c r="G43" t="n">
-        <v>0.275</v>
+        <v>0.6179989476951442</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9936638175436728</v>
+        <v>0.4545412938591608</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9953084394563737</v>
+        <v>0.4039482794265793</v>
       </c>
       <c r="J43" t="n">
-        <v>0.5101022712614719</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K43" t="n">
-        <v>0.9667021880574344</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N43" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9786258341824898</v>
+        <v>0.0705128205128205</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5490204772149632</v>
+        <v>0.4613095238095237</v>
       </c>
       <c r="D44" t="n">
-        <v>0.308124817908754</v>
+        <v>0.8192830710681206</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2144065221273347</v>
+        <v>0.8179084431114235</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3200000000000003</v>
+        <v>0.6148120373812604</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.6736507026555587</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9942966381392943</v>
+        <v>0.3796449961608567</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9960922815890112</v>
+        <v>0.3504672440466652</v>
       </c>
       <c r="J44" t="n">
-        <v>0.4545412938591608</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K44" t="n">
-        <v>0.9620265158749708</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N44" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B45" t="n">
-        <v>0.979146471959957</v>
+        <v>0.06837606837606836</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5485920690732964</v>
+        <v>0.4613095238095237</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3413524378689806</v>
+        <v>0.7944628639571398</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1764850447665497</v>
+        <v>0.8176684171428668</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2799999999999976</v>
+        <v>0.737373743927938</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2583333333333333</v>
+        <v>0.7762901523821509</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9947561271473622</v>
+        <v>0.2738033829246919</v>
       </c>
       <c r="I45" t="n">
-        <v>0.996661576846578</v>
+        <v>0.2523886087700005</v>
       </c>
       <c r="J45" t="n">
-        <v>0.3796449961608567</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K45" t="n">
-        <v>0.9586193262337169</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N45" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9801050064620661</v>
+        <v>0.04487179487179487</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5481614560740329</v>
+        <v>0.431547619047619</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4032001714100717</v>
+        <v>0.8217058068666531</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1855446390100394</v>
+        <v>0.8248840524521739</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2399999999999984</v>
+        <v>0.6268305085794268</v>
       </c>
       <c r="G46" t="n">
-        <v>0.25</v>
+        <v>0.683026733794047</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9956039606860972</v>
+        <v>0.4264502145385787</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9977115374814253</v>
+        <v>0.3402699778727123</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2738033829246919</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K46" t="n">
-        <v>0.9523708961543608</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N46" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9790307942494291</v>
+        <v>0.09188034188034186</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5145183621779846</v>
+        <v>0.488095238095238</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4025625348343909</v>
+        <v>0.8145543568902583</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2158584096675539</v>
+        <v>0.8211576163575424</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2399999999999984</v>
+        <v>0.564140954770769</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2416666666666667</v>
+        <v>0.6299833182360201</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9948327195371162</v>
+        <v>0.4361074937639563</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9967574899056671</v>
+        <v>0.3899771723142749</v>
       </c>
       <c r="J47" t="n">
-        <v>0.4264502145385787</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K47" t="n">
-        <v>0.9579696750175393</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N47" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9785369473762112</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="C48" t="n">
-        <v>0.514358047768167</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3699904986251979</v>
+        <v>0.8301987447499016</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2561030760475949</v>
+        <v>0.8230098564771564</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2399999999999984</v>
+        <v>0.6811947065980954</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2416666666666667</v>
+        <v>0.7280024205212893</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9943938882609921</v>
+        <v>0.3291286649421136</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9962148769198987</v>
+        <v>0.2962969840750834</v>
       </c>
       <c r="J48" t="n">
-        <v>0.4361074937639563</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K48" t="n">
-        <v>0.9611364394003525</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N48" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9794510444637473</v>
+        <v>0.1047008547008547</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5141968019866583</v>
+        <v>0.4374999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4294631421700806</v>
+        <v>0.8252302269764712</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2657043833199647</v>
+        <v>0.8168565564594282</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2799999999999976</v>
+        <v>0.599221587943741</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2416666666666667</v>
+        <v>0.6643813666955354</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9952035496900214</v>
+        <v>0.3582333302100829</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9972175732431618</v>
+        <v>0.3836131576258782</v>
       </c>
       <c r="J49" t="n">
-        <v>0.3291286649421136</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K49" t="n">
-        <v>0.9551682272165031</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N49" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9775940685228044</v>
+        <v>0.1025641025641025</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5147264638608219</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3181370825104928</v>
+        <v>0.8168785545332913</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2912454857306049</v>
+        <v>0.8206159793291865</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2799999999999976</v>
+        <v>0.6922058873275747</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2416666666666667</v>
+        <v>0.7420938549984545</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9925032693574645</v>
+        <v>0.317139331932879</v>
       </c>
       <c r="I50" t="n">
-        <v>0.996566755236611</v>
+        <v>0.3090349245371968</v>
       </c>
       <c r="J50" t="n">
-        <v>0.3582333302100829</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K50" t="n">
-        <v>0.9607309983917958</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N50" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9783129831716185</v>
+        <v>0.1303418803418803</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5141279404218563</v>
+        <v>0.3779761904761905</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3638497708219057</v>
+        <v>0.8166172624762037</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2238552011310319</v>
+        <v>0.8223074009416873</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3200000000000003</v>
+        <v>0.4497542539945819</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.5379035069521406</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9931525996264038</v>
+        <v>0.527342817213182</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9973617229977539</v>
+        <v>0.5020503700685595</v>
       </c>
       <c r="J51" t="n">
-        <v>0.317139331932879</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K51" t="n">
-        <v>0.9559797406527168</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N51" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B52" t="n">
-        <v>0.976404171369873</v>
+        <v>0.108974358974359</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5135231918613764</v>
+        <v>0.3541666666666666</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2377702801594132</v>
+        <v>0.8019526135529373</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1635615575114485</v>
+        <v>0.8197387300407529</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2799999999999976</v>
+        <v>0.3677888367080497</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.4685926717982117</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9914720336418524</v>
+        <v>0.5600276253743403</v>
       </c>
       <c r="I52" t="n">
-        <v>0.9952729371748029</v>
+        <v>0.5670467174847416</v>
       </c>
       <c r="J52" t="n">
-        <v>0.527342817213182</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K52" t="n">
-        <v>0.9682764402574415</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N52" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9814423782542909</v>
+        <v>0.1153846153846153</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6143968491652607</v>
+        <v>0.3541666666666666</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4975981221031544</v>
+        <v>0.8089540979698909</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1520601163196794</v>
+        <v>0.8141278214900715</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2799999999999976</v>
+        <v>0.5172605454231969</v>
       </c>
       <c r="G53" t="n">
-        <v>0.225</v>
+        <v>0.5937898184002974</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9909061607083292</v>
+        <v>0.4911291353516724</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9945639149745293</v>
+        <v>0.4474101839558776</v>
       </c>
       <c r="J53" t="n">
-        <v>0.5600276253743403</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K53" t="n">
-        <v>0.9724172516696103</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N53" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9826057826617209</v>
+        <v>0.1068376068376068</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6143485973418735</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5738735060598511</v>
+        <v>0.8100965821959163</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2090092571082031</v>
+        <v>0.8220806842831399</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2399999999999984</v>
+        <v>0.4820870891308697</v>
       </c>
       <c r="G54" t="n">
-        <v>0.225</v>
+        <v>0.5638114134769807</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9919477912226627</v>
+        <v>0.5104932049111612</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9958446318516907</v>
+        <v>0.4750798724793894</v>
       </c>
       <c r="J54" t="n">
-        <v>0.4911291353516724</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K54" t="n">
-        <v>0.9647954030113071</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N54" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9823228739714028</v>
+        <v>0.09829059829059827</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6143004880000449</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5555976175729329</v>
+        <v>0.8183967831948311</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1923441046221653</v>
+        <v>0.8263757316783266</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1999999999999993</v>
+        <v>0.6045349080184362</v>
       </c>
       <c r="G55" t="n">
-        <v>0.225</v>
+        <v>0.6663046612431985</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9917068928744566</v>
+        <v>0.3560972505717873</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9955379647256603</v>
+        <v>0.3770002146735688</v>
       </c>
       <c r="J55" t="n">
-        <v>0.5104932049111612</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K55" t="n">
-        <v>0.9665581937920824</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N55" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9824617499521803</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6188968034816362</v>
+        <v>0.2797619047619048</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5803338616585754</v>
+        <v>0.8147146482922014</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2092296379039033</v>
+        <v>0.818119570113392</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1999999999999993</v>
+        <v>0.5146710884070504</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2166666666666667</v>
+        <v>0.5903708213140706</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9925607857965821</v>
+        <v>0.4669182200412889</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9965864297727629</v>
+        <v>0.4483057036224152</v>
       </c>
       <c r="J56" t="n">
-        <v>0.3560972505717873</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K56" t="n">
-        <v>0.9603096985690595</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N56" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9817562670911325</v>
+        <v>0.1153846153846153</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6187769881485811</v>
+        <v>0.300595238095238</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5340825141418861</v>
+        <v>0.8063220843276583</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1517024755076585</v>
+        <v>0.8237947186483667</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1600000000000001</v>
+        <v>0.4946357782305243</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2166666666666667</v>
+        <v>0.5731258241761745</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9919399851115615</v>
+        <v>0.5033182562553414</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9958096568751026</v>
+        <v>0.4639043941577581</v>
       </c>
       <c r="J57" t="n">
-        <v>0.4669182200412889</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K57" t="n">
-        <v>0.9648524551104239</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N57" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9815977870953502</v>
+        <v>0.1303418803418803</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6186578327757865</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5235919006727965</v>
+        <v>0.8080478076572463</v>
       </c>
       <c r="E58" t="n">
-        <v>0.160071659194748</v>
+        <v>0.8165303388546008</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1600000000000001</v>
+        <v>0.4550141578048837</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2083333333333334</v>
+        <v>0.5394237009012398</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9918041839580658</v>
+        <v>0.4901319569909405</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9956332474322317</v>
+        <v>0.4951326378303469</v>
       </c>
       <c r="J58" t="n">
-        <v>0.5033182562553414</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K58" t="n">
-        <v>0.9658462222735239</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N58" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9814043295561143</v>
+        <v>0.1474358974358974</v>
       </c>
       <c r="C59" t="n">
-        <v>0.608382053461788</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4895595263164161</v>
+        <v>0.8124965697135286</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1863359148403762</v>
+        <v>0.8169869428260327</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1600000000000001</v>
+        <v>0.605156866710003</v>
       </c>
       <c r="G59" t="n">
-        <v>0.2000000000000001</v>
+        <v>0.665206715321084</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9915323239327476</v>
+        <v>0.4353786391004341</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9952884881526008</v>
+        <v>0.3749590851079466</v>
       </c>
       <c r="J59" t="n">
-        <v>0.4901319569909405</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K59" t="n">
-        <v>0.9678357228058145</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N59" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9825782397626195</v>
+        <v>0.1752136752136752</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6082887842974751</v>
+        <v>0.5565476190476191</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5662168908230201</v>
+        <v>0.8139368519997429</v>
       </c>
       <c r="E60" t="n">
-        <v>0.2202767396619979</v>
+        <v>0.8207709777432542</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1999999999999993</v>
+        <v>0.4859503457150281</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1916666666666667</v>
+        <v>0.5646269581649411</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9925785137062092</v>
+        <v>0.4986856164755484</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9965751982238752</v>
+        <v>0.4696874400129951</v>
       </c>
       <c r="J60" t="n">
-        <v>0.4353786391004341</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K60" t="n">
-        <v>0.9601796615295174</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N60" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9816422634949665</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="C61" t="n">
-        <v>0.608195925637027</v>
+        <v>0.5386904761904763</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5049383825186163</v>
+        <v>0.8067712217436585</v>
       </c>
       <c r="E61" t="n">
-        <v>0.2709180295074348</v>
+        <v>0.8212166282063189</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1999999999999993</v>
+        <v>0.245941002645933</v>
       </c>
       <c r="G61" t="n">
-        <v>0.175</v>
+        <v>0.3117070882859851</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9917538401405641</v>
+        <v>0.5700337409100718</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9955463074225531</v>
+        <v>0.5945197158673194</v>
       </c>
       <c r="J61" t="n">
-        <v>0.4986856164755484</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K61" t="n">
-        <v>0.9662146507041421</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N61" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9863799377863873</v>
+        <v>0.1645299145299145</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7698369078432568</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="D62" t="n">
-        <v>0.827371691602879</v>
+        <v>0.8182238647215494</v>
       </c>
       <c r="E62" t="n">
-        <v>0.2903201625054239</v>
+        <v>0.8202493854314398</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1999999999999993</v>
+        <v>0.4257261949687154</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1583333333333334</v>
+        <v>0.4627509550557598</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9909462011311388</v>
+        <v>0.454856946818932</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9929590380261272</v>
+        <v>0.4509475508562953</v>
       </c>
       <c r="J62" t="n">
-        <v>0.5700337409100718</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K62" t="n">
-        <v>0.9741675116419231</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N62" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9876936491413209</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7686026752213312</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9156624653544949</v>
+        <v>0.8270024494154147</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1697376783431637</v>
+        <v>0.8173434920035634</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1999999999999993</v>
+        <v>0.5976448693251328</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1416666666666667</v>
+        <v>0.6071838822724213</v>
       </c>
       <c r="H63" t="n">
-        <v>0.992196001047808</v>
+        <v>0.3578150554331625</v>
       </c>
       <c r="I63" t="n">
-        <v>0.9945041565421152</v>
+        <v>0.3136462231982902</v>
       </c>
       <c r="J63" t="n">
-        <v>0.454856946818932</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K63" t="n">
-        <v>0.9650207628940169</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N63" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B64" t="n">
-        <v>0.9889480293190629</v>
+        <v>0.2115384615384615</v>
       </c>
       <c r="C64" t="n">
-        <v>0.767384708566216</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0.813441790037817</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1785791995818198</v>
+        <v>0.8198888825138224</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1999999999999993</v>
+        <v>0.3708871951950685</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.4165617469774986</v>
       </c>
       <c r="H64" t="n">
-        <v>0.993391157887009</v>
+        <v>0.4379823293781138</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9959816477831266</v>
+        <v>0.494451217290218</v>
       </c>
       <c r="J64" t="n">
-        <v>0.3578150554331625</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K64" t="n">
-        <v>0.9562735189784204</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N64" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9780187329219087</v>
+        <v>0.2286324786324786</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5529759584079529</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.303030348893372</v>
+        <v>0.8005818281819526</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1320879786694017</v>
+        <v>0.8206386649315868</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1999999999999993</v>
+        <v>0.5753926069383115</v>
       </c>
       <c r="G65" t="n">
-        <v>0.125</v>
+        <v>0.5883816588756996</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9918171868439222</v>
+        <v>0.3433451879440547</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9940316593651903</v>
+        <v>0.331147622564597</v>
       </c>
       <c r="J65" t="n">
-        <v>0.4379823293781138</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K65" t="n">
-        <v>0.967792310613265</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N65" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B66" t="n">
-        <v>0.9796187939087277</v>
+        <v>0.2457264957264957</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5524742092581885</v>
+        <v>0.4672619047619048</v>
       </c>
       <c r="D66" t="n">
-        <v>0.406332701230257</v>
+        <v>0.8154578610815599</v>
       </c>
       <c r="E66" t="n">
-        <v>0.161232117055449</v>
+        <v>0.8199435654468733</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2399999999999984</v>
+        <v>0.4730154958875775</v>
       </c>
       <c r="G66" t="n">
-        <v>0.125</v>
+        <v>0.5022918036327026</v>
       </c>
       <c r="H66" t="n">
-        <v>0.99323867828538</v>
+        <v>0.410549347079741</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9957893085366989</v>
+        <v>0.4127100526845274</v>
       </c>
       <c r="J66" t="n">
-        <v>0.3433451879440547</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K66" t="n">
-        <v>0.9573885046215503</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N66" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B67" t="n">
-        <v>0.9788149208981968</v>
+        <v>0.25</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5519701764404846</v>
+        <v>0.5059523809523809</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3524453445094462</v>
+        <v>0.8155122669478176</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2143234682883428</v>
+        <v>0.8193649578410942</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2799999999999976</v>
+        <v>0.5306080737109475</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.5506437901027544</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9925286233917936</v>
+        <v>0.3952852113377378</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9949086436529175</v>
+        <v>0.366630055938128</v>
       </c>
       <c r="J67" t="n">
-        <v>0.410549347079741</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K67" t="n">
-        <v>0.9625847141759466</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N67" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9823992514253815</v>
+        <v>0.2521367521367521</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5768501978640937</v>
+        <v>0.4732142857142857</v>
       </c>
       <c r="D68" t="n">
-        <v>0.516151413322688</v>
+        <v>0.8046915430680994</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2241264030223044</v>
+        <v>0.8175015014051229</v>
       </c>
       <c r="F68" t="n">
-        <v>0.3200000000000003</v>
+        <v>0.3560399638167517</v>
       </c>
       <c r="G68" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.4038836717997749</v>
       </c>
       <c r="H68" t="n">
-        <v>0.9929296822131742</v>
+        <v>0.5609150233935125</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9954032651902062</v>
+        <v>0.5057985423575317</v>
       </c>
       <c r="J68" t="n">
-        <v>0.3952852113377378</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K68" t="n">
-        <v>0.9596490326494385</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N68" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9810285626335299</v>
+        <v>0.2628205128205128</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5767584999932339</v>
+        <v>0.4702380952380952</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4261969718358992</v>
+        <v>0.8335959615893236</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1746218177436331</v>
+        <v>0.8158701824219891</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3599999999999994</v>
+        <v>0.2423538959336137</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1416666666666667</v>
+        <v>0.3082902219884048</v>
       </c>
       <c r="H69" t="n">
-        <v>0.9917181977457692</v>
+        <v>0.6199503001817661</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9939019677125391</v>
+        <v>0.5963943696088615</v>
       </c>
       <c r="J69" t="n">
-        <v>0.5609150233935125</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K69" t="n">
-        <v>0.9685152302080455</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N69" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B70" t="n">
-        <v>0.980134803784351</v>
+        <v>0.2884615384615384</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5766668024276597</v>
+        <v>0.5178571428571428</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3674284545578389</v>
+        <v>0.7839068529739605</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1554166725122772</v>
+        <v>0.8179849777581502</v>
       </c>
       <c r="F70" t="n">
-        <v>0.4000000000000021</v>
+        <v>0.4296192002827413</v>
       </c>
       <c r="G70" t="n">
-        <v>0.15</v>
+        <v>0.4656223429091225</v>
       </c>
       <c r="H70" t="n">
-        <v>0.9909295853295196</v>
+        <v>0.4163665091399184</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9929240848466572</v>
+        <v>0.4468423272355074</v>
       </c>
       <c r="J70" t="n">
-        <v>0.6199503001817661</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K70" t="n">
-        <v>0.9742869427779088</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N70" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B71" t="n">
-        <v>0.983311633143358</v>
+        <v>0.3226495726495726</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6720086946524015</v>
+        <v>0.5148809523809524</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5212256363153743</v>
+        <v>0.8136231473531693</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2041425509443363</v>
+        <v>0.8210746405241639</v>
       </c>
       <c r="F71" t="n">
-        <v>0.4000000000000021</v>
+        <v>0.4141907651342524</v>
       </c>
       <c r="G71" t="n">
-        <v>0.15</v>
+        <v>0.4526069494124091</v>
       </c>
       <c r="H71" t="n">
-        <v>0.9922313148193078</v>
+        <v>0.5054531287823583</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9945335296946549</v>
+        <v>0.4590309533742618</v>
       </c>
       <c r="J71" t="n">
-        <v>0.4163665091399184</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K71" t="n">
-        <v>0.9647592257847142</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N71" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9831741922438674</v>
+        <v>0.3525641025641025</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6713504766865739</v>
+        <v>0.5297619047619048</v>
       </c>
       <c r="D72" t="n">
-        <v>0.512916403096358</v>
+        <v>0.8103141008001655</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2586519527628245</v>
+        <v>0.817819832281291</v>
       </c>
       <c r="F72" t="n">
-        <v>0.4399999999999977</v>
+        <v>0.4312301922956454</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1583333333333334</v>
+        <v>0.4668783943267066</v>
       </c>
       <c r="H72" t="n">
-        <v>0.9921251730801063</v>
+        <v>0.4790655403947179</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9944003874101337</v>
+        <v>0.4453109362670312</v>
       </c>
       <c r="J72" t="n">
-        <v>0.5054531287823583</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K72" t="n">
-        <v>0.9655357433002423</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N72" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9832912654203018</v>
+        <v>0.3739316239316239</v>
       </c>
       <c r="C73" t="n">
-        <v>0.670700668051877</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5212396478796766</v>
+        <v>0.8246466423312068</v>
       </c>
       <c r="E73" t="n">
-        <v>0.2888084824913531</v>
+        <v>0.8180028465074485</v>
       </c>
       <c r="F73" t="n">
-        <v>0.4399999999999977</v>
+        <v>0.4056570089570491</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1583333333333334</v>
+        <v>0.4320383091672005</v>
       </c>
       <c r="H73" t="n">
-        <v>0.9922445432344634</v>
+        <v>0.5579617292651852</v>
       </c>
       <c r="I73" t="n">
-        <v>0.9945463785997039</v>
+        <v>0.5845592073605441</v>
       </c>
       <c r="J73" t="n">
-        <v>0.4790655403947179</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K73" t="n">
-        <v>0.9646616633608113</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N73" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B74" t="n">
-        <v>0.9842118267352117</v>
+        <v>0.408119658119658</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6608746527990154</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5533105240007432</v>
+        <v>0.8330659605477557</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2965801552462929</v>
+        <v>0.8269820793430065</v>
       </c>
       <c r="F74" t="n">
-        <v>0.4800000000000004</v>
+        <v>0.4970643815817585</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1583333333333334</v>
+        <v>0.5088397444982768</v>
       </c>
       <c r="H74" t="n">
-        <v>0.9931031972710472</v>
+        <v>0.5115782435314746</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9941899784238489</v>
+        <v>0.5109565490996958</v>
       </c>
       <c r="J74" t="n">
-        <v>0.5579617292651852</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K74" t="n">
-        <v>0.9735329438710333</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N74" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B75" t="n">
-        <v>0.9848853367202652</v>
+        <v>0.4294871794871794</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6606003962347587</v>
+        <v>0.6607142857142857</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5996460786225351</v>
+        <v>0.8075171382937057</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1904496378616208</v>
+        <v>0.8207586939303975</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5199999999999996</v>
+        <v>0.5816777147117338</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1583333333333334</v>
+        <v>0.5799315208481899</v>
       </c>
       <c r="H75" t="n">
-        <v>0.9937349809947782</v>
+        <v>0.4066752155894716</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9949756264764467</v>
+        <v>0.4427751270576807</v>
       </c>
       <c r="J75" t="n">
-        <v>0.5115782435314746</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K75" t="n">
-        <v>0.9688438384149842</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N75" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9855064284341594</v>
+        <v>0.4487179487179486</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6603281126993064</v>
+        <v>0.6696428571428572</v>
       </c>
       <c r="D76" t="n">
-        <v>0.642508629889773</v>
+        <v>0.8102497836714794</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1816971387047914</v>
+        <v>0.8178242058172626</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6000000000000014</v>
+        <v>0.5359237111608278</v>
       </c>
       <c r="G76" t="n">
-        <v>0.1583333333333334</v>
+        <v>0.5414602459669777</v>
       </c>
       <c r="H76" t="n">
-        <v>0.9943196083040386</v>
+        <v>0.4864555798421895</v>
       </c>
       <c r="I76" t="n">
-        <v>0.9957028669948595</v>
+        <v>0.4786371387610173</v>
       </c>
       <c r="J76" t="n">
-        <v>0.4066752155894716</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K76" t="n">
-        <v>0.9645001110870208</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N76" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B77" t="n">
-        <v>0.984140422159468</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6864418702369749</v>
+        <v>0.7023809523809523</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6685427472522493</v>
+        <v>0.8183984649936918</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1162364489582789</v>
+        <v>0.824702428264898</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6799999999999997</v>
+        <v>0.5400004510445618</v>
       </c>
       <c r="G77" t="n">
-        <v>0.15</v>
+        <v>0.5448678686566051</v>
       </c>
       <c r="H77" t="n">
-        <v>0.993998764499943</v>
+        <v>0.4990037387758953</v>
       </c>
       <c r="I77" t="n">
-        <v>0.9953093211963848</v>
+        <v>0.4747357898329815</v>
       </c>
       <c r="J77" t="n">
-        <v>0.4864555798421895</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K77" t="n">
-        <v>0.9667848214319522</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N77" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9841470404346222</v>
+        <v>0.4871794871794871</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6860452616489104</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6699694585878238</v>
+        <v>0.8106440688255686</v>
       </c>
       <c r="E78" t="n">
-        <v>0.159858135721604</v>
+        <v>0.8202715092558686</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7199999999999989</v>
+        <v>0.6011741444894741</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1416666666666667</v>
+        <v>0.5962610524849381</v>
       </c>
       <c r="H78" t="n">
-        <v>0.9940240665721217</v>
+        <v>0.443536424040789</v>
       </c>
       <c r="I78" t="n">
-        <v>0.9953441798174321</v>
+        <v>0.4252693290014958</v>
       </c>
       <c r="J78" t="n">
-        <v>0.4990037387758953</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K78" t="n">
-        <v>0.9665362728472044</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N78" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B79" t="n">
-        <v>0.9846013184553793</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6856515975127232</v>
+        <v>0.6755952380952381</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7006498586059779</v>
+        <v>0.8198417357191273</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1994453425305942</v>
+        <v>0.8144787013520314</v>
       </c>
       <c r="F79" t="n">
-        <v>0.7199999999999989</v>
+        <v>0.6187434441355225</v>
       </c>
       <c r="G79" t="n">
-        <v>0.1416666666666667</v>
+        <v>0.6110084332865285</v>
       </c>
       <c r="H79" t="n">
-        <v>0.9944459841801625</v>
+        <v>0.4183183667114636</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9958699115907703</v>
+        <v>0.4106060248146821</v>
       </c>
       <c r="J79" t="n">
-        <v>0.443536424040789</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K79" t="n">
-        <v>0.9633848452105244</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N79" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9841267162558807</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6300379921570257</v>
+        <v>0.6755952380952381</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7014322992840308</v>
+        <v>0.7853610245878195</v>
       </c>
       <c r="E80" t="n">
-        <v>0.2124242986274045</v>
+        <v>0.8217106416119848</v>
       </c>
       <c r="F80" t="n">
-        <v>0.7199999999999989</v>
+        <v>0.6294217571405967</v>
       </c>
       <c r="G80" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.6199646665126207</v>
       </c>
       <c r="H80" t="n">
-        <v>0.9945650661799672</v>
+        <v>0.4596972479140294</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9960207714146492</v>
+        <v>0.4014460896849275</v>
       </c>
       <c r="J80" t="n">
-        <v>0.4183183667114636</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K80" t="n">
-        <v>0.9624506699879065</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N80" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9841937017298964</v>
+        <v>0.5363247863247863</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6299462012821185</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="D81" t="n">
-        <v>0.7062966253082099</v>
+        <v>0.824129043682934</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1583764803505173</v>
+        <v>0.8157033295949545</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7199999999999989</v>
+        <v>0.5140042205113406</v>
       </c>
       <c r="G81" t="n">
-        <v>0.125</v>
+        <v>0.5229476675208232</v>
       </c>
       <c r="H81" t="n">
-        <v>0.9946363157176881</v>
+        <v>0.4715287686595205</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9961123901085233</v>
+        <v>0.4929293032856058</v>
       </c>
       <c r="J81" t="n">
-        <v>0.4596972479140294</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K81" t="n">
-        <v>0.9618671054426999</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N81" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9832731661512146</v>
+        <v>0.5555555555555555</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6298547517930039</v>
+        <v>0.7529761904761905</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6465693068713499</v>
+        <v>0.819552886792289</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1712038862190803</v>
+        <v>0.818528860816482</v>
       </c>
       <c r="F82" t="n">
-        <v>0.7199999999999989</v>
+        <v>0.5514749861218097</v>
       </c>
       <c r="G82" t="n">
-        <v>0.125</v>
+        <v>0.554421130977375</v>
       </c>
       <c r="H82" t="n">
-        <v>0.9938317583634496</v>
+        <v>0.4961603152117828</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9951199449022818</v>
+        <v>0.4623951462855568</v>
       </c>
       <c r="J82" t="n">
-        <v>0.4715287686595205</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K82" t="n">
-        <v>0.9676953519512914</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N82" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9794135469278923</v>
+        <v>0.5662393162393162</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5527278732401535</v>
+        <v>0.7440476190476191</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4635170623346944</v>
+        <v>0.8179852778074733</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2108181361929328</v>
+        <v>0.8159579012005663</v>
       </c>
       <c r="F83" t="n">
-        <v>0.7199999999999989</v>
+        <v>0.6576401879462757</v>
       </c>
       <c r="G83" t="n">
-        <v>0.125</v>
+        <v>0.6436268996672608</v>
       </c>
       <c r="H83" t="n">
-        <v>0.9940891629509842</v>
+        <v>0.3415997683456339</v>
       </c>
       <c r="I83" t="n">
-        <v>0.9954419058808307</v>
+        <v>0.3770355175799077</v>
       </c>
       <c r="J83" t="n">
-        <v>0.4961603152117828</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K83" t="n">
-        <v>0.9657500705502127</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N83" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
+      <c r="S83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B84" t="n">
-        <v>0.980251139442347</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5526365497448071</v>
+        <v>0.6577380952380952</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5172908355379611</v>
+        <v>0.8101511910185669</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2633811926784992</v>
+        <v>0.8191864508538729</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7600000000000016</v>
+        <v>0.6742867968702719</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.6575996681183272</v>
       </c>
       <c r="H84" t="n">
-        <v>0.9948237359532175</v>
+        <v>0.3600564217250121</v>
       </c>
       <c r="I84" t="n">
-        <v>0.996354445316449</v>
+        <v>0.363126848302969</v>
       </c>
       <c r="J84" t="n">
-        <v>0.3415997683456339</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K84" t="n">
-        <v>0.9603119476597124</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N84" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9803874635780828</v>
+        <v>0.5405982905982906</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5525448491323385</v>
+        <v>0.6220238095238095</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5252085891258087</v>
+        <v>0.7973139801202804</v>
       </c>
       <c r="E85" t="n">
-        <v>0.2954205999682032</v>
+        <v>0.8238482704331076</v>
       </c>
       <c r="F85" t="n">
-        <v>0.7600000000000016</v>
+        <v>0.5837303747705362</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.6123630873225232</v>
       </c>
       <c r="H85" t="n">
-        <v>0.9949365595780234</v>
+        <v>0.3647174717258458</v>
       </c>
       <c r="I85" t="n">
-        <v>0.9964973811649218</v>
+        <v>0.3413700357352675</v>
       </c>
       <c r="J85" t="n">
-        <v>0.3600564217250121</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K85" t="n">
-        <v>0.9594258489978714</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N85" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9766638008115488</v>
+        <v>0.5341880341880341</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4331734475764105</v>
+        <v>0.6130952380952381</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1571373513138067</v>
+        <v>0.8196116871088801</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3227949934968092</v>
+        <v>0.8115732332084368</v>
       </c>
       <c r="F86" t="n">
-        <v>0.7600000000000016</v>
+        <v>0.4450337418974548</v>
       </c>
       <c r="G86" t="n">
-        <v>0.125</v>
+        <v>0.4956732108403025</v>
       </c>
       <c r="H86" t="n">
-        <v>0.9933100216529934</v>
+        <v>0.5038792710841919</v>
       </c>
       <c r="I86" t="n">
-        <v>0.9960346289851585</v>
+        <v>0.4518928102118103</v>
       </c>
       <c r="J86" t="n">
-        <v>0.3647174717258458</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K86" t="n">
-        <v>0.9580397579119233</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N86" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
+      <c r="S86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9755505338400688</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4316284645649581</v>
+        <v>0.5803571428571428</v>
       </c>
       <c r="D87" t="n">
-        <v>0.08096194639820559</v>
+        <v>0.8018329244093183</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2167578577599349</v>
+        <v>0.820830340412487</v>
       </c>
       <c r="F87" t="n">
-        <v>0.7600000000000016</v>
+        <v>0.3484401351066544</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1166666666666667</v>
+        <v>0.4143682499175542</v>
       </c>
       <c r="H87" t="n">
-        <v>0.9923479885390009</v>
+        <v>0.5913563343395413</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9948409380883553</v>
+        <v>0.5288153546383316</v>
       </c>
       <c r="J87" t="n">
-        <v>0.5038792710841919</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K87" t="n">
-        <v>0.9650809838276905</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N87" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9747666858589701</v>
+        <v>0.5064102564102564</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4300525294041384</v>
+        <v>0.5684523809523809</v>
       </c>
       <c r="D88" t="n">
-        <v>0.02626172893526496</v>
+        <v>0.8045367245601444</v>
       </c>
       <c r="E88" t="n">
-        <v>0.1643128685308544</v>
+        <v>0.8213716492306352</v>
       </c>
       <c r="F88" t="n">
-        <v>0.7600000000000016</v>
+        <v>0.3187538533044595</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1083333333333333</v>
+        <v>0.3892942190943637</v>
       </c>
       <c r="H88" t="n">
-        <v>0.9916783908542022</v>
+        <v>0.5446092017417534</v>
       </c>
       <c r="I88" t="n">
-        <v>0.994009220765103</v>
+        <v>0.5523390153470887</v>
       </c>
       <c r="J88" t="n">
-        <v>0.5913563343395413</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K88" t="n">
-        <v>0.9699815938231239</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N88" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
+      <c r="S88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9807586150276071</v>
+        <v>0.4893162393162392</v>
       </c>
       <c r="C89" t="n">
-        <v>0.6342622907480916</v>
+        <v>0.5297619047619048</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4210663226238261</v>
+        <v>0.8113212842232385</v>
       </c>
       <c r="E89" t="n">
-        <v>0.1249615539682035</v>
+        <v>0.8148626901969781</v>
       </c>
       <c r="F89" t="n">
-        <v>0.7600000000000016</v>
+        <v>0.5151365873969606</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1083333333333333</v>
+        <v>0.5542137042872537</v>
       </c>
       <c r="H89" t="n">
-        <v>0.9914735146664684</v>
+        <v>0.4097728513891348</v>
       </c>
       <c r="I89" t="n">
-        <v>0.9937527234300976</v>
+        <v>0.3954151972617328</v>
       </c>
       <c r="J89" t="n">
-        <v>0.5446092017417534</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K89" t="n">
-        <v>0.9714802479258705</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N89" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
+      <c r="S89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9822931978929543</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6338907534578934</v>
+        <v>0.431547619047619</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5212615223529012</v>
+        <v>0.8186221843914154</v>
       </c>
       <c r="E90" t="n">
-        <v>0.1677173211938975</v>
+        <v>0.8185509208111434</v>
       </c>
       <c r="F90" t="n">
-        <v>0.8000000000000007</v>
+        <v>0.512704974759733</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1</v>
+        <v>0.5520464367143506</v>
       </c>
       <c r="H90" t="n">
-        <v>0.9928388660847176</v>
+        <v>0.38649153885636</v>
       </c>
       <c r="I90" t="n">
-        <v>0.9954397839885191</v>
+        <v>0.3971814658891918</v>
       </c>
       <c r="J90" t="n">
-        <v>0.4097728513891348</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K90" t="n">
-        <v>0.9614828871109893</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N90" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B91" t="n">
-        <v>0.982270425381366</v>
+        <v>0.408119658119658</v>
       </c>
       <c r="C91" t="n">
-        <v>0.6335225431886601</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5196206023167337</v>
+        <v>0.8189620174086807</v>
       </c>
       <c r="E91" t="n">
-        <v>0.208384615064202</v>
+        <v>0.8154117944889092</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8399999999999999</v>
+        <v>0.4525429982847385</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1083333333333333</v>
+        <v>0.5013621373581121</v>
       </c>
       <c r="H91" t="n">
-        <v>0.9928232857691851</v>
+        <v>0.4792752537025191</v>
       </c>
       <c r="I91" t="n">
-        <v>0.995417613705623</v>
+        <v>0.4450293330044859</v>
       </c>
       <c r="J91" t="n">
-        <v>0.38649153885636</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K91" t="n">
-        <v>0.9615954132079207</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N91" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
+      <c r="S91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9811480255401975</v>
+        <v>0.3675213675213674</v>
       </c>
       <c r="C92" t="n">
-        <v>0.5981599437213381</v>
+        <v>0.300595238095238</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4553175340616299</v>
+        <v>0.8154828077055877</v>
       </c>
       <c r="E92" t="n">
-        <v>0.2324316460751045</v>
+        <v>0.8209335594642065</v>
       </c>
       <c r="F92" t="n">
-        <v>0.879999999999999</v>
+        <v>0.543112384353979</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1166666666666667</v>
+        <v>0.5773561098812501</v>
       </c>
       <c r="H92" t="n">
-        <v>0.9924067166777026</v>
+        <v>0.4312301472581591</v>
       </c>
       <c r="I92" t="n">
-        <v>0.9948991335377088</v>
+        <v>0.3725625009123246</v>
       </c>
       <c r="J92" t="n">
-        <v>0.4792752537025191</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K92" t="n">
-        <v>0.9646437228756978</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N92" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
+      <c r="S92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9818568944632101</v>
+        <v>0.3739316239316239</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5979470690087897</v>
+        <v>0.3214285714285714</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5012206899150616</v>
+        <v>0.8241791552854203</v>
       </c>
       <c r="E93" t="n">
-        <v>0.1582140600407005</v>
+        <v>0.8200016738212278</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9199999999999982</v>
+        <v>0.5151954498466649</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1166666666666667</v>
+        <v>0.5537725474281301</v>
       </c>
       <c r="H93" t="n">
-        <v>0.9930370941957983</v>
+        <v>0.4565441355295847</v>
       </c>
       <c r="I93" t="n">
-        <v>0.995676521567823</v>
+        <v>0.3946731689518042</v>
       </c>
       <c r="J93" t="n">
-        <v>0.4312301472581591</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K93" t="n">
-        <v>0.9600269790545484</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N93" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
+      <c r="S93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9816376221590658</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5977349974479133</v>
+        <v>0.3244047619047619</v>
       </c>
       <c r="D94" t="n">
-        <v>0.486432776065485</v>
+        <v>0.8126319742663987</v>
       </c>
       <c r="E94" t="n">
-        <v>0.2026588720041938</v>
+        <v>0.8171276262622229</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9600000000000009</v>
+        <v>0.4095777338361724</v>
       </c>
       <c r="G94" t="n">
-        <v>0.125</v>
+        <v>0.4648884039469552</v>
       </c>
       <c r="H94" t="n">
-        <v>0.9928444837070349</v>
+        <v>0.5099701165816628</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9954352711297975</v>
+        <v>0.4788079942813838</v>
       </c>
       <c r="J94" t="n">
-        <v>0.4565441355295847</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K94" t="n">
-        <v>0.9614356136961584</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N94" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
+      <c r="S94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9786728640054722</v>
+        <v>0.3247863247863247</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5352291158445619</v>
+        <v>0.3541666666666666</v>
       </c>
       <c r="D95" t="n">
-        <v>0.4374816752064792</v>
+        <v>0.8124937237162303</v>
       </c>
       <c r="E95" t="n">
-        <v>0.2527254482232388</v>
+        <v>0.8202781681486746</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9600000000000009</v>
+        <v>0.5365719221517697</v>
       </c>
       <c r="G95" t="n">
-        <v>0.125</v>
+        <v>0.5714965336689223</v>
       </c>
       <c r="H95" t="n">
-        <v>0.9921121739344487</v>
+        <v>0.4682875810744797</v>
       </c>
       <c r="I95" t="n">
-        <v>0.9945260217917901</v>
+        <v>0.3772658944031694</v>
       </c>
       <c r="J95" t="n">
-        <v>0.5099701165816628</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K95" t="n">
-        <v>0.9667957063588241</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N95" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
+      <c r="S95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9796680206681859</v>
+        <v>0.3205128205128204</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5351749887372476</v>
+        <v>0.3690476190476191</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5020699591501663</v>
+        <v>0.8132794396938479</v>
       </c>
       <c r="E96" t="n">
-        <v>0.2929200064901</v>
+        <v>0.8161275251408611</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>0.3715156045731234</v>
       </c>
       <c r="G96" t="n">
-        <v>0.125</v>
+        <v>0.432660364679445</v>
       </c>
       <c r="H96" t="n">
-        <v>0.9929955371516075</v>
+        <v>0.4666626050633214</v>
       </c>
       <c r="I96" t="n">
-        <v>0.9956165804401551</v>
+        <v>0.5088502526824112</v>
       </c>
       <c r="J96" t="n">
-        <v>0.4682875810744797</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K96" t="n">
-        <v>0.9603266245918292</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N96" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
+      <c r="S96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9783754356018923</v>
+        <v>0.3162393162393162</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5351207458898452</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4170600172768864</v>
+        <v>0.7973372499006984</v>
       </c>
       <c r="E97" t="n">
-        <v>0.2850256709125391</v>
+        <v>0.8246147103723622</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>0.2029059421413002</v>
       </c>
       <c r="G97" t="n">
-        <v>0.125</v>
+        <v>0.1735690228247684</v>
       </c>
       <c r="H97" t="n">
-        <v>0.9918503693717906</v>
+        <v>0.4562957516250217</v>
       </c>
       <c r="I97" t="n">
-        <v>0.9941963418036438</v>
+        <v>0.4734480376515848</v>
       </c>
       <c r="J97" t="n">
-        <v>0.4666626050633214</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K97" t="n">
-        <v>0.9687096497014823</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N97" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
+      <c r="S97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9765294079518348</v>
+        <v>0.2905982905982905</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5328171031264035</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="D98" t="n">
-        <v>0.515848300470881</v>
+        <v>0.8137453876417202</v>
       </c>
       <c r="E98" t="n">
-        <v>0.2633107845660951</v>
+        <v>0.8223618312985181</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0.2640194718074818</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.2246602883208419</v>
       </c>
       <c r="H98" t="n">
-        <v>0.9942015638137721</v>
+        <v>0.439059555797408</v>
       </c>
       <c r="I98" t="n">
-        <v>0.9915459407102842</v>
+        <v>0.424602667585211</v>
       </c>
       <c r="J98" t="n">
-        <v>0.4562957516250217</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K98" t="n">
-        <v>0.9664542322535288</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0.5218783351120598</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0.3947776320496006</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.3943443503161914</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9769936075085259</v>
+        <v>0.05982905982905982</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5327286548422425</v>
+        <v>0.07440476190476192</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5466001723449057</v>
+        <v>0.6969692592429803</v>
       </c>
       <c r="E99" t="n">
-        <v>0.2212326571613092</v>
+        <v>0.7600573027159682</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9600000000000009</v>
+        <v>0.540581745726862</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.4568175223062174</v>
       </c>
       <c r="H99" t="n">
-        <v>0.9946166507776943</v>
+        <v>0.2262743642876197</v>
       </c>
       <c r="I99" t="n">
-        <v>0.992068583979498</v>
+        <v>0.2037694338868463</v>
       </c>
       <c r="J99" t="n">
-        <v>0.439059555797408</v>
+        <v>0.4699457977696093</v>
       </c>
       <c r="K99" t="n">
-        <v>0.9633423732977117</v>
+        <v>0.4725194463718365</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>0.4784633294528521</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>0.4498567335243553</v>
       </c>
       <c r="N99" t="n">
+        <v>0.4699457977696093</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0.5229455709711847</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0.5066173840467391</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.5014914687984727</v>
+      </c>
+      <c r="S99" t="n">
         <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9791453447908507</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5326398181209794</v>
+        <v>0.01190476190476189</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6877225644199133</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0.1401464324762213</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9199999999999982</v>
+        <v>0.7957830882223771</v>
       </c>
       <c r="G100" t="n">
-        <v>0.1416666666666667</v>
+        <v>0.6710212393334336</v>
       </c>
       <c r="H100" t="n">
-        <v>0.9965282895171348</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0.9944434598915279</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>0.2262743642876197</v>
+        <v>0.4739268581396797</v>
       </c>
       <c r="K100" t="n">
-        <v>0.9492734477251853</v>
+        <v>0.4771865756126064</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>0.5261932479627474</v>
       </c>
       <c r="M100" t="n">
-        <v>1</v>
+        <v>0.5085959885386819</v>
       </c>
       <c r="N100" t="n">
+        <v>0.4739268581396797</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0.5635005336179296</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0.4679861690711816</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.4678439327049278</v>
+      </c>
+      <c r="S100" t="n">
         <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9628955650636005</v>
+        <v>0.0235042735042735</v>
       </c>
       <c r="C101" t="n">
-        <v>0.02325062377421372</v>
+        <v>0.01488095238095238</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3898601182073396</v>
+        <v>0.9569070071883189</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>0.9232072175524301</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>0.2706635361440386</v>
       </c>
       <c r="G101" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.2294266923252774</v>
       </c>
       <c r="H101" t="n">
-        <v>0.9982916472990756</v>
+        <v>0.3522132825430839</v>
       </c>
       <c r="I101" t="n">
-        <v>0.9966346784855057</v>
+        <v>0.4191087760340794</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>0.4684505638277989</v>
       </c>
       <c r="K101" t="n">
-        <v>0.9362916290410209</v>
+        <v>0.4703502172880984</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>0.4633294528521537</v>
       </c>
       <c r="M101" t="n">
-        <v>1</v>
+        <v>0.4312320916905444</v>
       </c>
       <c r="N101" t="n">
+        <v>0.4684505638277989</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0.5154749199573107</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0.4059854536783117</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.4034124806109056</v>
+      </c>
+      <c r="S101" t="n">
         <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9580499782539496</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C102" t="n">
-        <v>0.01188647935065801</v>
+        <v>0.03273809523809523</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1155372452381759</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>0.05553165799392323</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4000000000000021</v>
+        <v>0.06401398289643173</v>
       </c>
       <c r="G102" t="n">
-        <v>0.725</v>
+        <v>0.05547919395443818</v>
       </c>
       <c r="H102" t="n">
-        <v>0.9946351107429056</v>
+        <v>0.6138188260274466</v>
       </c>
       <c r="I102" t="n">
-        <v>0.9921173423914709</v>
+        <v>0.584004465612227</v>
       </c>
       <c r="J102" t="n">
-        <v>0.3522132825430839</v>
+        <v>0.4689988162731294</v>
       </c>
       <c r="K102" t="n">
-        <v>0.9629923664167638</v>
+        <v>0.4715042179454406</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>0.4621653084982538</v>
       </c>
       <c r="M102" t="n">
-        <v>1</v>
+        <v>0.4297994269340974</v>
       </c>
       <c r="N102" t="n">
+        <v>0.4689988162731294</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0.5048025613660619</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0.483009419339454</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.4812074931392435</v>
+      </c>
+      <c r="S102" t="n">
         <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9556471143326066</v>
+        <v>0.02136752136752136</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0.004267950861548686</v>
+        <v>0.8619915693855537</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1140188795014797</v>
+        <v>0.8704398225170659</v>
       </c>
       <c r="F103" t="n">
-        <v>0.3599999999999994</v>
+        <v>0.1147379677728663</v>
       </c>
       <c r="G103" t="n">
-        <v>0.5750000000000001</v>
+        <v>0.09783204461770639</v>
       </c>
       <c r="H103" t="n">
-        <v>0.9931906878854012</v>
+        <v>0.6223428498919439</v>
       </c>
       <c r="I103" t="n">
-        <v>0.9903379288588958</v>
+        <v>0.5434576528203223</v>
       </c>
       <c r="J103" t="n">
-        <v>0.6138188260274466</v>
+        <v>0.486642576786493</v>
       </c>
       <c r="K103" t="n">
-        <v>0.9734976021779451</v>
+        <v>0.4921301537450243</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>0.4831199068684517</v>
       </c>
       <c r="M103" t="n">
+        <v>0.4555873925501432</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.4862500778767678</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0.5272145144076842</v>
+      </c>
+      <c r="P103" t="n">
         <v>1</v>
       </c>
-      <c r="N103" t="n">
-        <v>0.6000000000000001</v>
+      <c r="Q103" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1</v>
+      </c>
+      <c r="S103" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0.01709401709401709</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0.008928571428571425</v>
       </c>
       <c r="D104" t="n">
-        <v>0.811606855414007</v>
+        <v>0.9301592416903756</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1793993068853492</v>
+        <v>0.8813465190089401</v>
       </c>
       <c r="F104" t="n">
-        <v>0.4800000000000004</v>
+        <v>0.1057409634021478</v>
       </c>
       <c r="G104" t="n">
-        <v>0.4916666666666667</v>
+        <v>0.08999281696211553</v>
       </c>
       <c r="H104" t="n">
-        <v>0.9935340179252792</v>
+        <v>0.568632768710604</v>
       </c>
       <c r="I104" t="n">
-        <v>0.9907711816295259</v>
+        <v>0.5505825123141614</v>
       </c>
       <c r="J104" t="n">
-        <v>0.6223428498919439</v>
+        <v>0.4681328266151641</v>
       </c>
       <c r="K104" t="n">
-        <v>0.9709144307873941</v>
+        <v>0.4703575210897272</v>
       </c>
       <c r="L104" t="n">
-        <v>1</v>
+        <v>0.5646100116414435</v>
       </c>
       <c r="M104" t="n">
-        <v>1</v>
+        <v>0.5530085959885387</v>
       </c>
       <c r="N104" t="n">
-        <v>1</v>
+        <v>0.4689115942931904</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0.6029882604055496</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0.04936210802432339</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0.05297697172175159</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9992669949588067</v>
+        <v>0.01709401709401709</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9934525449026015</v>
+        <v>0.01785714285714285</v>
       </c>
       <c r="D105" t="n">
-        <v>0.8040275781551605</v>
+        <v>0.8220104815944788</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1374618667608268</v>
+        <v>0.8502188608049476</v>
       </c>
       <c r="F105" t="n">
-        <v>0.4800000000000004</v>
+        <v>0.2076557915490632</v>
       </c>
       <c r="G105" t="n">
-        <v>0.4</v>
+        <v>0.1753646236812647</v>
       </c>
       <c r="H105" t="n">
-        <v>0.9934626141716766</v>
+        <v>0.4905468607131919</v>
       </c>
       <c r="I105" t="n">
-        <v>0.990690989457141</v>
+        <v>0.4691651242231111</v>
       </c>
       <c r="J105" t="n">
-        <v>0.568632768710604</v>
+        <v>0.4813344962930658</v>
       </c>
       <c r="K105" t="n">
-        <v>0.9713683439790582</v>
+        <v>0.4842128327794617</v>
       </c>
       <c r="L105" t="n">
-        <v>1</v>
+        <v>0.5215366705471478</v>
       </c>
       <c r="M105" t="n">
-        <v>1</v>
+        <v>0.504297994269341</v>
       </c>
       <c r="N105" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.4809669179490374</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0.5656350053361794</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
+      <c r="S105" t="n">
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9994433335900367</v>
+        <v>0.01709401709401709</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9871237555395231</v>
+        <v>0.05059523809523808</v>
       </c>
       <c r="D106" t="n">
-        <v>0.8533056831061547</v>
+        <v>0.8854473545587337</v>
       </c>
       <c r="E106" t="n">
-        <v>0.1629047989781745</v>
+        <v>0.8405250090915963</v>
       </c>
       <c r="F106" t="n">
-        <v>0.5199999999999996</v>
+        <v>0.3311884925454706</v>
       </c>
       <c r="G106" t="n">
-        <v>0.3416666666666667</v>
+        <v>0.2789030752316271</v>
       </c>
       <c r="H106" t="n">
-        <v>0.9941616637722259</v>
+        <v>0.4091997879257664</v>
       </c>
       <c r="I106" t="n">
-        <v>0.9915643089909039</v>
+        <v>0.3704858047871205</v>
       </c>
       <c r="J106" t="n">
-        <v>0.4905468607131919</v>
+        <v>0.4877141611114572</v>
       </c>
       <c r="K106" t="n">
-        <v>0.9661813748160424</v>
+        <v>0.4848847825293065</v>
       </c>
       <c r="L106" t="n">
-        <v>1</v>
+        <v>0.4435389988358556</v>
       </c>
       <c r="M106" t="n">
-        <v>1</v>
+        <v>0.4054441260744985</v>
       </c>
       <c r="N106" t="n">
-        <v>0.2000000000000001</v>
+        <v>0.4876830104043361</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0.4834578441835646</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9845451970568354</v>
+        <v>0.01495726495726495</v>
       </c>
       <c r="C107" t="n">
-        <v>0.7877398689433696</v>
+        <v>0.07440476190476192</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6591843439124401</v>
+        <v>0.809529527014256</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>0.8226838610176903</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5199999999999996</v>
+        <v>0.3436799000312335</v>
       </c>
       <c r="G107" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.2891188508514948</v>
       </c>
       <c r="H107" t="n">
-        <v>0.9950109451901903</v>
+        <v>0.4466437111373774</v>
       </c>
       <c r="I107" t="n">
-        <v>0.9926234660558579</v>
+        <v>0.3604508898478792</v>
       </c>
       <c r="J107" t="n">
-        <v>0.4091997879257664</v>
+        <v>0.5609557036944738</v>
       </c>
       <c r="K107" t="n">
-        <v>0.9598946761274347</v>
+        <v>0.5523353905707921</v>
       </c>
       <c r="L107" t="n">
-        <v>1</v>
+        <v>0.6763678696158324</v>
       </c>
       <c r="M107" t="n">
-        <v>1</v>
+        <v>0.651862464183381</v>
       </c>
       <c r="N107" t="n">
+        <v>0.5609681639773223</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0.7054429028815369</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
+      <c r="S107" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9846204476861801</v>
+        <v>0.01068376068376068</v>
       </c>
       <c r="C108" t="n">
-        <v>0.7854774516646511</v>
+        <v>0.09226190476190477</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6649899222479714</v>
+        <v>0.8080962408847309</v>
       </c>
       <c r="E108" t="n">
-        <v>0.1409587160061469</v>
+        <v>0.801936736537891</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5199999999999996</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>0.9950890274699772</v>
+        <v>0.5321018246348093</v>
       </c>
       <c r="I108" t="n">
-        <v>0.9927279693660751</v>
+        <v>0.6347580487982594</v>
       </c>
       <c r="J108" t="n">
-        <v>0.4466437111373774</v>
+        <v>0.556843810354495</v>
       </c>
       <c r="K108" t="n">
-        <v>0.9592553680439437</v>
+        <v>0.5472008180257825</v>
       </c>
       <c r="L108" t="n">
-        <v>1</v>
+        <v>0.8556461001164144</v>
       </c>
       <c r="M108" t="n">
-        <v>1</v>
+        <v>0.8008595988538681</v>
       </c>
       <c r="N108" t="n">
-        <v>0</v>
+        <v>0.556843810354495</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0.8708644610458912</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0.3943007034696555</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.3931511752774132</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9819059621780379</v>
+        <v>0.01068376068376068</v>
       </c>
       <c r="C109" t="n">
-        <v>0.7832674165940769</v>
+        <v>0.1369047619047619</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4883328857860252</v>
+        <v>0.8037985530107958</v>
       </c>
       <c r="E109" t="n">
-        <v>0.210122527450084</v>
+        <v>0.8316384498028809</v>
       </c>
       <c r="F109" t="n">
-        <v>0.5599999999999987</v>
+        <v>0.8049478176016767</v>
       </c>
       <c r="G109" t="n">
-        <v>0.225</v>
+        <v>0.6540071478593203</v>
       </c>
       <c r="H109" t="n">
-        <v>0.9926932707642638</v>
+        <v>0.4943928131909315</v>
       </c>
       <c r="I109" t="n">
-        <v>0.9897703988315975</v>
+        <v>0.6037037115663818</v>
       </c>
       <c r="J109" t="n">
-        <v>0.5321018246348093</v>
+        <v>0.4575665067597034</v>
       </c>
       <c r="K109" t="n">
-        <v>0.9767310302830582</v>
+        <v>0.4633823905342731</v>
       </c>
       <c r="L109" t="n">
-        <v>1</v>
+        <v>0.5739231664726426</v>
       </c>
       <c r="M109" t="n">
-        <v>0</v>
+        <v>0.5128939828080229</v>
       </c>
       <c r="N109" t="n">
+        <v>0.4575665067597034</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0.6104589114194238</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0.3988315249791344</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.3984011454480372</v>
+      </c>
+      <c r="S109" t="n">
         <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9863558561268886</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="C110" t="n">
-        <v>0.7012773531600075</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="D110" t="n">
-        <v>0.8158544504909343</v>
+        <v>0.8186046173234472</v>
       </c>
       <c r="E110" t="n">
-        <v>0.2325168120322271</v>
+        <v>0.8347112478477754</v>
       </c>
       <c r="F110" t="n">
-        <v>0.5599999999999987</v>
+        <v>0.8406938522513395</v>
       </c>
       <c r="G110" t="n">
-        <v>0.2000000000000001</v>
+        <v>0.6856908301463662</v>
       </c>
       <c r="H110" t="n">
-        <v>0.9998572058527568</v>
+        <v>0.5855552089591999</v>
       </c>
       <c r="I110" t="n">
-        <v>0.9964606311154828</v>
+        <v>0.5706666070314782</v>
       </c>
       <c r="J110" t="n">
-        <v>0.4943928131909315</v>
+        <v>0.3143480156999564</v>
       </c>
       <c r="K110" t="n">
-        <v>0.9747526090468045</v>
+        <v>0.3302194792389439</v>
       </c>
       <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.3143480156999564</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0.08431163287086452</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0.3926314534398474</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.3921966352463906</v>
+      </c>
+      <c r="S110" t="n">
         <v>1</v>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9865826577304457</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="C111" t="n">
-        <v>0.700471486461989</v>
+        <v>0.2946428571428572</v>
       </c>
       <c r="D111" t="n">
-        <v>0.8314975893534263</v>
+        <v>0.8259506443671929</v>
       </c>
       <c r="E111" t="n">
-        <v>0.2041041477752638</v>
+        <v>0.8426814771918714</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6000000000000014</v>
+        <v>0.6230099058509602</v>
       </c>
       <c r="G111" t="n">
-        <v>0.1916666666666667</v>
+        <v>0.5043506807961796</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0.6801679785195373</v>
       </c>
       <c r="I111" t="n">
-        <v>0.9967847425488257</v>
+        <v>0.7400453832541867</v>
       </c>
       <c r="J111" t="n">
-        <v>0.5855552089591999</v>
+        <v>0.462887047535979</v>
       </c>
       <c r="K111" t="n">
-        <v>0.9726478689356843</v>
+        <v>0.462140744257386</v>
       </c>
       <c r="L111" t="n">
-        <v>1</v>
+        <v>0.4016298020954598</v>
       </c>
       <c r="M111" t="n">
-        <v>1</v>
+        <v>0.2936962750716332</v>
       </c>
       <c r="N111" t="n">
-        <v>1</v>
+        <v>0.462887047535979</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0.6286019210245465</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
+      <c r="S111" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9848258807083985</v>
+        <v>0.002136752136752136</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6996768700171886</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="D112" t="n">
-        <v>0.717374670767285</v>
+        <v>0.8215175625321907</v>
       </c>
       <c r="E112" t="n">
-        <v>0.1636287734006511</v>
+        <v>0.8233982244678987</v>
       </c>
       <c r="F112" t="n">
-        <v>0.6799999999999997</v>
+        <v>0.6673658702850643</v>
       </c>
       <c r="G112" t="n">
-        <v>0.175</v>
+        <v>0.5431985312235496</v>
       </c>
       <c r="H112" t="n">
-        <v>0.9983863487944844</v>
+        <v>0.681290936005489</v>
       </c>
       <c r="I112" t="n">
-        <v>0.9949297051451547</v>
+        <v>0.7002871988514806</v>
       </c>
       <c r="J112" t="n">
-        <v>0.6801679785195373</v>
+        <v>0.4783253379851722</v>
       </c>
       <c r="K112" t="n">
-        <v>0.9834387148438586</v>
+        <v>0.4794142351093744</v>
       </c>
       <c r="L112" t="n">
-        <v>1</v>
+        <v>0.2351571594877765</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
+        <v>0.2865329512893983</v>
       </c>
       <c r="N112" t="n">
+        <v>0.4783253379851722</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0.1237993596584845</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
+      <c r="S112" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9831579106593669</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0.6149167003030452</v>
+        <v>0.2976190476190476</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6143460142725782</v>
+        <v>0.8177091421539534</v>
       </c>
       <c r="E113" t="n">
-        <v>0.1719525321744509</v>
+        <v>0.8308942638373007</v>
       </c>
       <c r="F113" t="n">
-        <v>0.7600000000000016</v>
+        <v>0.6822797614946579</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.5572683783109431</v>
       </c>
       <c r="H113" t="n">
-        <v>0.998596453608622</v>
+        <v>0.7097890436050871</v>
       </c>
       <c r="I113" t="n">
-        <v>0.9953271031612764</v>
+        <v>0.6841032456783056</v>
       </c>
       <c r="J113" t="n">
-        <v>0.681290936005489</v>
+        <v>0.4514609681639773</v>
       </c>
       <c r="K113" t="n">
-        <v>0.9809057856832755</v>
+        <v>0.4561078041120403</v>
       </c>
       <c r="L113" t="n">
-        <v>1</v>
+        <v>0.6053550640279395</v>
       </c>
       <c r="M113" t="n">
-        <v>0</v>
+        <v>0.5830945558739256</v>
       </c>
       <c r="N113" t="n">
+        <v>0.4488069279172637</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0.6392742796157952</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
+      <c r="S113" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9832664208023587</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6145329196719098</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6193670873919861</v>
+        <v>0.8139240932155383</v>
       </c>
       <c r="E114" t="n">
-        <v>0.2215126636187232</v>
+        <v>0.8388879424853678</v>
       </c>
       <c r="F114" t="n">
-        <v>0.8000000000000007</v>
+        <v>0.6376395705646577</v>
       </c>
       <c r="G114" t="n">
-        <v>0.1583333333333334</v>
+        <v>0.5212545131528691</v>
       </c>
       <c r="H114" t="n">
-        <v>0.9986055396016318</v>
+        <v>0.7918698206865462</v>
       </c>
       <c r="I114" t="n">
-        <v>0.9954710320854808</v>
+        <v>0.715542120094006</v>
       </c>
       <c r="J114" t="n">
-        <v>0.7097890436050871</v>
+        <v>0.4299545199676033</v>
       </c>
       <c r="K114" t="n">
-        <v>0.979874732390936</v>
+        <v>0.4402074279662564</v>
       </c>
       <c r="L114" t="n">
-        <v>1</v>
+        <v>0.440046565774156</v>
       </c>
       <c r="M114" t="n">
-        <v>0</v>
+        <v>0.4025787965616046</v>
       </c>
       <c r="N114" t="n">
+        <v>0.4352626004610304</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0.5069370330843117</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
+      <c r="S114" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9829086305733387</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6141516814972751</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5939427102711708</v>
+        <v>0.8447262678280361</v>
       </c>
       <c r="E115" t="n">
-        <v>0.1329664300756108</v>
+        <v>0.8416470585126722</v>
       </c>
       <c r="F115" t="n">
-        <v>0.8399999999999999</v>
+        <v>0.7138988210305859</v>
       </c>
       <c r="G115" t="n">
-        <v>0.15</v>
+        <v>0.5868144811628956</v>
       </c>
       <c r="H115" t="n">
-        <v>0.9982042823855393</v>
+        <v>0.5933676549433829</v>
       </c>
       <c r="I115" t="n">
-        <v>0.9951026246083812</v>
+        <v>0.6505039259497141</v>
       </c>
       <c r="J115" t="n">
-        <v>0.7918698206865462</v>
+        <v>0.4743442776151018</v>
       </c>
       <c r="K115" t="n">
-        <v>0.9818776518647443</v>
+        <v>0.4752291567761019</v>
       </c>
       <c r="L115" t="n">
-        <v>1</v>
+        <v>0.4481955762514552</v>
       </c>
       <c r="M115" t="n">
-        <v>0</v>
+        <v>0.4226361031518625</v>
       </c>
       <c r="N115" t="n">
+        <v>0.4703133761136378</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0.4749199573105657</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
+      <c r="S115" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9842841400475335</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5672293017361408</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7311467348574048</v>
+        <v>0.8216318148412766</v>
       </c>
       <c r="E116" t="n">
-        <v>0.145175955863196</v>
+        <v>0.8374910264999796</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8399999999999999</v>
+        <v>0.7600785885849027</v>
       </c>
       <c r="G116" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.6270636380864696</v>
       </c>
       <c r="H116" t="n">
-        <v>0.9986459402198081</v>
+        <v>0.5369842896455852</v>
       </c>
       <c r="I116" t="n">
-        <v>0.995773276933737</v>
+        <v>0.6095448924487573</v>
       </c>
       <c r="J116" t="n">
-        <v>0.5933676549433829</v>
+        <v>0.5889103482649056</v>
       </c>
       <c r="K116" t="n">
-        <v>0.9777341744656977</v>
+        <v>0.5723843260417047</v>
       </c>
       <c r="L116" t="n">
-        <v>0</v>
+        <v>0.5715948777648429</v>
       </c>
       <c r="M116" t="n">
-        <v>0</v>
+        <v>0.5472779369627507</v>
       </c>
       <c r="N116" t="n">
-        <v>0</v>
+        <v>0.5916640707744065</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0.6104589114194238</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0.4732323834505783</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0.4684405202243169</v>
+      </c>
+      <c r="S116" t="n">
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9846238290349504</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5672169672742053</v>
+        <v>0.2232142857142858</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7525806944403595</v>
+        <v>0.829324685465715</v>
       </c>
       <c r="E117" t="n">
-        <v>0.1658346478648221</v>
+        <v>0.8333904031509844</v>
       </c>
       <c r="F117" t="n">
-        <v>0.8399999999999999</v>
+        <v>0.8226935712063261</v>
       </c>
       <c r="G117" t="n">
-        <v>0.1083333333333333</v>
+        <v>0.6810947174382699</v>
       </c>
       <c r="H117" t="n">
-        <v>0.9988816793440317</v>
+        <v>0.5733056891296506</v>
       </c>
       <c r="I117" t="n">
-        <v>0.9961850097564295</v>
+        <v>0.5555198119347867</v>
       </c>
       <c r="J117" t="n">
-        <v>0.5369842896455852</v>
+        <v>0.645349199426827</v>
       </c>
       <c r="K117" t="n">
-        <v>0.9751247411652975</v>
+        <v>0.6398495416864478</v>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N117" t="n">
+        <v>0.6439723381720764</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0.3325384523667581</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="R117" t="n">
+        <v>0.3332537883307481</v>
+      </c>
+      <c r="S117" t="n">
         <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9850928378974136</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5672045918151464</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7824997900443604</v>
+        <v>0.8248883981973458</v>
       </c>
       <c r="E118" t="n">
-        <v>0.1151835783290364</v>
+        <v>0.8417035358198151</v>
       </c>
       <c r="F118" t="n">
-        <v>0.8399999999999999</v>
+        <v>0.6025996428573106</v>
       </c>
       <c r="G118" t="n">
-        <v>0.09166666666666667</v>
+        <v>0.4975021534481395</v>
       </c>
       <c r="H118" t="n">
-        <v>0.9992344483800536</v>
+        <v>0.7869501147721993</v>
       </c>
       <c r="I118" t="n">
-        <v>0.9967377261488968</v>
+        <v>0.727339110023481</v>
       </c>
       <c r="J118" t="n">
-        <v>0.5733056891296506</v>
+        <v>0.3524577907918509</v>
       </c>
       <c r="K118" t="n">
-        <v>0.9716828912948247</v>
+        <v>0.3734798962860169</v>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>0.6752037252619325</v>
       </c>
       <c r="M118" t="n">
-        <v>0</v>
+        <v>0.6375358166189111</v>
       </c>
       <c r="N118" t="n">
+        <v>0.3524577907918509</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0.7033084311632871</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0.3790389889114105</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="R118" t="n">
+        <v>0.3811001073857535</v>
+      </c>
+      <c r="S118" t="n">
         <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9867772971812205</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C119" t="n">
-        <v>0.6427792807430464</v>
+        <v>0.2797619047619048</v>
       </c>
       <c r="D119" t="n">
-        <v>0.8292471137121744</v>
+        <v>0.8454799427581161</v>
       </c>
       <c r="E119" t="n">
-        <v>0.1504477634023553</v>
+        <v>0.8353271160933808</v>
       </c>
       <c r="F119" t="n">
-        <v>0.879999999999999</v>
+        <v>0.5654877171437606</v>
       </c>
       <c r="G119" t="n">
-        <v>0.06666666666666665</v>
+        <v>0.4676623037450959</v>
       </c>
       <c r="H119" t="n">
-        <v>0.9976262724086693</v>
+        <v>0.7086646182002438</v>
       </c>
       <c r="I119" t="n">
-        <v>0.9948596474417933</v>
+        <v>0.7530938587693652</v>
       </c>
       <c r="J119" t="n">
-        <v>0.7869501147721993</v>
+        <v>0.4078125973459597</v>
       </c>
       <c r="K119" t="n">
-        <v>0.9826292188753706</v>
+        <v>0.4118905890516014</v>
       </c>
       <c r="L119" t="n">
-        <v>0</v>
+        <v>0.1117578579743888</v>
       </c>
       <c r="M119" t="n">
-        <v>0</v>
+        <v>0.07879656160458454</v>
       </c>
       <c r="N119" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.4078125973459597</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0.1867662753468517</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
+      <c r="S119" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9863838845757229</v>
+        <v>0.0534188034188034</v>
       </c>
       <c r="C120" t="n">
-        <v>0.6425569613795258</v>
+        <v>0.2529761904761905</v>
       </c>
       <c r="D120" t="n">
-        <v>0.8074887727127894</v>
+        <v>0.8253004314759759</v>
       </c>
       <c r="E120" t="n">
-        <v>0.2215720328580892</v>
+        <v>0.833561803676217</v>
       </c>
       <c r="F120" t="n">
-        <v>0.879999999999999</v>
+        <v>0.6192756343424879</v>
       </c>
       <c r="G120" t="n">
-        <v>0.06666666666666665</v>
+        <v>0.514188362156491</v>
       </c>
       <c r="H120" t="n">
-        <v>0.9972916942222969</v>
+        <v>0.6505070675988471</v>
       </c>
       <c r="I120" t="n">
-        <v>0.9945543976804061</v>
+        <v>0.7063060091136275</v>
       </c>
       <c r="J120" t="n">
-        <v>0.7086646182002438</v>
+        <v>0.5381284655161672</v>
       </c>
       <c r="K120" t="n">
-        <v>0.9842700119624287</v>
+        <v>0.5359967863272833</v>
       </c>
       <c r="L120" t="n">
-        <v>0</v>
+        <v>0.5075669383003493</v>
       </c>
       <c r="M120" t="n">
-        <v>0</v>
+        <v>0.502865329512894</v>
       </c>
       <c r="N120" t="n">
+        <v>0.5381284655161672</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0.5496264674493063</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
+      <c r="S120" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9867060139077807</v>
+        <v>0.1068376068376068</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6423362731205151</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="D121" t="n">
-        <v>0.832372549079529</v>
+        <v>0.8417655800512969</v>
       </c>
       <c r="E121" t="n">
-        <v>0.2474646398073269</v>
+        <v>0.8258912572247243</v>
       </c>
       <c r="F121" t="n">
-        <v>0.879999999999999</v>
+        <v>0.489324319833715</v>
       </c>
       <c r="G121" t="n">
-        <v>0.06666666666666665</v>
+        <v>0.4721248518586087</v>
       </c>
       <c r="H121" t="n">
-        <v>0.9975910031101359</v>
+        <v>0.6833060359507753</v>
       </c>
       <c r="I121" t="n">
-        <v>0.9950303407018924</v>
+        <v>0.6972321076461721</v>
       </c>
       <c r="J121" t="n">
-        <v>0.6505070675988471</v>
+        <v>1</v>
       </c>
       <c r="K121" t="n">
-        <v>0.981289234280188</v>
+        <v>1</v>
       </c>
       <c r="L121" t="n">
-        <v>0</v>
+        <v>0.429569266589057</v>
       </c>
       <c r="M121" t="n">
-        <v>0</v>
+        <v>0.4011461318051576</v>
       </c>
       <c r="N121" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0.4781216648879403</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0.418504828901872</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="R121" t="n">
+        <v>0.415702183510321</v>
+      </c>
+      <c r="S121" t="n">
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B122" t="n">
-        <v>0.9809365645295356</v>
+        <v>0.202991452991453</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>0.3898809523809523</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>0.8225231991975527</v>
       </c>
       <c r="E122" t="n">
-        <v>0.2899185086085146</v>
+        <v>0.8457818859679205</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9199999999999982</v>
+        <v>0.4331138755374027</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04999999999999999</v>
+        <v>0.4251923371974232</v>
       </c>
       <c r="H122" t="n">
-        <v>0.9913723772165168</v>
+        <v>0.7548506731960245</v>
       </c>
       <c r="I122" t="n">
-        <v>0.9946000477678022</v>
+        <v>0.7398704241936578</v>
       </c>
       <c r="J122" t="n">
-        <v>0.6833060359507753</v>
+        <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>0.9807111507994541</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
-        <v>0</v>
+        <v>0.6251455180442375</v>
       </c>
       <c r="M122" t="n">
-        <v>0</v>
+        <v>0.5673352435530086</v>
       </c>
       <c r="N122" t="n">
-        <v>0.4000000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0.6574172892209179</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0.3681888637176583</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R122" t="n">
+        <v>0.3714353895716501</v>
+      </c>
+      <c r="S122" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B123" t="n">
-        <v>0.9804999458313893</v>
+        <v>0.2756410256410256</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>0.4494047619047619</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>0.8314178054745589</v>
       </c>
       <c r="E123" t="n">
-        <v>0.20317847274349</v>
+        <v>0.8276147347747844</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9199999999999982</v>
+        <v>0.1374347214749984</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.1770005803134108</v>
       </c>
       <c r="H123" t="n">
-        <v>0.9909978008987025</v>
+        <v>0.9618970566512602</v>
       </c>
       <c r="I123" t="n">
-        <v>0.994119946860988</v>
+        <v>0.9738455872944172</v>
       </c>
       <c r="J123" t="n">
-        <v>0.7548506731960245</v>
+        <v>0.2466326085602143</v>
       </c>
       <c r="K123" t="n">
-        <v>0.9834275684871278</v>
+        <v>0.263703757805938</v>
       </c>
       <c r="L123" t="n">
-        <v>0</v>
+        <v>0.4307334109429569</v>
       </c>
       <c r="M123" t="n">
-        <v>0</v>
+        <v>0.3882521489971347</v>
       </c>
       <c r="N123" t="n">
-        <v>0</v>
+        <v>0.2466326085602143</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0.4791889007470652</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0.3974007392392989</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="R123" t="n">
+        <v>0.3980431929364037</v>
+      </c>
+      <c r="S123" t="n">
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B124" t="n">
-        <v>0.9781874232758202</v>
+        <v>0.393162393162393</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>0.6339285714285714</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>0.7954831318683658</v>
       </c>
       <c r="E124" t="n">
-        <v>0.1533211026921886</v>
+        <v>0.8217095570311057</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9199999999999982</v>
+        <v>0.7513496897980874</v>
       </c>
       <c r="G124" t="n">
-        <v>0.01666666666666672</v>
+        <v>0.6932439258117669</v>
       </c>
       <c r="H124" t="n">
-        <v>0.9889596728338375</v>
+        <v>0.5362716851339961</v>
       </c>
       <c r="I124" t="n">
-        <v>0.9915810441747794</v>
+        <v>0.4812012897864462</v>
       </c>
       <c r="J124" t="n">
-        <v>0.9618970566512602</v>
+        <v>0.442626627624447</v>
       </c>
       <c r="K124" t="n">
-        <v>0.9983337449731385</v>
+        <v>0.4449475952233137</v>
       </c>
       <c r="L124" t="n">
-        <v>0</v>
+        <v>0.05937136204889404</v>
       </c>
       <c r="M124" t="n">
-        <v>0</v>
+        <v>0.04011461318051579</v>
       </c>
       <c r="N124" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.442626627624447</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
+      <c r="S124" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9925276141964852</v>
+        <v>0.4294871794871794</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>0.6785714285714285</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>0.8174440166948352</v>
       </c>
       <c r="E125" t="n">
-        <v>0.1043572006310489</v>
+        <v>0.8257191154752621</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9600000000000009</v>
+        <v>0.4142452171375457</v>
       </c>
       <c r="G125" t="n">
-        <v>0.008333333333333359</v>
+        <v>0.4102275055494064</v>
       </c>
       <c r="H125" t="n">
-        <v>0.9932393505182627</v>
+        <v>0.8373213481418396</v>
       </c>
       <c r="I125" t="n">
-        <v>0.9968620077050695</v>
+        <v>0.7483215705549733</v>
       </c>
       <c r="J125" t="n">
-        <v>0.5362716851339961</v>
+        <v>0.5392498909725251</v>
       </c>
       <c r="K125" t="n">
-        <v>0.9669481793166751</v>
+        <v>0.5300660994047401</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>0.4039580908032596</v>
       </c>
       <c r="M125" t="n">
-        <v>0</v>
+        <v>0.3495702005730659</v>
       </c>
       <c r="N125" t="n">
+        <v>0.5392498909725251</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0.5933831376734259</v>
+      </c>
+      <c r="P125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
+      <c r="S125" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B126" t="n">
-        <v>0.9896540553140165</v>
+        <v>0.5555555555555555</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>0.7989289927695611</v>
       </c>
       <c r="E126" t="n">
-        <v>0.1795203267886614</v>
+        <v>0.8259061849629872</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9600000000000009</v>
+        <v>0.09654796218277023</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>0.1435164357320371</v>
       </c>
       <c r="H126" t="n">
-        <v>0.9909130744676957</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>0.9939668626016765</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="J126" t="n">
-        <v>0.8373213481418396</v>
+        <v>0.4805058874836459</v>
       </c>
       <c r="K126" t="n">
-        <v>0.983965977254543</v>
+        <v>0.4772084870174926</v>
       </c>
       <c r="L126" t="n">
-        <v>0</v>
+        <v>0.4935972060535506</v>
       </c>
       <c r="M126" t="n">
-        <v>0</v>
+        <v>0.4584527220630372</v>
       </c>
       <c r="N126" t="n">
-        <v>0</v>
+        <v>0.4805058874836459</v>
+      </c>
+      <c r="O126" t="n">
+        <v>0.5474919957310567</v>
+      </c>
+      <c r="P126" t="n">
+        <v>0.3914391319899845</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="R126" t="n">
+        <v>0.3912420952153681</v>
+      </c>
+      <c r="S126" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9869420778421085</v>
+        <v>0.6346153846153846</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>0.6785714285714285</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>0.8140641755195509</v>
       </c>
       <c r="E127" t="n">
-        <v>0.2540828620568416</v>
+        <v>0.8330763197266476</v>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>0.9844929273785699</v>
       </c>
       <c r="G127" t="n">
-        <v>0.008333333333333359</v>
+        <v>0.8900452140396393</v>
       </c>
       <c r="H127" t="n">
-        <v>0.9887214047936665</v>
+        <v>0.3707296219929684</v>
       </c>
       <c r="I127" t="n">
-        <v>0.9912385147302469</v>
+        <v>0.2884122331018379</v>
       </c>
       <c r="J127" t="n">
-        <v>1</v>
+        <v>0.5064793470811787</v>
       </c>
       <c r="K127" t="n">
-        <v>1</v>
+        <v>0.4961472446408355</v>
       </c>
       <c r="L127" t="n">
-        <v>0</v>
+        <v>0.4610011641443539</v>
       </c>
       <c r="M127" t="n">
-        <v>0</v>
+        <v>0.4469914040114613</v>
       </c>
       <c r="N127" t="n">
-        <v>1</v>
+        <v>0.5064793470811787</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0.4962646744930631</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0.3927506855848337</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="R127" t="n">
+        <v>0.3907648251998568</v>
+      </c>
+      <c r="S127" t="n">
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9830576570261461</v>
+        <v>0.6901709401709401</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>0.6785714285714285</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>0.8208919451701608</v>
       </c>
       <c r="E128" t="n">
-        <v>0.09685016508167336</v>
+        <v>0.8251705550787586</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>0.6839022927114232</v>
       </c>
       <c r="G128" t="n">
-        <v>0.01666666666666672</v>
+        <v>0.6377014851136285</v>
       </c>
       <c r="H128" t="n">
-        <v>0.9949038799073063</v>
+        <v>0.4356150255383813</v>
       </c>
       <c r="I128" t="n">
-        <v>0.9988752063930684</v>
+        <v>0.5264563935012007</v>
       </c>
       <c r="J128" t="n">
-        <v>0.3707296219929684</v>
+        <v>0.4998068656158495</v>
       </c>
       <c r="K128" t="n">
-        <v>0.9546659025765803</v>
+        <v>0.4918014826717306</v>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>0.5215366705471478</v>
       </c>
       <c r="M128" t="n">
-        <v>0</v>
+        <v>0.494269340974212</v>
       </c>
       <c r="N128" t="n">
-        <v>0.2000000000000001</v>
+        <v>0.4998068656158495</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0.5624332977588048</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0.3943007034696555</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="R128" t="n">
+        <v>0.3925545877580241</v>
+      </c>
+      <c r="S128" t="n">
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B129" t="n">
-        <v>0.9807199546695198</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>0.8630952380952381</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>0.8120903226948355</v>
       </c>
       <c r="E129" t="n">
-        <v>0.3042254903999954</v>
+        <v>0.8250688681905269</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>0.6186936499385529</v>
       </c>
       <c r="G129" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.5831727021851466</v>
       </c>
       <c r="H129" t="n">
-        <v>0.9928306437579619</v>
+        <v>0.5617259035703712</v>
       </c>
       <c r="I129" t="n">
-        <v>0.9962938306888078</v>
+        <v>0.5764609710971633</v>
       </c>
       <c r="J129" t="n">
-        <v>0.4356150255383813</v>
+        <v>0.408709737711046</v>
       </c>
       <c r="K129" t="n">
-        <v>0.9698313082519218</v>
+        <v>0.4234963298396816</v>
       </c>
       <c r="L129" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M129" t="n">
-        <v>0</v>
+        <v>0.4340974212034384</v>
       </c>
       <c r="N129" t="n">
+        <v>0.408709737711046</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0.5218783351120598</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0.3907237391200668</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="R129" t="n">
+        <v>0.3941057153084357</v>
+      </c>
+      <c r="S129" t="n">
         <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B130" t="n">
-        <v>0.9802258672411133</v>
+        <v>0.9358974358974357</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>0.7984613780182788</v>
       </c>
       <c r="E130" t="n">
-        <v>0.1468457109283386</v>
+        <v>0.8241011740306265</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9600000000000009</v>
+        <v>0.5885850974970717</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04166666666666669</v>
+        <v>0.5581382581820156</v>
       </c>
       <c r="H130" t="n">
-        <v>0.9923921725685163</v>
+        <v>0.5863861258720136</v>
       </c>
       <c r="I130" t="n">
-        <v>0.9957360229872511</v>
+        <v>0.5984463686739868</v>
       </c>
       <c r="J130" t="n">
-        <v>0.5617259035703712</v>
+        <v>0.3693227836271883</v>
       </c>
       <c r="K130" t="n">
-        <v>0.9730170184310524</v>
+        <v>0.4008764561954498</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>0.3655413271245634</v>
       </c>
       <c r="M130" t="n">
-        <v>0</v>
+        <v>0.3438395415472779</v>
       </c>
       <c r="N130" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.357466824496916</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0.3831376734258272</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
+      <c r="S130" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B131" t="n">
-        <v>0.9791466503172632</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>0.9732142857142858</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>0.8047628919116875</v>
       </c>
       <c r="E131" t="n">
-        <v>0.2137859814001123</v>
+        <v>0.8228511729719241</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>0.8170716038340224</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>0.7504276760423443</v>
       </c>
       <c r="H131" t="n">
-        <v>0.9921973201784812</v>
+        <v>0.4252858022654106</v>
       </c>
       <c r="I131" t="n">
-        <v>0.9954799306096264</v>
+        <v>0.4138219580597101</v>
       </c>
       <c r="J131" t="n">
-        <v>0.5863861258720136</v>
+        <v>0.457080555728615</v>
       </c>
       <c r="K131" t="n">
-        <v>0.9744176722955573</v>
+        <v>0.462863820618632</v>
       </c>
       <c r="L131" t="n">
-        <v>0</v>
+        <v>0.4377182770663562</v>
       </c>
       <c r="M131" t="n">
-        <v>0</v>
+        <v>0.4154727793696275</v>
       </c>
       <c r="N131" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
+      <c r="S131" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B132" t="n">
-        <v>0.9809558157018705</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>0.8305827208491328</v>
       </c>
       <c r="E132" t="n">
-        <v>0.2662159434983676</v>
+        <v>0.8209963916862013</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>0.8516226975175831</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>0.7797258353223344</v>
       </c>
       <c r="H132" t="n">
-        <v>0.9937984759312937</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0.9974469746632418</v>
+        <v>0.3841808102347977</v>
       </c>
       <c r="J132" t="n">
-        <v>0.4252858022654106</v>
+        <v>0.4689365148588873</v>
       </c>
       <c r="K132" t="n">
-        <v>0.9626555518560601</v>
+        <v>0.4713362305079794</v>
       </c>
       <c r="L132" t="n">
-        <v>0</v>
+        <v>0.4772991850989522</v>
       </c>
       <c r="M132" t="n">
-        <v>0</v>
+        <v>0.4484240687679083</v>
       </c>
       <c r="N132" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
-        <v>44896</v>
-      </c>
-      <c r="B133" t="n">
-        <v>0.9812455951373444</v>
-      </c>
-      <c r="C133" t="n">
-        <v>0</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0.9940523862432423</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.9977466831476445</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.9607671626147806</v>
-      </c>
-      <c r="L133" t="n">
-        <v>0</v>
-      </c>
-      <c r="M133" t="n">
-        <v>0</v>
-      </c>
-      <c r="N133" t="n">
+        <v>0.4689365148588873</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0.385000596160725</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="R132" t="n">
+        <v>0.3837250924710655</v>
+      </c>
+      <c r="S132" t="n">
         <v>0.6000000000000001</v>
       </c>
     </row>
